--- a/documentation/Tabla_de_registros_HMI.xlsx
+++ b/documentation/Tabla_de_registros_HMI.xlsx
@@ -23,8 +23,32 @@
 </workbook>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author> </author>
+  </authors>
+  <commentList>
+    <comment ref="E83" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">params</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="247">
   <si>
     <t xml:space="preserve">Elemento </t>
   </si>
@@ -851,6 +875,10 @@
   </si>
   <si>
     <t xml:space="preserve">MW-117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">por convension HR comienza desde
+40000</t>
   </si>
   <si>
     <t xml:space="preserve">Alarma de proceso</t>
@@ -999,7 +1027,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1027,6 +1055,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDBB6"/>
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
@@ -1239,7 +1273,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="88">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1508,10 +1542,30 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1549,6 +1603,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1620,7 +1678,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFDBB6"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -1682,8 +1740,8 @@
   </sheetPr>
   <dimension ref="A1:J294"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A78" activeCellId="0" sqref="A78"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B106" activeCellId="0" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1694,7 +1752,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="36.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="33.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="31.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="20.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="24.15"/>
@@ -3622,40 +3680,40 @@
       <c r="H82" s="62"/>
       <c r="I82" s="62"/>
     </row>
-    <row r="83" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="23" t="s">
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="67" t="s">
         <v>135</v>
       </c>
-      <c r="B83" s="66" t="s">
+      <c r="B83" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="C83" s="29" t="s">
+      <c r="C83" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="D83" s="18" t="s">
+      <c r="D83" s="70" t="s">
         <v>138</v>
       </c>
-      <c r="E83" s="29" t="s">
+      <c r="E83" s="69" t="s">
         <v>90</v>
       </c>
       <c r="F83" s="62"/>
       <c r="G83" s="62"/>
       <c r="I83" s="62"/>
     </row>
-    <row r="84" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="23" t="s">
+    <row r="84" customFormat="false" ht="27.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="B84" s="66" t="s">
+      <c r="B84" s="68" t="s">
         <v>140</v>
       </c>
-      <c r="C84" s="29" t="s">
+      <c r="C84" s="69" t="s">
         <v>141</v>
       </c>
-      <c r="D84" s="18" t="s">
+      <c r="D84" s="70" t="s">
         <v>142</v>
       </c>
-      <c r="E84" s="29" t="s">
+      <c r="E84" s="69" t="s">
         <v>90</v>
       </c>
       <c r="F84" s="62"/>
@@ -3676,7 +3734,7 @@
       <c r="D85" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="E85" s="67" t="s">
+      <c r="E85" s="71" t="s">
         <v>146</v>
       </c>
       <c r="F85" s="62"/>
@@ -3697,7 +3755,7 @@
       <c r="D86" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="E86" s="67" t="s">
+      <c r="E86" s="71" t="s">
         <v>146</v>
       </c>
       <c r="F86" s="62"/>
@@ -3718,7 +3776,7 @@
       <c r="D87" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="E87" s="67" t="s">
+      <c r="E87" s="71" t="s">
         <v>146</v>
       </c>
       <c r="F87" s="62"/>
@@ -3739,7 +3797,7 @@
       <c r="D88" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="E88" s="67" t="s">
+      <c r="E88" s="71" t="s">
         <v>146</v>
       </c>
       <c r="F88" s="62"/>
@@ -3760,7 +3818,7 @@
       <c r="D89" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="E89" s="67" t="s">
+      <c r="E89" s="71" t="s">
         <v>146</v>
       </c>
       <c r="F89" s="62"/>
@@ -3781,7 +3839,7 @@
       <c r="D90" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="E90" s="67" t="s">
+      <c r="E90" s="71" t="s">
         <v>146</v>
       </c>
       <c r="F90" s="62"/>
@@ -3802,7 +3860,7 @@
       <c r="D91" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="E91" s="67" t="s">
+      <c r="E91" s="71" t="s">
         <v>146</v>
       </c>
       <c r="F91" s="62"/>
@@ -3823,7 +3881,7 @@
       <c r="D92" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="E92" s="67" t="s">
+      <c r="E92" s="71" t="s">
         <v>146</v>
       </c>
       <c r="F92" s="62"/>
@@ -3844,7 +3902,7 @@
       <c r="D93" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="E93" s="67" t="s">
+      <c r="E93" s="71" t="s">
         <v>146</v>
       </c>
       <c r="F93" s="62"/>
@@ -3865,7 +3923,7 @@
       <c r="D94" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="E94" s="67" t="s">
+      <c r="E94" s="71" t="s">
         <v>146</v>
       </c>
       <c r="F94" s="62"/>
@@ -3886,7 +3944,7 @@
       <c r="D95" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="E95" s="67" t="s">
+      <c r="E95" s="71" t="s">
         <v>146</v>
       </c>
       <c r="F95" s="62"/>
@@ -3907,7 +3965,7 @@
       <c r="D96" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="E96" s="67" t="s">
+      <c r="E96" s="71" t="s">
         <v>186</v>
       </c>
       <c r="F96" s="62"/>
@@ -3928,7 +3986,7 @@
       <c r="D97" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="E97" s="67" t="s">
+      <c r="E97" s="71" t="s">
         <v>186</v>
       </c>
       <c r="F97" s="62"/>
@@ -3949,7 +4007,7 @@
       <c r="D98" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="E98" s="67" t="s">
+      <c r="E98" s="71" t="s">
         <v>186</v>
       </c>
       <c r="F98" s="62"/>
@@ -3957,20 +4015,20 @@
       <c r="H98" s="62"/>
       <c r="I98" s="62"/>
     </row>
-    <row r="99" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="23" t="s">
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="67" t="s">
         <v>195</v>
       </c>
-      <c r="B99" s="66" t="s">
+      <c r="B99" s="68" t="s">
         <v>196</v>
       </c>
-      <c r="C99" s="29" t="s">
+      <c r="C99" s="69" t="s">
         <v>197</v>
       </c>
-      <c r="D99" s="18" t="s">
+      <c r="D99" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="E99" s="67" t="s">
+      <c r="E99" s="72" t="s">
         <v>186</v>
       </c>
       <c r="F99" s="62"/>
@@ -3979,19 +4037,19 @@
       <c r="I99" s="62"/>
     </row>
     <row r="100" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="23" t="s">
+      <c r="A100" s="67" t="s">
         <v>199</v>
       </c>
-      <c r="B100" s="66" t="s">
+      <c r="B100" s="68" t="s">
         <v>200</v>
       </c>
-      <c r="C100" s="29" t="s">
+      <c r="C100" s="69" t="s">
         <v>201</v>
       </c>
-      <c r="D100" s="18" t="s">
+      <c r="D100" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="E100" s="67" t="s">
+      <c r="E100" s="72" t="s">
         <v>186</v>
       </c>
       <c r="F100" s="62"/>
@@ -4000,19 +4058,19 @@
       <c r="I100" s="62"/>
     </row>
     <row r="101" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="23" t="s">
+      <c r="A101" s="67" t="s">
         <v>202</v>
       </c>
-      <c r="B101" s="66" t="s">
+      <c r="B101" s="68" t="s">
         <v>203</v>
       </c>
-      <c r="C101" s="29" t="s">
+      <c r="C101" s="69" t="s">
         <v>204</v>
       </c>
-      <c r="D101" s="18" t="s">
+      <c r="D101" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="E101" s="67" t="s">
+      <c r="E101" s="72" t="s">
         <v>186</v>
       </c>
       <c r="F101" s="62"/>
@@ -4021,19 +4079,19 @@
       <c r="I101" s="62"/>
     </row>
     <row r="102" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="23" t="s">
+      <c r="A102" s="67" t="s">
         <v>205</v>
       </c>
-      <c r="B102" s="66" t="s">
+      <c r="B102" s="68" t="s">
         <v>206</v>
       </c>
-      <c r="C102" s="29" t="s">
+      <c r="C102" s="69" t="s">
         <v>207</v>
       </c>
-      <c r="D102" s="18" t="s">
+      <c r="D102" s="70" t="s">
         <v>208</v>
       </c>
-      <c r="E102" s="67" t="s">
+      <c r="E102" s="72" t="s">
         <v>186</v>
       </c>
       <c r="F102" s="62"/>
@@ -4042,19 +4100,19 @@
       <c r="I102" s="62"/>
     </row>
     <row r="103" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="23" t="s">
+      <c r="A103" s="67" t="s">
         <v>209</v>
       </c>
-      <c r="B103" s="66" t="s">
+      <c r="B103" s="68" t="s">
         <v>210</v>
       </c>
-      <c r="C103" s="29" t="s">
+      <c r="C103" s="69" t="s">
         <v>211</v>
       </c>
-      <c r="D103" s="18" t="s">
+      <c r="D103" s="70" t="s">
         <v>212</v>
       </c>
-      <c r="E103" s="67" t="s">
+      <c r="E103" s="72" t="s">
         <v>186</v>
       </c>
       <c r="F103" s="62"/>
@@ -4063,19 +4121,19 @@
       <c r="I103" s="62"/>
     </row>
     <row r="104" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="23" t="s">
+      <c r="A104" s="67" t="s">
         <v>213</v>
       </c>
-      <c r="B104" s="66" t="s">
+      <c r="B104" s="68" t="s">
         <v>214</v>
       </c>
-      <c r="C104" s="29" t="s">
+      <c r="C104" s="69" t="s">
         <v>215</v>
       </c>
-      <c r="D104" s="18" t="s">
+      <c r="D104" s="70" t="s">
         <v>213</v>
       </c>
-      <c r="E104" s="67" t="s">
+      <c r="E104" s="72" t="s">
         <v>186</v>
       </c>
       <c r="F104" s="62"/>
@@ -4156,14 +4214,14 @@
       <c r="I111" s="62"/>
     </row>
     <row r="112" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="68"/>
-      <c r="B112" s="69" t="s">
+      <c r="A112" s="73"/>
+      <c r="B112" s="74" t="s">
         <v>216</v>
       </c>
-      <c r="C112" s="69" t="s">
+      <c r="C112" s="74" t="s">
         <v>217</v>
       </c>
-      <c r="D112" s="70" t="s">
+      <c r="D112" s="75" t="s">
         <v>218</v>
       </c>
       <c r="E112" s="66" t="s">
@@ -4177,117 +4235,119 @@
       <c r="I112" s="62"/>
     </row>
     <row r="113" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="71"/>
-      <c r="B113" s="72"/>
-      <c r="C113" s="72"/>
-      <c r="D113" s="73"/>
+      <c r="A113" s="76"/>
+      <c r="B113" s="77"/>
+      <c r="C113" s="77"/>
+      <c r="D113" s="78"/>
       <c r="E113" s="62"/>
       <c r="F113" s="62"/>
       <c r="G113" s="62"/>
       <c r="H113" s="62"/>
       <c r="I113" s="62"/>
     </row>
-    <row r="114" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="74" t="s">
+    <row r="114" customFormat="false" ht="41" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="79" t="s">
         <v>219</v>
       </c>
-      <c r="B114" s="75" t="s">
+      <c r="B114" s="80" t="s">
         <v>220</v>
       </c>
-      <c r="C114" s="76" t="s">
+      <c r="C114" s="81" t="s">
         <v>221</v>
       </c>
-      <c r="D114" s="77" t="s">
+      <c r="D114" s="82" t="s">
         <v>222</v>
       </c>
-      <c r="E114" s="75" t="s">
+      <c r="E114" s="80" t="s">
         <v>223</v>
       </c>
-      <c r="F114" s="76" t="s">
+      <c r="F114" s="81" t="s">
         <v>224</v>
       </c>
-      <c r="G114" s="62"/>
+      <c r="G114" s="83" t="s">
+        <v>225</v>
+      </c>
       <c r="H114" s="62"/>
       <c r="I114" s="62"/>
     </row>
     <row r="115" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="74"/>
-      <c r="B115" s="75" t="s">
-        <v>225</v>
-      </c>
-      <c r="C115" s="76" t="s">
+      <c r="A115" s="79"/>
+      <c r="B115" s="80" t="s">
+        <v>226</v>
+      </c>
+      <c r="C115" s="81" t="s">
         <v>221</v>
       </c>
-      <c r="D115" s="77" t="s">
-        <v>226</v>
-      </c>
-      <c r="E115" s="75" t="s">
+      <c r="D115" s="82" t="s">
         <v>227</v>
       </c>
-      <c r="F115" s="76" t="s">
+      <c r="E115" s="80" t="s">
         <v>228</v>
+      </c>
+      <c r="F115" s="81" t="s">
+        <v>229</v>
       </c>
       <c r="G115" s="62"/>
       <c r="H115" s="62"/>
       <c r="I115" s="62"/>
     </row>
     <row r="116" customFormat="false" ht="78.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="74"/>
-      <c r="B116" s="75" t="s">
-        <v>229</v>
-      </c>
-      <c r="C116" s="76" t="s">
+      <c r="A116" s="79"/>
+      <c r="B116" s="80" t="s">
+        <v>230</v>
+      </c>
+      <c r="C116" s="81" t="s">
         <v>221</v>
       </c>
-      <c r="D116" s="77" t="s">
-        <v>230</v>
-      </c>
-      <c r="E116" s="75" t="s">
+      <c r="D116" s="82" t="s">
         <v>231</v>
       </c>
-      <c r="F116" s="76" t="s">
+      <c r="E116" s="80" t="s">
         <v>232</v>
+      </c>
+      <c r="F116" s="81" t="s">
+        <v>233</v>
       </c>
       <c r="G116" s="62"/>
       <c r="H116" s="62"/>
       <c r="I116" s="62"/>
     </row>
     <row r="117" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="74"/>
-      <c r="B117" s="75" t="s">
-        <v>233</v>
-      </c>
-      <c r="C117" s="76" t="s">
+      <c r="A117" s="79"/>
+      <c r="B117" s="80" t="s">
+        <v>234</v>
+      </c>
+      <c r="C117" s="81" t="s">
         <v>221</v>
       </c>
-      <c r="D117" s="77" t="s">
-        <v>234</v>
-      </c>
-      <c r="E117" s="75" t="s">
+      <c r="D117" s="82" t="s">
         <v>235</v>
       </c>
-      <c r="F117" s="76" t="s">
+      <c r="E117" s="80" t="s">
         <v>236</v>
+      </c>
+      <c r="F117" s="81" t="s">
+        <v>237</v>
       </c>
       <c r="G117" s="62"/>
       <c r="H117" s="62"/>
       <c r="I117" s="62"/>
     </row>
     <row r="118" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="74"/>
-      <c r="B118" s="75" t="s">
-        <v>237</v>
-      </c>
-      <c r="C118" s="76" t="s">
+      <c r="A118" s="79"/>
+      <c r="B118" s="80" t="s">
+        <v>238</v>
+      </c>
+      <c r="C118" s="81" t="s">
         <v>221</v>
       </c>
-      <c r="D118" s="77" t="s">
-        <v>238</v>
-      </c>
-      <c r="E118" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="F118" s="76" t="s">
+      <c r="D118" s="82" t="s">
+        <v>239</v>
+      </c>
+      <c r="E118" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="F118" s="81" t="s">
         <v>12</v>
       </c>
       <c r="G118" s="62"/>
@@ -4295,20 +4355,20 @@
       <c r="I118" s="62"/>
     </row>
     <row r="119" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="74"/>
-      <c r="B119" s="75" t="s">
+      <c r="A119" s="79"/>
+      <c r="B119" s="80" t="s">
+        <v>240</v>
+      </c>
+      <c r="C119" s="81" t="s">
+        <v>221</v>
+      </c>
+      <c r="D119" s="82" t="s">
         <v>239</v>
       </c>
-      <c r="C119" s="76" t="s">
-        <v>221</v>
-      </c>
-      <c r="D119" s="77" t="s">
-        <v>238</v>
-      </c>
-      <c r="E119" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="F119" s="76" t="s">
+      <c r="E119" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="F119" s="81" t="s">
         <v>12</v>
       </c>
       <c r="G119" s="62"/>
@@ -4316,20 +4376,20 @@
       <c r="I119" s="62"/>
     </row>
     <row r="120" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="74"/>
-      <c r="B120" s="75" t="s">
-        <v>240</v>
-      </c>
-      <c r="C120" s="76" t="s">
+      <c r="A120" s="79"/>
+      <c r="B120" s="80" t="s">
+        <v>241</v>
+      </c>
+      <c r="C120" s="81" t="s">
         <v>221</v>
       </c>
-      <c r="D120" s="77" t="s">
-        <v>238</v>
-      </c>
-      <c r="E120" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="F120" s="76" t="s">
+      <c r="D120" s="82" t="s">
+        <v>239</v>
+      </c>
+      <c r="E120" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="F120" s="81" t="s">
         <v>12</v>
       </c>
       <c r="G120" s="62"/>
@@ -4337,20 +4397,20 @@
       <c r="I120" s="62"/>
     </row>
     <row r="121" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="74"/>
-      <c r="B121" s="75" t="s">
-        <v>241</v>
-      </c>
-      <c r="C121" s="76" t="s">
+      <c r="A121" s="79"/>
+      <c r="B121" s="80" t="s">
+        <v>242</v>
+      </c>
+      <c r="C121" s="81" t="s">
         <v>221</v>
       </c>
-      <c r="D121" s="77" t="s">
-        <v>238</v>
-      </c>
-      <c r="E121" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="F121" s="76" t="s">
+      <c r="D121" s="82" t="s">
+        <v>239</v>
+      </c>
+      <c r="E121" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="F121" s="81" t="s">
         <v>12</v>
       </c>
       <c r="G121" s="62"/>
@@ -4358,20 +4418,20 @@
       <c r="I121" s="62"/>
     </row>
     <row r="122" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="74"/>
-      <c r="B122" s="75" t="s">
-        <v>242</v>
-      </c>
-      <c r="C122" s="76" t="s">
+      <c r="A122" s="79"/>
+      <c r="B122" s="80" t="s">
+        <v>243</v>
+      </c>
+      <c r="C122" s="81" t="s">
         <v>221</v>
       </c>
-      <c r="D122" s="77" t="s">
-        <v>238</v>
-      </c>
-      <c r="E122" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="F122" s="76" t="s">
+      <c r="D122" s="82" t="s">
+        <v>239</v>
+      </c>
+      <c r="E122" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="F122" s="81" t="s">
         <v>12</v>
       </c>
       <c r="G122" s="62"/>
@@ -4379,20 +4439,20 @@
       <c r="I122" s="62"/>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="74" t="s">
+      <c r="A123" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="B123" s="75" t="s">
-        <v>243</v>
-      </c>
-      <c r="C123" s="76" t="s">
+      <c r="B123" s="80" t="s">
+        <v>244</v>
+      </c>
+      <c r="C123" s="81" t="s">
         <v>221</v>
       </c>
-      <c r="D123" s="78"/>
-      <c r="E123" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="F123" s="76" t="s">
+      <c r="D123" s="84"/>
+      <c r="E123" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="F123" s="81" t="s">
         <v>12</v>
       </c>
       <c r="G123" s="62"/>
@@ -4400,18 +4460,18 @@
       <c r="I123" s="62"/>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="74"/>
-      <c r="B124" s="75" t="s">
-        <v>244</v>
-      </c>
-      <c r="C124" s="76" t="s">
+      <c r="A124" s="79"/>
+      <c r="B124" s="80" t="s">
+        <v>245</v>
+      </c>
+      <c r="C124" s="81" t="s">
         <v>221</v>
       </c>
-      <c r="D124" s="78"/>
-      <c r="E124" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="F124" s="76" t="s">
+      <c r="D124" s="84"/>
+      <c r="E124" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="F124" s="81" t="s">
         <v>12</v>
       </c>
       <c r="G124" s="62"/>
@@ -4419,18 +4479,18 @@
       <c r="I124" s="62"/>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="74"/>
-      <c r="B125" s="75" t="s">
+      <c r="A125" s="79"/>
+      <c r="B125" s="80" t="s">
         <v>182</v>
       </c>
-      <c r="C125" s="76" t="s">
+      <c r="C125" s="81" t="s">
         <v>221</v>
       </c>
-      <c r="D125" s="78"/>
-      <c r="E125" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="F125" s="76" t="s">
+      <c r="D125" s="84"/>
+      <c r="E125" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="F125" s="81" t="s">
         <v>12</v>
       </c>
       <c r="G125" s="62"/>
@@ -4438,18 +4498,18 @@
       <c r="I125" s="62"/>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="74"/>
-      <c r="B126" s="75" t="s">
+      <c r="A126" s="79"/>
+      <c r="B126" s="80" t="s">
         <v>187</v>
       </c>
-      <c r="C126" s="76" t="s">
+      <c r="C126" s="81" t="s">
         <v>221</v>
       </c>
-      <c r="D126" s="78"/>
-      <c r="E126" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="F126" s="76" t="s">
+      <c r="D126" s="84"/>
+      <c r="E126" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="F126" s="81" t="s">
         <v>12</v>
       </c>
       <c r="G126" s="62"/>
@@ -4457,18 +4517,18 @@
       <c r="I126" s="62"/>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="74"/>
-      <c r="B127" s="75" t="s">
+      <c r="A127" s="79"/>
+      <c r="B127" s="80" t="s">
         <v>191</v>
       </c>
-      <c r="C127" s="76" t="s">
+      <c r="C127" s="81" t="s">
         <v>221</v>
       </c>
-      <c r="D127" s="78"/>
-      <c r="E127" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="F127" s="76" t="s">
+      <c r="D127" s="84"/>
+      <c r="E127" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="F127" s="81" t="s">
         <v>12</v>
       </c>
       <c r="G127" s="62"/>
@@ -4476,18 +4536,18 @@
       <c r="I127" s="62"/>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="74"/>
-      <c r="B128" s="75" t="s">
+      <c r="A128" s="79"/>
+      <c r="B128" s="80" t="s">
         <v>195</v>
       </c>
-      <c r="C128" s="76" t="s">
+      <c r="C128" s="81" t="s">
         <v>221</v>
       </c>
-      <c r="D128" s="78"/>
-      <c r="E128" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="F128" s="76" t="s">
+      <c r="D128" s="84"/>
+      <c r="E128" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="F128" s="81" t="s">
         <v>12</v>
       </c>
       <c r="G128" s="62"/>
@@ -4495,18 +4555,18 @@
       <c r="I128" s="62"/>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="74"/>
-      <c r="B129" s="75" t="s">
+      <c r="A129" s="79"/>
+      <c r="B129" s="80" t="s">
         <v>199</v>
       </c>
-      <c r="C129" s="76" t="s">
+      <c r="C129" s="81" t="s">
         <v>221</v>
       </c>
-      <c r="D129" s="78"/>
-      <c r="E129" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="F129" s="76" t="s">
+      <c r="D129" s="84"/>
+      <c r="E129" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="F129" s="81" t="s">
         <v>12</v>
       </c>
       <c r="G129" s="62"/>
@@ -4514,18 +4574,18 @@
       <c r="I129" s="62"/>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="74"/>
-      <c r="B130" s="75" t="s">
+      <c r="A130" s="79"/>
+      <c r="B130" s="80" t="s">
         <v>202</v>
       </c>
-      <c r="C130" s="76" t="s">
+      <c r="C130" s="81" t="s">
         <v>221</v>
       </c>
-      <c r="D130" s="78"/>
-      <c r="E130" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="F130" s="76" t="s">
+      <c r="D130" s="84"/>
+      <c r="E130" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="F130" s="81" t="s">
         <v>12</v>
       </c>
       <c r="G130" s="62"/>
@@ -4533,18 +4593,18 @@
       <c r="I130" s="62"/>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="74"/>
-      <c r="B131" s="75" t="s">
+      <c r="A131" s="79"/>
+      <c r="B131" s="80" t="s">
         <v>205</v>
       </c>
-      <c r="C131" s="76" t="s">
+      <c r="C131" s="81" t="s">
         <v>221</v>
       </c>
-      <c r="D131" s="78"/>
-      <c r="E131" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="F131" s="76" t="s">
+      <c r="D131" s="84"/>
+      <c r="E131" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="F131" s="81" t="s">
         <v>12</v>
       </c>
       <c r="G131" s="62"/>
@@ -4552,20 +4612,20 @@
       <c r="I131" s="62"/>
     </row>
     <row r="132" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="74"/>
-      <c r="B132" s="79" t="s">
+      <c r="A132" s="79"/>
+      <c r="B132" s="85" t="s">
         <v>213</v>
       </c>
-      <c r="C132" s="80" t="s">
+      <c r="C132" s="86" t="s">
         <v>221</v>
       </c>
-      <c r="D132" s="81" t="s">
-        <v>245</v>
-      </c>
-      <c r="E132" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="F132" s="76" t="s">
+      <c r="D132" s="87" t="s">
+        <v>246</v>
+      </c>
+      <c r="E132" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="F132" s="81" t="s">
         <v>12</v>
       </c>
       <c r="G132" s="62"/>
@@ -6387,6 +6447,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/documentation/Tabla_de_registros_HMI.xlsx
+++ b/documentation/Tabla_de_registros_HMI.xlsx
@@ -4015,7 +4015,7 @@
       <c r="H98" s="62"/>
       <c r="I98" s="62"/>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="27.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="67" t="s">
         <v>195</v>
       </c>

--- a/documentation/Tabla_de_registros_HMI.xlsx
+++ b/documentation/Tabla_de_registros_HMI.xlsx
@@ -1712,7 +1712,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C11:C15 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1740,13 +1740,13 @@
   </sheetPr>
   <dimension ref="A1:J294"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B106" activeCellId="0" sqref="B106"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="34.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="61.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="36.99"/>
@@ -2031,7 +2031,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
         <v>45</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>46</v>
       </c>
       <c r="C11" s="17" t="n">
-        <v>5002</v>
+        <v>5052</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>32</v>
@@ -2059,13 +2059,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8"/>
       <c r="B12" s="23" t="s">
         <v>50</v>
       </c>
       <c r="C12" s="17" t="n">
-        <v>5002</v>
+        <v>5052</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>32</v>
@@ -2081,13 +2081,13 @@
       <c r="I12" s="12"/>
       <c r="J12" s="29"/>
     </row>
-    <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8"/>
       <c r="B13" s="23" t="s">
         <v>52</v>
       </c>
       <c r="C13" s="17" t="n">
-        <v>5002</v>
+        <v>5052</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>32</v>
@@ -2103,13 +2103,13 @@
       <c r="I13" s="12"/>
       <c r="J13" s="29"/>
     </row>
-    <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8"/>
       <c r="B14" s="23" t="s">
         <v>54</v>
       </c>
       <c r="C14" s="17" t="n">
-        <v>5002</v>
+        <v>5052</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>32</v>
@@ -2125,13 +2125,13 @@
       <c r="I14" s="12"/>
       <c r="J14" s="29"/>
     </row>
-    <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8"/>
       <c r="B15" s="23" t="s">
         <v>56</v>
       </c>
       <c r="C15" s="17" t="n">
-        <v>5002</v>
+        <v>5052</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>32</v>
@@ -3721,7 +3721,7 @@
       <c r="H84" s="62"/>
       <c r="I84" s="62"/>
     </row>
-    <row r="85" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="27.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="23" t="s">
         <v>143</v>
       </c>
@@ -3953,19 +3953,19 @@
       <c r="I95" s="62"/>
     </row>
     <row r="96" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="23" t="s">
+      <c r="A96" s="67" t="s">
         <v>182</v>
       </c>
-      <c r="B96" s="66" t="s">
+      <c r="B96" s="68" t="s">
         <v>183</v>
       </c>
-      <c r="C96" s="29" t="s">
+      <c r="C96" s="69" t="s">
         <v>184</v>
       </c>
-      <c r="D96" s="18" t="s">
+      <c r="D96" s="70" t="s">
         <v>185</v>
       </c>
-      <c r="E96" s="71" t="s">
+      <c r="E96" s="72" t="s">
         <v>186</v>
       </c>
       <c r="F96" s="62"/>
@@ -3974,19 +3974,19 @@
       <c r="I96" s="62"/>
     </row>
     <row r="97" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="23" t="s">
+      <c r="A97" s="67" t="s">
         <v>187</v>
       </c>
-      <c r="B97" s="66" t="s">
+      <c r="B97" s="68" t="s">
         <v>188</v>
       </c>
-      <c r="C97" s="29" t="s">
+      <c r="C97" s="69" t="s">
         <v>189</v>
       </c>
-      <c r="D97" s="18" t="s">
+      <c r="D97" s="70" t="s">
         <v>190</v>
       </c>
-      <c r="E97" s="71" t="s">
+      <c r="E97" s="72" t="s">
         <v>186</v>
       </c>
       <c r="F97" s="62"/>
@@ -3995,19 +3995,19 @@
       <c r="I97" s="62"/>
     </row>
     <row r="98" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="23" t="s">
+      <c r="A98" s="67" t="s">
         <v>191</v>
       </c>
-      <c r="B98" s="66" t="s">
+      <c r="B98" s="68" t="s">
         <v>192</v>
       </c>
-      <c r="C98" s="29" t="s">
+      <c r="C98" s="69" t="s">
         <v>193</v>
       </c>
-      <c r="D98" s="18" t="s">
+      <c r="D98" s="70" t="s">
         <v>194</v>
       </c>
-      <c r="E98" s="71" t="s">
+      <c r="E98" s="72" t="s">
         <v>186</v>
       </c>
       <c r="F98" s="62"/>
@@ -4099,7 +4099,7 @@
       <c r="H102" s="62"/>
       <c r="I102" s="62"/>
     </row>
-    <row r="103" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="27.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="67" t="s">
         <v>209</v>
       </c>
@@ -4120,7 +4120,7 @@
       <c r="H103" s="62"/>
       <c r="I103" s="62"/>
     </row>
-    <row r="104" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="67" t="s">
         <v>213</v>
       </c>

--- a/documentation/Tabla_de_registros_HMI.xlsx
+++ b/documentation/Tabla_de_registros_HMI.xlsx
@@ -188,7 +188,7 @@
     <t xml:space="preserve">Manifold</t>
   </si>
   <si>
-    <t xml:space="preserve">Activacion Electrovalvula 1</t>
+    <t xml:space="preserve">Activacion Electrovalvula 1 (subir pistones)</t>
   </si>
   <si>
     <t xml:space="preserve">Binario (00000001)=ON</t>
@@ -200,7 +200,7 @@
     <t xml:space="preserve">MW109</t>
   </si>
   <si>
-    <t xml:space="preserve">Activacion Electrovalvula 2</t>
+    <t xml:space="preserve">Activacion Electrovalvula 2 (bajar pistones)</t>
   </si>
   <si>
     <t xml:space="preserve">Binario (00000010)=ON</t>
@@ -1712,7 +1712,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C11:C15 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1741,7 +1741,7 @@
   <dimension ref="A1:J294"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11:C15"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/documentation/Tabla_de_registros_HMI.xlsx
+++ b/documentation/Tabla_de_registros_HMI.xlsx
@@ -206,19 +206,19 @@
     <t xml:space="preserve">Binario (00000010)=ON</t>
   </si>
   <si>
-    <t xml:space="preserve">Activacion Electrovalvula 3</t>
+    <t xml:space="preserve">Activacion Electrovalvula 3 ( señal acústica )</t>
   </si>
   <si>
     <t xml:space="preserve">Binario (00000100)=ON</t>
   </si>
   <si>
-    <t xml:space="preserve">Activacion Electrovalvula 4</t>
+    <t xml:space="preserve">Activacion Electrovalvula 4 (recircula grasa)</t>
   </si>
   <si>
     <t xml:space="preserve">Binario (00001000)=ON</t>
   </si>
   <si>
-    <t xml:space="preserve">Activacion Electrovalvula 5</t>
+    <t xml:space="preserve">Activacion Electrovalvula 5 (not used)</t>
   </si>
   <si>
     <t xml:space="preserve">Binario (00010000)=ON</t>
@@ -1741,7 +1741,7 @@
   <dimension ref="A1:J294"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/documentation/Tabla_de_registros_HMI.xlsx
+++ b/documentation/Tabla_de_registros_HMI.xlsx
@@ -39,7 +39,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">params</t>
+          <t xml:space="preserve">Params, start from 40006</t>
         </r>
       </text>
     </comment>
@@ -1715,7 +1715,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.57"/>
@@ -1740,7 +1740,7 @@
   </sheetPr>
   <dimension ref="A1:J294"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B70" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -1754,7 +1754,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="31.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="20.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="20.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="24.15"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="1" width="11.42"/>
   </cols>

--- a/documentation/Tabla_de_registros_HMI.xlsx
+++ b/documentation/Tabla_de_registros_HMI.xlsx
@@ -40,6 +40,20 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Params, start from 40006</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F104" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Ask about emergency stop?</t>
         </r>
       </text>
     </comment>
@@ -1740,8 +1754,8 @@
   </sheetPr>
   <dimension ref="A1:J294"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B70" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B85" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F100" activeCellId="0" sqref="F100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/documentation/Tabla_de_registros_HMI.xlsx
+++ b/documentation/Tabla_de_registros_HMI.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="250">
   <si>
     <t xml:space="preserve">Elemento </t>
   </si>
@@ -891,8 +891,10 @@
     <t xml:space="preserve">MW-117</t>
   </si>
   <si>
-    <t xml:space="preserve">por convension HR comienza desde
-40000</t>
+    <t xml:space="preserve">Per range convention the HR start at
+40000
+Starting this at 40017
+</t>
   </si>
   <si>
     <t xml:space="preserve">Alarma de proceso</t>
@@ -946,6 +948,10 @@
 1=Encendido</t>
   </si>
   <si>
+    <t xml:space="preserve">0 or 1 then this can be coil
+Register</t>
+  </si>
+  <si>
     <t xml:space="preserve">Estado retraer pistón</t>
   </si>
   <si>
@@ -961,7 +967,32 @@
     <t xml:space="preserve">Presión objetivo de pistones</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">cual es la relacion con
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">HR-0007?</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Presión objetivo de material</t>
+  </si>
+  <si>
+    <t xml:space="preserve">same as presion hidraulica??</t>
   </si>
   <si>
     <t xml:space="preserve">0= Pulsos bajos
@@ -979,7 +1010,7 @@
     <numFmt numFmtId="165" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="h:mm"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1040,8 +1071,14 @@
       <family val="1"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1069,13 +1106,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFF5CE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFDBB6"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFF5CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF5CE"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -1287,7 +1330,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1608,16 +1651,20 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1671,7 +1718,7 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFFFF5CE"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -1754,8 +1801,8 @@
   </sheetPr>
   <dimension ref="A1:J294"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B85" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F100" activeCellId="0" sqref="F100"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C118" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H126" activeCellId="0" sqref="H126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3714,7 +3761,7 @@
       <c r="G83" s="62"/>
       <c r="I83" s="62"/>
     </row>
-    <row r="84" customFormat="false" ht="27.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="67" t="s">
         <v>139</v>
       </c>
@@ -4259,7 +4306,7 @@
       <c r="H113" s="62"/>
       <c r="I113" s="62"/>
     </row>
-    <row r="114" customFormat="false" ht="41" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="80.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="79" t="s">
         <v>219</v>
       </c>
@@ -4272,13 +4319,13 @@
       <c r="D114" s="82" t="s">
         <v>222</v>
       </c>
-      <c r="E114" s="80" t="s">
+      <c r="E114" s="83" t="s">
         <v>223</v>
       </c>
       <c r="F114" s="81" t="s">
         <v>224</v>
       </c>
-      <c r="G114" s="83" t="s">
+      <c r="G114" s="84" t="s">
         <v>225</v>
       </c>
       <c r="H114" s="62"/>
@@ -4295,7 +4342,7 @@
       <c r="D115" s="82" t="s">
         <v>227</v>
       </c>
-      <c r="E115" s="80" t="s">
+      <c r="E115" s="83" t="s">
         <v>228</v>
       </c>
       <c r="F115" s="81" t="s">
@@ -4316,7 +4363,7 @@
       <c r="D116" s="82" t="s">
         <v>231</v>
       </c>
-      <c r="E116" s="80" t="s">
+      <c r="E116" s="83" t="s">
         <v>232</v>
       </c>
       <c r="F116" s="81" t="s">
@@ -4337,7 +4384,7 @@
       <c r="D117" s="82" t="s">
         <v>235</v>
       </c>
-      <c r="E117" s="80" t="s">
+      <c r="E117" s="83" t="s">
         <v>236</v>
       </c>
       <c r="F117" s="81" t="s">
@@ -4347,7 +4394,7 @@
       <c r="H117" s="62"/>
       <c r="I117" s="62"/>
     </row>
-    <row r="118" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="27.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="79"/>
       <c r="B118" s="80" t="s">
         <v>238</v>
@@ -4358,20 +4405,22 @@
       <c r="D118" s="82" t="s">
         <v>239</v>
       </c>
-      <c r="E118" s="80" t="s">
+      <c r="E118" s="83" t="s">
         <v>12</v>
       </c>
       <c r="F118" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="G118" s="62"/>
+      <c r="G118" s="84" t="s">
+        <v>240</v>
+      </c>
       <c r="H118" s="62"/>
       <c r="I118" s="62"/>
     </row>
     <row r="119" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="79"/>
       <c r="B119" s="80" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C119" s="81" t="s">
         <v>221</v>
@@ -4379,7 +4428,7 @@
       <c r="D119" s="82" t="s">
         <v>239</v>
       </c>
-      <c r="E119" s="80" t="s">
+      <c r="E119" s="83" t="s">
         <v>12</v>
       </c>
       <c r="F119" s="81" t="s">
@@ -4392,7 +4441,7 @@
     <row r="120" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="79"/>
       <c r="B120" s="80" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C120" s="81" t="s">
         <v>221</v>
@@ -4400,7 +4449,7 @@
       <c r="D120" s="82" t="s">
         <v>239</v>
       </c>
-      <c r="E120" s="80" t="s">
+      <c r="E120" s="83" t="s">
         <v>12</v>
       </c>
       <c r="F120" s="81" t="s">
@@ -4413,7 +4462,7 @@
     <row r="121" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="79"/>
       <c r="B121" s="80" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C121" s="81" t="s">
         <v>221</v>
@@ -4421,7 +4470,7 @@
       <c r="D121" s="82" t="s">
         <v>239</v>
       </c>
-      <c r="E121" s="80" t="s">
+      <c r="E121" s="83" t="s">
         <v>12</v>
       </c>
       <c r="F121" s="81" t="s">
@@ -4434,7 +4483,7 @@
     <row r="122" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="79"/>
       <c r="B122" s="80" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C122" s="81" t="s">
         <v>221</v>
@@ -4442,7 +4491,7 @@
       <c r="D122" s="82" t="s">
         <v>239</v>
       </c>
-      <c r="E122" s="80" t="s">
+      <c r="E122" s="83" t="s">
         <v>12</v>
       </c>
       <c r="F122" s="81" t="s">
@@ -4452,56 +4501,60 @@
       <c r="H122" s="62"/>
       <c r="I122" s="62"/>
     </row>
-    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="27.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="B123" s="80" t="s">
-        <v>244</v>
+      <c r="B123" s="83" t="s">
+        <v>245</v>
       </c>
       <c r="C123" s="81" t="s">
         <v>221</v>
       </c>
-      <c r="D123" s="84"/>
-      <c r="E123" s="80" t="s">
+      <c r="D123" s="85"/>
+      <c r="E123" s="83" t="s">
         <v>12</v>
       </c>
       <c r="F123" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="G123" s="62"/>
+      <c r="G123" s="84" t="s">
+        <v>246</v>
+      </c>
       <c r="H123" s="62"/>
       <c r="I123" s="62"/>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="79"/>
-      <c r="B124" s="80" t="s">
-        <v>245</v>
+      <c r="B124" s="83" t="s">
+        <v>247</v>
       </c>
       <c r="C124" s="81" t="s">
         <v>221</v>
       </c>
-      <c r="D124" s="84"/>
-      <c r="E124" s="80" t="s">
+      <c r="D124" s="85"/>
+      <c r="E124" s="83" t="s">
         <v>12</v>
       </c>
       <c r="F124" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="G124" s="62"/>
+      <c r="G124" s="62" t="s">
+        <v>248</v>
+      </c>
       <c r="H124" s="62"/>
       <c r="I124" s="62"/>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="79"/>
-      <c r="B125" s="80" t="s">
+      <c r="B125" s="83" t="s">
         <v>182</v>
       </c>
       <c r="C125" s="81" t="s">
         <v>221</v>
       </c>
-      <c r="D125" s="84"/>
-      <c r="E125" s="80" t="s">
+      <c r="D125" s="85"/>
+      <c r="E125" s="83" t="s">
         <v>12</v>
       </c>
       <c r="F125" s="81" t="s">
@@ -4513,14 +4566,14 @@
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="79"/>
-      <c r="B126" s="80" t="s">
+      <c r="B126" s="83" t="s">
         <v>187</v>
       </c>
       <c r="C126" s="81" t="s">
         <v>221</v>
       </c>
-      <c r="D126" s="84"/>
-      <c r="E126" s="80" t="s">
+      <c r="D126" s="85"/>
+      <c r="E126" s="83" t="s">
         <v>12</v>
       </c>
       <c r="F126" s="81" t="s">
@@ -4532,14 +4585,14 @@
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="79"/>
-      <c r="B127" s="80" t="s">
+      <c r="B127" s="83" t="s">
         <v>191</v>
       </c>
       <c r="C127" s="81" t="s">
         <v>221</v>
       </c>
-      <c r="D127" s="84"/>
-      <c r="E127" s="80" t="s">
+      <c r="D127" s="85"/>
+      <c r="E127" s="83" t="s">
         <v>12</v>
       </c>
       <c r="F127" s="81" t="s">
@@ -4551,14 +4604,14 @@
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="79"/>
-      <c r="B128" s="80" t="s">
+      <c r="B128" s="83" t="s">
         <v>195</v>
       </c>
       <c r="C128" s="81" t="s">
         <v>221</v>
       </c>
-      <c r="D128" s="84"/>
-      <c r="E128" s="80" t="s">
+      <c r="D128" s="85"/>
+      <c r="E128" s="83" t="s">
         <v>12</v>
       </c>
       <c r="F128" s="81" t="s">
@@ -4570,14 +4623,14 @@
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="79"/>
-      <c r="B129" s="80" t="s">
+      <c r="B129" s="83" t="s">
         <v>199</v>
       </c>
       <c r="C129" s="81" t="s">
         <v>221</v>
       </c>
-      <c r="D129" s="84"/>
-      <c r="E129" s="80" t="s">
+      <c r="D129" s="85"/>
+      <c r="E129" s="83" t="s">
         <v>12</v>
       </c>
       <c r="F129" s="81" t="s">
@@ -4589,14 +4642,14 @@
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="79"/>
-      <c r="B130" s="80" t="s">
+      <c r="B130" s="83" t="s">
         <v>202</v>
       </c>
       <c r="C130" s="81" t="s">
         <v>221</v>
       </c>
-      <c r="D130" s="84"/>
-      <c r="E130" s="80" t="s">
+      <c r="D130" s="85"/>
+      <c r="E130" s="83" t="s">
         <v>12</v>
       </c>
       <c r="F130" s="81" t="s">
@@ -4608,14 +4661,14 @@
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="79"/>
-      <c r="B131" s="80" t="s">
+      <c r="B131" s="83" t="s">
         <v>205</v>
       </c>
       <c r="C131" s="81" t="s">
         <v>221</v>
       </c>
-      <c r="D131" s="84"/>
-      <c r="E131" s="80" t="s">
+      <c r="D131" s="85"/>
+      <c r="E131" s="83" t="s">
         <v>12</v>
       </c>
       <c r="F131" s="81" t="s">
@@ -4627,16 +4680,16 @@
     </row>
     <row r="132" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="79"/>
-      <c r="B132" s="85" t="s">
+      <c r="B132" s="86" t="s">
         <v>213</v>
       </c>
-      <c r="C132" s="86" t="s">
+      <c r="C132" s="87" t="s">
         <v>221</v>
       </c>
-      <c r="D132" s="87" t="s">
-        <v>246</v>
-      </c>
-      <c r="E132" s="80" t="s">
+      <c r="D132" s="88" t="s">
+        <v>249</v>
+      </c>
+      <c r="E132" s="83" t="s">
         <v>12</v>
       </c>
       <c r="F132" s="81" t="s">

--- a/documentation/Tabla_de_registros_HMI.xlsx
+++ b/documentation/Tabla_de_registros_HMI.xlsx
@@ -29,6 +29,20 @@
     <author> </author>
   </authors>
   <commentList>
+    <comment ref="A2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">This is Iolink Data</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E83" authorId="0">
       <text>
         <r>
@@ -1801,8 +1815,8 @@
   </sheetPr>
   <dimension ref="A1:J294"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C118" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H126" activeCellId="0" sqref="H126"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/documentation/Tabla_de_registros_HMI.xlsx
+++ b/documentation/Tabla_de_registros_HMI.xlsx
@@ -1077,12 +1077,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFB66C"/>
+        <bgColor rgb="FFFFC000"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1329,7 +1335,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="94">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1374,6 +1380,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1394,6 +1404,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1406,6 +1420,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1434,6 +1452,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1454,42 +1476,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1558,6 +1544,26 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1566,7 +1572,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1602,19 +1624,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1622,7 +1644,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1654,7 +1676,7 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1757,7 +1779,7 @@
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFFFB66C"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFDBB6"/>
       <rgbColor rgb="FF3366FF"/>
@@ -1927,8 +1949,8 @@
   </sheetPr>
   <dimension ref="A1:J294"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E66" activeCellId="0" sqref="E66"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1986,7 +2008,7 @@
       <c r="C2" s="10" t="n">
         <v>1002</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="10" t="s">
@@ -1995,38 +2017,38 @@
       <c r="F2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="14" t="s">
+      <c r="G2" s="12"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9"/>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="15" t="n">
+      <c r="C3" s="16" t="n">
         <v>1003</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="15" t="s">
+      <c r="E3" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="14" t="s">
+      <c r="G3" s="18"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2034,27 +2056,27 @@
       <c r="A4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="18" t="n">
+      <c r="C4" s="20" t="n">
         <v>2002</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="19" t="s">
+      <c r="E4" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="23" t="s">
+      <c r="G4" s="23"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="26" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2062,131 +2084,131 @@
       <c r="A5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="18" t="n">
+      <c r="C5" s="20" t="n">
         <v>3002</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="18" t="s">
+      <c r="E5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="14" t="s">
+      <c r="G5" s="23"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="15" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9"/>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="25" t="n">
+      <c r="C6" s="28" t="n">
         <v>3003</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="25" t="s">
+      <c r="E6" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="26"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="23" t="s">
+      <c r="G6" s="30"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="26" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9"/>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="18" t="n">
+      <c r="C7" s="20" t="n">
         <v>3004</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="19" t="s">
+      <c r="E7" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="14" t="s">
+      <c r="G7" s="23"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="15" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9"/>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="25" t="n">
+      <c r="C8" s="28" t="n">
         <v>3052</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="22" t="s">
+      <c r="G8" s="30"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="23" t="s">
+      <c r="J8" s="26" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9"/>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="18" t="n">
+      <c r="C9" s="20" t="n">
         <v>3053</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="13" t="s">
+      <c r="F9" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="23"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="15" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2194,27 +2216,27 @@
       <c r="A10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="18" t="n">
+      <c r="C10" s="20" t="n">
         <v>4002</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="13" t="s">
+      <c r="G10" s="23"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="15" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2222,1319 +2244,1319 @@
       <c r="A11" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="18" t="n">
+      <c r="C11" s="20" t="n">
         <v>5052</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="13" t="s">
+      <c r="F11" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="23"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="J11" s="30" t="s">
+      <c r="J11" s="34" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9"/>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="18" t="n">
+      <c r="C12" s="20" t="n">
         <v>5052</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="30"/>
+      <c r="F12" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="23"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="34"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9"/>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="18" t="n">
+      <c r="C13" s="20" t="n">
         <v>5052</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="20"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="30"/>
+      <c r="F13" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="23"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="34"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9"/>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="18" t="n">
+      <c r="C14" s="20" t="n">
         <v>5052</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="30"/>
+      <c r="F14" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="23"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="34"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9"/>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="18" t="n">
+      <c r="C15" s="20" t="n">
         <v>5052</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="20"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="30"/>
+      <c r="F15" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="23"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="34"/>
     </row>
     <row r="16" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="32" t="n">
+      <c r="C16" s="36" t="n">
         <v>6060</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="32" t="n">
+      <c r="E16" s="36" t="n">
         <v>22</v>
       </c>
-      <c r="F16" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="33"/>
-      <c r="H16" s="34" t="s">
+      <c r="F16" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="37"/>
+      <c r="H16" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="I16" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" s="23" t="s">
+      <c r="I16" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="35" t="n">
+      <c r="B17" s="35"/>
+      <c r="C17" s="39" t="n">
         <v>6061</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="35" t="n">
+      <c r="E17" s="39" t="n">
         <v>3628</v>
       </c>
-      <c r="F17" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="36"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J17" s="23" t="s">
+      <c r="F17" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="40"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="35" t="n">
+      <c r="B18" s="35"/>
+      <c r="C18" s="39" t="n">
         <v>6062</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="35" t="n">
+      <c r="E18" s="39" t="n">
         <v>256</v>
       </c>
-      <c r="F18" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="36"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" s="23" t="s">
+      <c r="F18" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="40"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="35" t="n">
+      <c r="B19" s="35"/>
+      <c r="C19" s="39" t="n">
         <v>6063</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="35" t="n">
+      <c r="E19" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="F19" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="36"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19" s="23" t="s">
+      <c r="F19" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="40"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="35" t="n">
+      <c r="B20" s="35"/>
+      <c r="C20" s="39" t="n">
         <v>6064</v>
       </c>
-      <c r="D20" s="35" t="s">
+      <c r="D20" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="35" t="n">
+      <c r="E20" s="39" t="n">
         <v>0</v>
       </c>
-      <c r="F20" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="36"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" s="23" t="s">
+      <c r="F20" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="40"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="35" t="n">
+      <c r="B21" s="35"/>
+      <c r="C21" s="39" t="n">
         <v>6065</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="35" t="n">
+      <c r="E21" s="39" t="n">
         <v>256</v>
       </c>
-      <c r="F21" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="36"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" s="23" t="s">
+      <c r="F21" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="40"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="35" t="n">
+      <c r="B22" s="35"/>
+      <c r="C22" s="39" t="n">
         <v>6066</v>
       </c>
-      <c r="D22" s="35" t="s">
+      <c r="D22" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="35" t="n">
+      <c r="E22" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="F22" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="36"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J22" s="23" t="s">
+      <c r="F22" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="40"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="37" t="n">
+      <c r="B23" s="35"/>
+      <c r="C23" s="41" t="n">
         <v>6067</v>
       </c>
-      <c r="D23" s="37" t="s">
+      <c r="D23" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="37" t="n">
+      <c r="E23" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="F23" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="38"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" s="23" t="s">
+      <c r="F23" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="42"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="9"/>
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="35" t="n">
+      <c r="C24" s="39" t="n">
         <v>6060</v>
       </c>
-      <c r="D24" s="35" t="s">
+      <c r="D24" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="35" t="n">
+      <c r="E24" s="39" t="n">
         <v>16</v>
       </c>
-      <c r="F24" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="36"/>
-      <c r="H24" s="34" t="s">
+      <c r="F24" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="40"/>
+      <c r="H24" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="I24" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J24" s="23" t="s">
+      <c r="I24" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="35" t="n">
+      <c r="B25" s="43"/>
+      <c r="C25" s="39" t="n">
         <v>6061</v>
       </c>
-      <c r="D25" s="35" t="s">
+      <c r="D25" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="35" t="n">
+      <c r="E25" s="39" t="n">
         <v>3328</v>
       </c>
-      <c r="F25" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="36"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J25" s="23" t="s">
+      <c r="F25" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="40"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="35" t="n">
+      <c r="B26" s="43"/>
+      <c r="C26" s="39" t="n">
         <v>6062</v>
       </c>
-      <c r="D26" s="35" t="s">
+      <c r="D26" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="35" t="n">
+      <c r="E26" s="39" t="n">
         <v>5645</v>
       </c>
-      <c r="F26" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="36"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J26" s="23" t="s">
+      <c r="F26" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="40"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="35" t="n">
+      <c r="B27" s="43"/>
+      <c r="C27" s="39" t="n">
         <v>6063</v>
       </c>
-      <c r="D27" s="35" t="s">
+      <c r="D27" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="35" t="n">
+      <c r="E27" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="F27" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="36"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J27" s="23" t="s">
+      <c r="F27" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="40"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="35" t="n">
+      <c r="B28" s="43"/>
+      <c r="C28" s="39" t="n">
         <v>6064</v>
       </c>
-      <c r="D28" s="35" t="s">
+      <c r="D28" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="35" t="n">
+      <c r="E28" s="39" t="n">
         <v>0</v>
       </c>
-      <c r="F28" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="36"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J28" s="23" t="s">
+      <c r="F28" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="40"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="35" t="n">
+      <c r="B29" s="43"/>
+      <c r="C29" s="39" t="n">
         <v>6065</v>
       </c>
-      <c r="D29" s="35" t="s">
+      <c r="D29" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="35" t="n">
+      <c r="E29" s="39" t="n">
         <v>256</v>
       </c>
-      <c r="F29" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="36"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J29" s="23" t="s">
+      <c r="F29" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="40"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="35" t="n">
+      <c r="B30" s="43"/>
+      <c r="C30" s="39" t="n">
         <v>6066</v>
       </c>
-      <c r="D30" s="35" t="s">
+      <c r="D30" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="35" t="n">
+      <c r="E30" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="F30" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="36"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J30" s="23" t="s">
+      <c r="F30" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="40"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="35" t="n">
+      <c r="B31" s="43"/>
+      <c r="C31" s="39" t="n">
         <v>6067</v>
       </c>
-      <c r="D31" s="35" t="s">
+      <c r="D31" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="35" t="n">
+      <c r="E31" s="39" t="n">
         <v>0</v>
       </c>
-      <c r="F31" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="36"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J31" s="23" t="s">
+      <c r="F31" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="40"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J31" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="9"/>
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="41" t="n">
+      <c r="C32" s="45" t="n">
         <v>6060</v>
       </c>
-      <c r="D32" s="41" t="s">
+      <c r="D32" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="E32" s="41" t="n">
+      <c r="E32" s="45" t="n">
         <v>0</v>
       </c>
-      <c r="F32" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="42"/>
-      <c r="H32" s="43" t="s">
+      <c r="F32" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="46"/>
+      <c r="H32" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="I32" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J32" s="23" t="s">
+      <c r="I32" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="44" t="n">
+      <c r="B33" s="44"/>
+      <c r="C33" s="48" t="n">
         <v>6061</v>
       </c>
-      <c r="D33" s="44" t="s">
+      <c r="D33" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="44" t="n">
+      <c r="E33" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="F33" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" s="45"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J33" s="23" t="s">
+      <c r="F33" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="49"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="44" t="n">
+      <c r="B34" s="44"/>
+      <c r="C34" s="48" t="n">
         <v>6062</v>
       </c>
-      <c r="D34" s="44" t="s">
+      <c r="D34" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E34" s="44" t="n">
+      <c r="E34" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="F34" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="45"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J34" s="23" t="s">
+      <c r="F34" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="49"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J34" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="9"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="44" t="n">
+      <c r="B35" s="44"/>
+      <c r="C35" s="48" t="n">
         <v>6063</v>
       </c>
-      <c r="D35" s="44" t="s">
+      <c r="D35" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E35" s="44" t="n">
+      <c r="E35" s="48" t="n">
         <v>1046</v>
       </c>
-      <c r="F35" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="45"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J35" s="23" t="s">
+      <c r="F35" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="49"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J35" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="9"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="44" t="n">
+      <c r="B36" s="44"/>
+      <c r="C36" s="48" t="n">
         <v>6064</v>
       </c>
-      <c r="D36" s="44" t="s">
+      <c r="D36" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E36" s="44" t="n">
+      <c r="E36" s="48" t="n">
         <v>3328</v>
       </c>
-      <c r="F36" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="45"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J36" s="23" t="s">
+      <c r="F36" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="49"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="44" t="n">
+      <c r="B37" s="44"/>
+      <c r="C37" s="48" t="n">
         <v>6065</v>
       </c>
-      <c r="D37" s="44" t="s">
+      <c r="D37" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E37" s="44" t="n">
+      <c r="E37" s="48" t="n">
         <v>260</v>
       </c>
-      <c r="F37" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" s="45"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J37" s="23" t="s">
+      <c r="F37" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="49"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J37" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9"/>
-      <c r="B38" s="40"/>
-      <c r="C38" s="44" t="n">
+      <c r="B38" s="44"/>
+      <c r="C38" s="48" t="n">
         <v>6066</v>
       </c>
-      <c r="D38" s="44" t="s">
+      <c r="D38" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E38" s="44" t="n">
+      <c r="E38" s="48" t="n">
         <v>1</v>
       </c>
-      <c r="F38" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" s="45"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J38" s="23" t="s">
+      <c r="F38" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="49"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J38" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9"/>
-      <c r="B39" s="40"/>
-      <c r="C39" s="46" t="n">
+      <c r="B39" s="44"/>
+      <c r="C39" s="50" t="n">
         <v>6067</v>
       </c>
-      <c r="D39" s="46" t="s">
+      <c r="D39" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="E39" s="46" t="n">
+      <c r="E39" s="50" t="n">
         <v>1024</v>
       </c>
-      <c r="F39" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" s="47"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J39" s="23" t="s">
+      <c r="F39" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="51"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J39" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="9"/>
-      <c r="B40" s="48" t="s">
+      <c r="B40" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="44" t="n">
+      <c r="C40" s="48" t="n">
         <v>6060</v>
       </c>
-      <c r="D40" s="44" t="s">
+      <c r="D40" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E40" s="44" t="n">
+      <c r="E40" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="F40" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" s="45"/>
-      <c r="H40" s="43" t="s">
+      <c r="F40" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="49"/>
+      <c r="H40" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="I40" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J40" s="23" t="s">
+      <c r="I40" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J40" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="9"/>
-      <c r="B41" s="48"/>
-      <c r="C41" s="44" t="n">
+      <c r="B41" s="52"/>
+      <c r="C41" s="48" t="n">
         <v>6061</v>
       </c>
-      <c r="D41" s="44" t="s">
+      <c r="D41" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E41" s="44" t="n">
+      <c r="E41" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="F41" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" s="45"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J41" s="23" t="s">
+      <c r="F41" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="49"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J41" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="9"/>
-      <c r="B42" s="48"/>
-      <c r="C42" s="44" t="n">
+      <c r="B42" s="52"/>
+      <c r="C42" s="48" t="n">
         <v>6062</v>
       </c>
-      <c r="D42" s="44" t="s">
+      <c r="D42" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E42" s="44" t="n">
+      <c r="E42" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="F42" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" s="45"/>
-      <c r="H42" s="43"/>
-      <c r="I42" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J42" s="23" t="s">
+      <c r="F42" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="49"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J42" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="9"/>
-      <c r="B43" s="48"/>
-      <c r="C43" s="44" t="n">
+      <c r="B43" s="52"/>
+      <c r="C43" s="48" t="n">
         <v>6063</v>
       </c>
-      <c r="D43" s="44" t="s">
+      <c r="D43" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E43" s="44" t="n">
+      <c r="E43" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="F43" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" s="45"/>
-      <c r="H43" s="43"/>
-      <c r="I43" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J43" s="23" t="s">
+      <c r="F43" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="49"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J43" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="9"/>
-      <c r="B44" s="48"/>
-      <c r="C44" s="44" t="n">
+      <c r="B44" s="52"/>
+      <c r="C44" s="48" t="n">
         <v>6064</v>
       </c>
-      <c r="D44" s="44" t="s">
+      <c r="D44" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="44" t="n">
+      <c r="E44" s="48" t="n">
         <v>3332</v>
       </c>
-      <c r="F44" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" s="45"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J44" s="23" t="s">
+      <c r="F44" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="49"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J44" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="9"/>
-      <c r="B45" s="48"/>
-      <c r="C45" s="44" t="n">
+      <c r="B45" s="52"/>
+      <c r="C45" s="48" t="n">
         <v>6065</v>
       </c>
-      <c r="D45" s="44" t="s">
+      <c r="D45" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E45" s="44" t="n">
+      <c r="E45" s="48" t="n">
         <v>1549</v>
       </c>
-      <c r="F45" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" s="45"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J45" s="23" t="s">
+      <c r="F45" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="49"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J45" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="9"/>
-      <c r="B46" s="48"/>
-      <c r="C46" s="44" t="n">
+      <c r="B46" s="52"/>
+      <c r="C46" s="48" t="n">
         <v>6066</v>
       </c>
-      <c r="D46" s="44" t="s">
+      <c r="D46" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E46" s="44" t="n">
+      <c r="E46" s="48" t="n">
         <v>1</v>
       </c>
-      <c r="F46" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" s="45"/>
-      <c r="H46" s="43"/>
-      <c r="I46" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J46" s="23" t="s">
+      <c r="F46" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="49"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J46" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="9"/>
-      <c r="B47" s="48"/>
-      <c r="C47" s="44" t="n">
+      <c r="B47" s="52"/>
+      <c r="C47" s="48" t="n">
         <v>6067</v>
       </c>
-      <c r="D47" s="44" t="s">
+      <c r="D47" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E47" s="44" t="n">
+      <c r="E47" s="48" t="n">
         <v>1024</v>
       </c>
-      <c r="F47" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" s="45"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J47" s="23" t="s">
+      <c r="F47" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="49"/>
+      <c r="H47" s="47"/>
+      <c r="I47" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J47" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="9"/>
-      <c r="B48" s="49" t="s">
+      <c r="B48" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="C48" s="50" t="n">
+      <c r="C48" s="54" t="n">
         <v>6060</v>
       </c>
-      <c r="D48" s="50" t="s">
+      <c r="D48" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="E48" s="50" t="n">
+      <c r="E48" s="54" t="n">
         <v>0</v>
       </c>
-      <c r="F48" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" s="51"/>
-      <c r="H48" s="52" t="s">
+      <c r="F48" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="55"/>
+      <c r="H48" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="I48" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J48" s="23" t="s">
+      <c r="I48" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J48" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="9"/>
-      <c r="B49" s="49"/>
-      <c r="C49" s="53" t="n">
+      <c r="B49" s="53"/>
+      <c r="C49" s="57" t="n">
         <v>6061</v>
       </c>
-      <c r="D49" s="53" t="s">
+      <c r="D49" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="53" t="n">
+      <c r="E49" s="57" t="n">
         <v>0</v>
       </c>
-      <c r="F49" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49" s="54"/>
-      <c r="H49" s="52"/>
-      <c r="I49" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J49" s="23" t="s">
+      <c r="F49" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="58"/>
+      <c r="H49" s="56"/>
+      <c r="I49" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J49" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="9"/>
-      <c r="B50" s="49"/>
-      <c r="C50" s="53" t="n">
+      <c r="B50" s="53"/>
+      <c r="C50" s="57" t="n">
         <v>6062</v>
       </c>
-      <c r="D50" s="53" t="s">
+      <c r="D50" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="E50" s="53" t="n">
+      <c r="E50" s="57" t="n">
         <v>0</v>
       </c>
-      <c r="F50" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" s="54"/>
-      <c r="H50" s="52"/>
-      <c r="I50" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J50" s="23" t="s">
+      <c r="F50" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="58"/>
+      <c r="H50" s="56"/>
+      <c r="I50" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J50" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="9"/>
-      <c r="B51" s="49"/>
-      <c r="C51" s="53" t="n">
+      <c r="B51" s="53"/>
+      <c r="C51" s="57" t="n">
         <v>6063</v>
       </c>
-      <c r="D51" s="53" t="s">
+      <c r="D51" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="E51" s="53" t="n">
+      <c r="E51" s="57" t="n">
         <v>0</v>
       </c>
-      <c r="F51" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" s="54"/>
-      <c r="H51" s="52"/>
-      <c r="I51" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J51" s="23" t="s">
+      <c r="F51" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="58"/>
+      <c r="H51" s="56"/>
+      <c r="I51" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J51" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="9"/>
-      <c r="B52" s="49"/>
-      <c r="C52" s="53" t="n">
+      <c r="B52" s="53"/>
+      <c r="C52" s="57" t="n">
         <v>6064</v>
       </c>
-      <c r="D52" s="53" t="s">
+      <c r="D52" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="E52" s="53" t="n">
+      <c r="E52" s="57" t="n">
         <v>0</v>
       </c>
-      <c r="F52" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" s="54"/>
-      <c r="H52" s="52"/>
-      <c r="I52" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J52" s="23" t="s">
+      <c r="F52" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="58"/>
+      <c r="H52" s="56"/>
+      <c r="I52" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J52" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="9"/>
-      <c r="B53" s="49"/>
-      <c r="C53" s="53" t="n">
+      <c r="B53" s="53"/>
+      <c r="C53" s="57" t="n">
         <v>6065</v>
       </c>
-      <c r="D53" s="53" t="s">
+      <c r="D53" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="E53" s="53" t="n">
+      <c r="E53" s="57" t="n">
         <v>13</v>
       </c>
-      <c r="F53" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53" s="54"/>
-      <c r="H53" s="52"/>
-      <c r="I53" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J53" s="23" t="s">
+      <c r="F53" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="58"/>
+      <c r="H53" s="56"/>
+      <c r="I53" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J53" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="9"/>
-      <c r="B54" s="49"/>
-      <c r="C54" s="53" t="n">
+      <c r="B54" s="53"/>
+      <c r="C54" s="57" t="n">
         <v>6066</v>
       </c>
-      <c r="D54" s="53" t="s">
+      <c r="D54" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="E54" s="53" t="n">
+      <c r="E54" s="57" t="n">
         <v>15</v>
       </c>
-      <c r="F54" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" s="54"/>
-      <c r="H54" s="52"/>
-      <c r="I54" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J54" s="23" t="s">
+      <c r="F54" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="58"/>
+      <c r="H54" s="56"/>
+      <c r="I54" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J54" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="9"/>
-      <c r="B55" s="49"/>
-      <c r="C55" s="55" t="n">
+      <c r="B55" s="53"/>
+      <c r="C55" s="59" t="n">
         <v>6067</v>
       </c>
-      <c r="D55" s="55" t="s">
+      <c r="D55" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="E55" s="55" t="n">
+      <c r="E55" s="59" t="n">
         <v>256</v>
       </c>
-      <c r="F55" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" s="56"/>
-      <c r="H55" s="52"/>
-      <c r="I55" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J55" s="23" t="s">
+      <c r="F55" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" s="60"/>
+      <c r="H55" s="56"/>
+      <c r="I55" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J55" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="9"/>
-      <c r="B56" s="28" t="s">
+      <c r="B56" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="C56" s="57" t="n">
+      <c r="C56" s="61" t="n">
         <v>6060</v>
       </c>
-      <c r="D56" s="57" t="s">
+      <c r="D56" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="E56" s="57" t="n">
+      <c r="E56" s="61" t="n">
         <v>23</v>
       </c>
-      <c r="F56" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" s="58"/>
-      <c r="H56" s="59" t="s">
+      <c r="F56" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="62"/>
+      <c r="H56" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="I56" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J56" s="23" t="s">
+      <c r="I56" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J56" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="9"/>
-      <c r="B57" s="28"/>
-      <c r="C57" s="57" t="n">
+      <c r="B57" s="32"/>
+      <c r="C57" s="61" t="n">
         <v>6061</v>
       </c>
-      <c r="D57" s="57" t="s">
+      <c r="D57" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="E57" s="57" t="n">
+      <c r="E57" s="61" t="n">
         <v>1024</v>
       </c>
-      <c r="F57" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57" s="58"/>
-      <c r="H57" s="59"/>
-      <c r="I57" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J57" s="23" t="s">
+      <c r="F57" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="62"/>
+      <c r="H57" s="63"/>
+      <c r="I57" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J57" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="9"/>
-      <c r="B58" s="28"/>
-      <c r="C58" s="57" t="n">
+      <c r="B58" s="32"/>
+      <c r="C58" s="61" t="n">
         <v>6062</v>
       </c>
-      <c r="D58" s="57" t="s">
+      <c r="D58" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="E58" s="57" t="n">
+      <c r="E58" s="61" t="n">
         <v>5892</v>
       </c>
-      <c r="F58" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58" s="58"/>
-      <c r="H58" s="59"/>
-      <c r="I58" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J58" s="23" t="s">
+      <c r="F58" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="62"/>
+      <c r="H58" s="63"/>
+      <c r="I58" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J58" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="9"/>
-      <c r="B59" s="28"/>
-      <c r="C59" s="57" t="n">
+      <c r="B59" s="32"/>
+      <c r="C59" s="61" t="n">
         <v>6063</v>
       </c>
-      <c r="D59" s="57" t="s">
+      <c r="D59" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="E59" s="57" t="n">
+      <c r="E59" s="61" t="n">
         <v>23</v>
       </c>
-      <c r="F59" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59" s="58"/>
-      <c r="H59" s="59"/>
-      <c r="I59" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J59" s="23" t="s">
+      <c r="F59" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" s="62"/>
+      <c r="H59" s="63"/>
+      <c r="I59" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J59" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="9"/>
-      <c r="B60" s="28"/>
-      <c r="C60" s="57" t="n">
+      <c r="B60" s="32"/>
+      <c r="C60" s="61" t="n">
         <v>6064</v>
       </c>
-      <c r="D60" s="57" t="s">
+      <c r="D60" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="E60" s="57" t="n">
+      <c r="E60" s="61" t="n">
         <v>1024</v>
       </c>
-      <c r="F60" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" s="58"/>
-      <c r="H60" s="59"/>
-      <c r="I60" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J60" s="23" t="s">
+      <c r="F60" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" s="62"/>
+      <c r="H60" s="63"/>
+      <c r="I60" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J60" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="9"/>
-      <c r="B61" s="28"/>
-      <c r="C61" s="57" t="n">
+      <c r="B61" s="32"/>
+      <c r="C61" s="61" t="n">
         <v>6065</v>
       </c>
-      <c r="D61" s="57" t="s">
+      <c r="D61" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="E61" s="57" t="n">
+      <c r="E61" s="61" t="n">
         <v>5892</v>
       </c>
-      <c r="F61" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61" s="58"/>
-      <c r="H61" s="59"/>
-      <c r="I61" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J61" s="23" t="s">
+      <c r="F61" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" s="62"/>
+      <c r="H61" s="63"/>
+      <c r="I61" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J61" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="9"/>
-      <c r="B62" s="28"/>
-      <c r="C62" s="57" t="n">
+      <c r="B62" s="32"/>
+      <c r="C62" s="61" t="n">
         <v>6066</v>
       </c>
-      <c r="D62" s="57" t="s">
+      <c r="D62" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="E62" s="57" t="n">
+      <c r="E62" s="61" t="n">
         <v>4119</v>
       </c>
-      <c r="F62" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="G62" s="58"/>
-      <c r="H62" s="59"/>
-      <c r="I62" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J62" s="23" t="s">
+      <c r="F62" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="62"/>
+      <c r="H62" s="63"/>
+      <c r="I62" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J62" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="9"/>
-      <c r="B63" s="28"/>
-      <c r="C63" s="57" t="n">
+      <c r="B63" s="32"/>
+      <c r="C63" s="61" t="n">
         <v>6067</v>
       </c>
-      <c r="D63" s="57" t="s">
+      <c r="D63" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="E63" s="57" t="n">
+      <c r="E63" s="61" t="n">
         <v>1024</v>
       </c>
-      <c r="F63" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="G63" s="58"/>
-      <c r="H63" s="59"/>
-      <c r="I63" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J63" s="23" t="s">
+      <c r="F63" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" s="62"/>
+      <c r="H63" s="63"/>
+      <c r="I63" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J63" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="9"/>
-      <c r="B64" s="29" t="s">
+      <c r="B64" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="C64" s="18" t="n">
+      <c r="C64" s="20" t="n">
         <v>6052</v>
       </c>
-      <c r="D64" s="18" t="s">
+      <c r="D64" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E64" s="19" t="s">
+      <c r="E64" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="F64" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G64" s="20"/>
-      <c r="H64" s="21"/>
-      <c r="I64" s="13" t="s">
+      <c r="F64" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" s="23"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="J64" s="14" t="s">
+      <c r="J64" s="15" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3542,3069 +3564,3069 @@
       <c r="A65" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B65" s="19" t="s">
+      <c r="B65" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="C65" s="18" t="n">
+      <c r="C65" s="20" t="n">
         <v>7051</v>
       </c>
-      <c r="D65" s="18" t="s">
+      <c r="D65" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E65" s="60" t="s">
+      <c r="E65" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="F65" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65" s="20"/>
-      <c r="H65" s="21"/>
-      <c r="I65" s="61" t="s">
+      <c r="F65" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" s="23"/>
+      <c r="H65" s="24"/>
+      <c r="I65" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="J65" s="62" t="s">
+      <c r="J65" s="66" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E66" s="63"/>
+      <c r="E66" s="67"/>
     </row>
     <row r="67" customFormat="false" ht="56.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="64" t="s">
+      <c r="A67" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="B67" s="64"/>
-      <c r="C67" s="64"/>
-      <c r="D67" s="64"/>
-      <c r="E67" s="64"/>
-      <c r="F67" s="65" t="s">
+      <c r="B67" s="68"/>
+      <c r="C67" s="68"/>
+      <c r="D67" s="68"/>
+      <c r="E67" s="68"/>
+      <c r="F67" s="69" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="66" t="s">
+      <c r="A69" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="B69" s="66"/>
-      <c r="C69" s="66"/>
-      <c r="D69" s="66"/>
-      <c r="E69" s="66"/>
-      <c r="F69" s="63"/>
-      <c r="G69" s="63"/>
-      <c r="H69" s="63"/>
-      <c r="I69" s="63"/>
+      <c r="B69" s="70"/>
+      <c r="C69" s="70"/>
+      <c r="D69" s="70"/>
+      <c r="E69" s="70"/>
+      <c r="F69" s="67"/>
+      <c r="G69" s="67"/>
+      <c r="H69" s="67"/>
+      <c r="I69" s="67"/>
     </row>
     <row r="70" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="24" t="s">
+      <c r="A70" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="B70" s="67" t="s">
+      <c r="B70" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="C70" s="30" t="s">
+      <c r="C70" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D70" s="18" t="s">
+      <c r="D70" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="E70" s="30" t="s">
+      <c r="E70" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="F70" s="63"/>
-      <c r="H70" s="63"/>
-      <c r="I70" s="63"/>
+      <c r="F70" s="67"/>
+      <c r="H70" s="67"/>
+      <c r="I70" s="67"/>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="24" t="s">
+      <c r="A71" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="B71" s="67" t="s">
+      <c r="B71" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="C71" s="30" t="s">
+      <c r="C71" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="D71" s="19" t="s">
+      <c r="D71" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="E71" s="30" t="s">
+      <c r="E71" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="F71" s="63"/>
-      <c r="G71" s="63"/>
-      <c r="H71" s="63"/>
-      <c r="I71" s="63"/>
+      <c r="F71" s="67"/>
+      <c r="G71" s="67"/>
+      <c r="H71" s="67"/>
+      <c r="I71" s="67"/>
     </row>
     <row r="72" customFormat="false" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="24" t="s">
+      <c r="A72" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="B72" s="67" t="s">
+      <c r="B72" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="C72" s="30" t="s">
+      <c r="C72" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="D72" s="19" t="s">
+      <c r="D72" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="E72" s="30" t="s">
+      <c r="E72" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="F72" s="63"/>
-      <c r="G72" s="63"/>
-      <c r="H72" s="63"/>
-      <c r="I72" s="63"/>
+      <c r="F72" s="67"/>
+      <c r="G72" s="67"/>
+      <c r="H72" s="67"/>
+      <c r="I72" s="67"/>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="24" t="s">
+      <c r="A73" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="B73" s="67" t="s">
+      <c r="B73" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="C73" s="30" t="s">
+      <c r="C73" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="19" t="s">
+      <c r="D73" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="E73" s="30" t="s">
+      <c r="E73" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="F73" s="63"/>
-      <c r="G73" s="63"/>
-      <c r="H73" s="63"/>
-      <c r="I73" s="63"/>
+      <c r="F73" s="67"/>
+      <c r="G73" s="67"/>
+      <c r="H73" s="67"/>
+      <c r="I73" s="67"/>
     </row>
     <row r="74" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="24" t="s">
+      <c r="A74" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="B74" s="67" t="s">
+      <c r="B74" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="C74" s="30" t="s">
+      <c r="C74" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="D74" s="19" t="s">
+      <c r="D74" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="E74" s="30" t="s">
+      <c r="E74" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="F74" s="63"/>
-      <c r="G74" s="63"/>
-      <c r="H74" s="63"/>
-      <c r="I74" s="63"/>
+      <c r="F74" s="67"/>
+      <c r="G74" s="67"/>
+      <c r="H74" s="67"/>
+      <c r="I74" s="67"/>
     </row>
     <row r="75" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="24" t="s">
+      <c r="A75" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="B75" s="67" t="s">
+      <c r="B75" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="C75" s="30" t="s">
+      <c r="C75" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="D75" s="19" t="s">
+      <c r="D75" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="E75" s="30" t="s">
+      <c r="E75" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="F75" s="63"/>
-      <c r="G75" s="63"/>
-      <c r="H75" s="63"/>
-      <c r="I75" s="63"/>
+      <c r="F75" s="67"/>
+      <c r="G75" s="67"/>
+      <c r="H75" s="67"/>
+      <c r="I75" s="67"/>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="24" t="s">
+      <c r="A76" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="B76" s="67" t="s">
+      <c r="B76" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="C76" s="30" t="s">
+      <c r="C76" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="D76" s="19" t="s">
+      <c r="D76" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="E76" s="30" t="s">
+      <c r="E76" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="F76" s="63"/>
-      <c r="G76" s="63"/>
-      <c r="H76" s="63"/>
-      <c r="I76" s="63"/>
+      <c r="F76" s="67"/>
+      <c r="G76" s="67"/>
+      <c r="H76" s="67"/>
+      <c r="I76" s="67"/>
     </row>
     <row r="77" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="24" t="s">
+      <c r="A77" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="B77" s="67" t="s">
+      <c r="B77" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="C77" s="30" t="s">
+      <c r="C77" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="D77" s="19" t="s">
+      <c r="D77" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="E77" s="30" t="s">
+      <c r="E77" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="F77" s="63"/>
-      <c r="G77" s="63"/>
-      <c r="H77" s="63"/>
-      <c r="I77" s="63"/>
+      <c r="F77" s="67"/>
+      <c r="G77" s="67"/>
+      <c r="H77" s="67"/>
+      <c r="I77" s="67"/>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="24" t="s">
+      <c r="A78" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="B78" s="67" t="s">
+      <c r="B78" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="C78" s="30" t="s">
+      <c r="C78" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="D78" s="19" t="s">
+      <c r="D78" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="E78" s="30" t="s">
+      <c r="E78" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="F78" s="63"/>
-      <c r="G78" s="63"/>
-      <c r="H78" s="63"/>
-      <c r="I78" s="63"/>
+      <c r="F78" s="67"/>
+      <c r="G78" s="67"/>
+      <c r="H78" s="67"/>
+      <c r="I78" s="67"/>
     </row>
     <row r="79" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="29" t="s">
+      <c r="A79" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="B79" s="67" t="s">
+      <c r="B79" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="C79" s="30" t="s">
+      <c r="C79" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="D79" s="19" t="s">
+      <c r="D79" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="E79" s="30" t="s">
+      <c r="E79" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="F79" s="63"/>
-      <c r="G79" s="63"/>
-      <c r="H79" s="63"/>
-      <c r="I79" s="63"/>
+      <c r="F79" s="67"/>
+      <c r="G79" s="67"/>
+      <c r="H79" s="67"/>
+      <c r="I79" s="67"/>
     </row>
     <row r="80" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="24" t="s">
+      <c r="A80" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="B80" s="67" t="s">
+      <c r="B80" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="C80" s="30" t="s">
+      <c r="C80" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="D80" s="19" t="s">
+      <c r="D80" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="E80" s="30" t="s">
+      <c r="E80" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="F80" s="63"/>
-      <c r="G80" s="63"/>
-      <c r="H80" s="63"/>
-      <c r="I80" s="63"/>
+      <c r="F80" s="67"/>
+      <c r="G80" s="67"/>
+      <c r="H80" s="67"/>
+      <c r="I80" s="67"/>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="24" t="s">
+      <c r="A81" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="B81" s="67" t="s">
+      <c r="B81" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="C81" s="30" t="s">
+      <c r="C81" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="D81" s="19" t="s">
+      <c r="D81" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="E81" s="30" t="s">
+      <c r="E81" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="F81" s="63"/>
-      <c r="G81" s="63"/>
-      <c r="H81" s="63"/>
-      <c r="I81" s="63"/>
+      <c r="F81" s="67"/>
+      <c r="G81" s="67"/>
+      <c r="H81" s="67"/>
+      <c r="I81" s="67"/>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="24" t="s">
+      <c r="A82" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="B82" s="67" t="s">
+      <c r="B82" s="71" t="s">
         <v>132</v>
       </c>
-      <c r="C82" s="30" t="s">
+      <c r="C82" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="D82" s="18" t="s">
+      <c r="D82" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="E82" s="30" t="s">
+      <c r="E82" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="F82" s="63"/>
-      <c r="G82" s="63"/>
-      <c r="H82" s="63"/>
-      <c r="I82" s="63"/>
+      <c r="F82" s="67"/>
+      <c r="G82" s="67"/>
+      <c r="H82" s="67"/>
+      <c r="I82" s="67"/>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="68" t="s">
+      <c r="A83" s="72" t="s">
         <v>135</v>
       </c>
-      <c r="B83" s="69" t="s">
+      <c r="B83" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="C83" s="70" t="s">
+      <c r="C83" s="74" t="s">
         <v>137</v>
       </c>
-      <c r="D83" s="71" t="s">
+      <c r="D83" s="75" t="s">
         <v>138</v>
       </c>
-      <c r="E83" s="70" t="s">
+      <c r="E83" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="F83" s="63"/>
-      <c r="G83" s="63"/>
-      <c r="I83" s="63"/>
+      <c r="F83" s="67"/>
+      <c r="G83" s="67"/>
+      <c r="I83" s="67"/>
     </row>
     <row r="84" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="68" t="s">
+      <c r="A84" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="B84" s="69" t="s">
+      <c r="B84" s="73" t="s">
         <v>140</v>
       </c>
-      <c r="C84" s="70" t="s">
+      <c r="C84" s="74" t="s">
         <v>141</v>
       </c>
-      <c r="D84" s="71" t="s">
+      <c r="D84" s="75" t="s">
         <v>142</v>
       </c>
-      <c r="E84" s="70" t="s">
+      <c r="E84" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="F84" s="63"/>
-      <c r="G84" s="63"/>
-      <c r="H84" s="63"/>
-      <c r="I84" s="63"/>
+      <c r="F84" s="67"/>
+      <c r="G84" s="67"/>
+      <c r="H84" s="67"/>
+      <c r="I84" s="67"/>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="24" t="s">
+      <c r="A85" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="B85" s="67" t="s">
+      <c r="B85" s="71" t="s">
         <v>144</v>
       </c>
-      <c r="C85" s="30" t="s">
+      <c r="C85" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="D85" s="19" t="s">
+      <c r="D85" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="E85" s="72" t="s">
+      <c r="E85" s="76" t="s">
         <v>146</v>
       </c>
-      <c r="F85" s="63"/>
-      <c r="G85" s="63"/>
-      <c r="H85" s="63"/>
-      <c r="I85" s="63"/>
+      <c r="F85" s="67"/>
+      <c r="G85" s="67"/>
+      <c r="H85" s="67"/>
+      <c r="I85" s="67"/>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="24" t="s">
+      <c r="A86" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="B86" s="67" t="s">
+      <c r="B86" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="C86" s="30" t="s">
+      <c r="C86" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="D86" s="19" t="s">
+      <c r="D86" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="E86" s="72" t="s">
+      <c r="E86" s="76" t="s">
         <v>146</v>
       </c>
-      <c r="F86" s="63"/>
-      <c r="G86" s="63"/>
-      <c r="H86" s="63"/>
-      <c r="I86" s="63"/>
+      <c r="F86" s="67"/>
+      <c r="G86" s="67"/>
+      <c r="H86" s="67"/>
+      <c r="I86" s="67"/>
     </row>
     <row r="87" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="24" t="s">
+      <c r="A87" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="B87" s="67" t="s">
+      <c r="B87" s="71" t="s">
         <v>151</v>
       </c>
-      <c r="C87" s="30" t="s">
+      <c r="C87" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="D87" s="19" t="s">
+      <c r="D87" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="E87" s="72" t="s">
+      <c r="E87" s="76" t="s">
         <v>146</v>
       </c>
-      <c r="F87" s="63"/>
-      <c r="G87" s="63"/>
-      <c r="H87" s="63"/>
-      <c r="I87" s="63"/>
+      <c r="F87" s="67"/>
+      <c r="G87" s="67"/>
+      <c r="H87" s="67"/>
+      <c r="I87" s="67"/>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="24" t="s">
+      <c r="A88" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="B88" s="67" t="s">
+      <c r="B88" s="71" t="s">
         <v>155</v>
       </c>
-      <c r="C88" s="30" t="s">
+      <c r="C88" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="D88" s="19" t="s">
+      <c r="D88" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="E88" s="72" t="s">
+      <c r="E88" s="76" t="s">
         <v>146</v>
       </c>
-      <c r="F88" s="63"/>
-      <c r="G88" s="63"/>
-      <c r="H88" s="63"/>
-      <c r="I88" s="63"/>
+      <c r="F88" s="67"/>
+      <c r="G88" s="67"/>
+      <c r="H88" s="67"/>
+      <c r="I88" s="67"/>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="24" t="s">
+      <c r="A89" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="B89" s="67" t="s">
+      <c r="B89" s="71" t="s">
         <v>158</v>
       </c>
-      <c r="C89" s="30" t="s">
+      <c r="C89" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="D89" s="19" t="s">
+      <c r="D89" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="E89" s="72" t="s">
+      <c r="E89" s="76" t="s">
         <v>146</v>
       </c>
-      <c r="F89" s="63"/>
-      <c r="G89" s="63"/>
-      <c r="H89" s="63"/>
-      <c r="I89" s="63"/>
+      <c r="F89" s="67"/>
+      <c r="G89" s="67"/>
+      <c r="H89" s="67"/>
+      <c r="I89" s="67"/>
     </row>
     <row r="90" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="24" t="s">
+      <c r="A90" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="B90" s="67" t="s">
+      <c r="B90" s="71" t="s">
         <v>161</v>
       </c>
-      <c r="C90" s="30" t="s">
+      <c r="C90" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="D90" s="19" t="s">
+      <c r="D90" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="E90" s="72" t="s">
+      <c r="E90" s="76" t="s">
         <v>146</v>
       </c>
-      <c r="F90" s="63"/>
-      <c r="G90" s="63"/>
-      <c r="H90" s="63"/>
-      <c r="I90" s="63"/>
+      <c r="F90" s="67"/>
+      <c r="G90" s="67"/>
+      <c r="H90" s="67"/>
+      <c r="I90" s="67"/>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="24" t="s">
+      <c r="A91" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="B91" s="67" t="s">
+      <c r="B91" s="71" t="s">
         <v>164</v>
       </c>
-      <c r="C91" s="30" t="s">
+      <c r="C91" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="D91" s="19" t="s">
+      <c r="D91" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="E91" s="72" t="s">
+      <c r="E91" s="76" t="s">
         <v>146</v>
       </c>
-      <c r="F91" s="63"/>
-      <c r="G91" s="63"/>
-      <c r="H91" s="63"/>
-      <c r="I91" s="63"/>
+      <c r="F91" s="67"/>
+      <c r="G91" s="67"/>
+      <c r="H91" s="67"/>
+      <c r="I91" s="67"/>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="24" t="s">
+      <c r="A92" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="B92" s="67" t="s">
+      <c r="B92" s="71" t="s">
         <v>168</v>
       </c>
-      <c r="C92" s="30" t="s">
+      <c r="C92" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="D92" s="19" t="s">
+      <c r="D92" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="E92" s="72" t="s">
+      <c r="E92" s="76" t="s">
         <v>146</v>
       </c>
-      <c r="F92" s="63"/>
-      <c r="G92" s="63"/>
-      <c r="H92" s="63"/>
-      <c r="I92" s="63"/>
+      <c r="F92" s="67"/>
+      <c r="G92" s="67"/>
+      <c r="H92" s="67"/>
+      <c r="I92" s="67"/>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="24" t="s">
+      <c r="A93" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="B93" s="67" t="s">
+      <c r="B93" s="71" t="s">
         <v>172</v>
       </c>
-      <c r="C93" s="30" t="s">
+      <c r="C93" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="D93" s="19" t="s">
+      <c r="D93" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="E93" s="72" t="s">
+      <c r="E93" s="76" t="s">
         <v>146</v>
       </c>
-      <c r="F93" s="63"/>
-      <c r="G93" s="63"/>
-      <c r="H93" s="63"/>
-      <c r="I93" s="63"/>
+      <c r="F93" s="67"/>
+      <c r="G93" s="67"/>
+      <c r="H93" s="67"/>
+      <c r="I93" s="67"/>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="24" t="s">
+      <c r="A94" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="B94" s="67" t="s">
+      <c r="B94" s="71" t="s">
         <v>176</v>
       </c>
-      <c r="C94" s="30" t="s">
+      <c r="C94" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="D94" s="19" t="s">
+      <c r="D94" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="E94" s="72" t="s">
+      <c r="E94" s="76" t="s">
         <v>146</v>
       </c>
-      <c r="F94" s="63"/>
-      <c r="G94" s="63"/>
-      <c r="H94" s="63"/>
-      <c r="I94" s="63"/>
+      <c r="F94" s="67"/>
+      <c r="G94" s="67"/>
+      <c r="H94" s="67"/>
+      <c r="I94" s="67"/>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="24" t="s">
+      <c r="A95" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="B95" s="67" t="s">
+      <c r="B95" s="71" t="s">
         <v>180</v>
       </c>
-      <c r="C95" s="30" t="s">
+      <c r="C95" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="D95" s="19" t="s">
+      <c r="D95" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="E95" s="72" t="s">
+      <c r="E95" s="76" t="s">
         <v>146</v>
       </c>
-      <c r="F95" s="63"/>
-      <c r="G95" s="63"/>
-      <c r="H95" s="63"/>
-      <c r="I95" s="63"/>
+      <c r="F95" s="67"/>
+      <c r="G95" s="67"/>
+      <c r="H95" s="67"/>
+      <c r="I95" s="67"/>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="68" t="s">
+      <c r="A96" s="72" t="s">
         <v>182</v>
       </c>
-      <c r="B96" s="69" t="s">
+      <c r="B96" s="73" t="s">
         <v>183</v>
       </c>
-      <c r="C96" s="70" t="s">
+      <c r="C96" s="74" t="s">
         <v>184</v>
       </c>
-      <c r="D96" s="71" t="s">
+      <c r="D96" s="75" t="s">
         <v>185</v>
       </c>
-      <c r="E96" s="73" t="s">
+      <c r="E96" s="77" t="s">
         <v>186</v>
       </c>
-      <c r="F96" s="63"/>
-      <c r="G96" s="63"/>
-      <c r="H96" s="63"/>
-      <c r="I96" s="63"/>
+      <c r="F96" s="67"/>
+      <c r="G96" s="67"/>
+      <c r="H96" s="67"/>
+      <c r="I96" s="67"/>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="68" t="s">
+      <c r="A97" s="72" t="s">
         <v>187</v>
       </c>
-      <c r="B97" s="69" t="s">
+      <c r="B97" s="73" t="s">
         <v>188</v>
       </c>
-      <c r="C97" s="70" t="s">
+      <c r="C97" s="74" t="s">
         <v>189</v>
       </c>
-      <c r="D97" s="71" t="s">
+      <c r="D97" s="75" t="s">
         <v>190</v>
       </c>
-      <c r="E97" s="73" t="s">
+      <c r="E97" s="77" t="s">
         <v>186</v>
       </c>
-      <c r="F97" s="63"/>
-      <c r="G97" s="63"/>
-      <c r="H97" s="63"/>
-      <c r="I97" s="63"/>
+      <c r="F97" s="67"/>
+      <c r="G97" s="67"/>
+      <c r="H97" s="67"/>
+      <c r="I97" s="67"/>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="68" t="s">
+      <c r="A98" s="72" t="s">
         <v>191</v>
       </c>
-      <c r="B98" s="69" t="s">
+      <c r="B98" s="73" t="s">
         <v>192</v>
       </c>
-      <c r="C98" s="70" t="s">
+      <c r="C98" s="74" t="s">
         <v>193</v>
       </c>
-      <c r="D98" s="71" t="s">
+      <c r="D98" s="75" t="s">
         <v>194</v>
       </c>
-      <c r="E98" s="73" t="s">
+      <c r="E98" s="77" t="s">
         <v>186</v>
       </c>
-      <c r="F98" s="63"/>
-      <c r="G98" s="63"/>
-      <c r="H98" s="63"/>
-      <c r="I98" s="63"/>
+      <c r="F98" s="67"/>
+      <c r="G98" s="67"/>
+      <c r="H98" s="67"/>
+      <c r="I98" s="67"/>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="68" t="s">
+      <c r="A99" s="72" t="s">
         <v>195</v>
       </c>
-      <c r="B99" s="69" t="s">
+      <c r="B99" s="73" t="s">
         <v>196</v>
       </c>
-      <c r="C99" s="70" t="s">
+      <c r="C99" s="74" t="s">
         <v>197</v>
       </c>
-      <c r="D99" s="71" t="s">
+      <c r="D99" s="75" t="s">
         <v>198</v>
       </c>
-      <c r="E99" s="73" t="s">
+      <c r="E99" s="77" t="s">
         <v>186</v>
       </c>
-      <c r="F99" s="63"/>
-      <c r="G99" s="63"/>
-      <c r="H99" s="63"/>
-      <c r="I99" s="63"/>
+      <c r="F99" s="67"/>
+      <c r="G99" s="67"/>
+      <c r="H99" s="67"/>
+      <c r="I99" s="67"/>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="68" t="s">
+      <c r="A100" s="72" t="s">
         <v>199</v>
       </c>
-      <c r="B100" s="69" t="s">
+      <c r="B100" s="73" t="s">
         <v>200</v>
       </c>
-      <c r="C100" s="70" t="s">
+      <c r="C100" s="74" t="s">
         <v>201</v>
       </c>
-      <c r="D100" s="71" t="s">
+      <c r="D100" s="75" t="s">
         <v>198</v>
       </c>
-      <c r="E100" s="73" t="s">
+      <c r="E100" s="77" t="s">
         <v>186</v>
       </c>
-      <c r="F100" s="63"/>
-      <c r="G100" s="63"/>
-      <c r="H100" s="63"/>
-      <c r="I100" s="63"/>
+      <c r="F100" s="67"/>
+      <c r="G100" s="67"/>
+      <c r="H100" s="67"/>
+      <c r="I100" s="67"/>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="68" t="s">
+      <c r="A101" s="72" t="s">
         <v>202</v>
       </c>
-      <c r="B101" s="69" t="s">
+      <c r="B101" s="73" t="s">
         <v>203</v>
       </c>
-      <c r="C101" s="70" t="s">
+      <c r="C101" s="74" t="s">
         <v>204</v>
       </c>
-      <c r="D101" s="71" t="s">
+      <c r="D101" s="75" t="s">
         <v>198</v>
       </c>
-      <c r="E101" s="73" t="s">
+      <c r="E101" s="77" t="s">
         <v>186</v>
       </c>
-      <c r="F101" s="63"/>
-      <c r="G101" s="63"/>
-      <c r="H101" s="63"/>
-      <c r="I101" s="63"/>
+      <c r="F101" s="67"/>
+      <c r="G101" s="67"/>
+      <c r="H101" s="67"/>
+      <c r="I101" s="67"/>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="68" t="s">
+      <c r="A102" s="72" t="s">
         <v>205</v>
       </c>
-      <c r="B102" s="69" t="s">
+      <c r="B102" s="73" t="s">
         <v>206</v>
       </c>
-      <c r="C102" s="70" t="s">
+      <c r="C102" s="74" t="s">
         <v>207</v>
       </c>
-      <c r="D102" s="71" t="s">
+      <c r="D102" s="75" t="s">
         <v>208</v>
       </c>
-      <c r="E102" s="73" t="s">
+      <c r="E102" s="77" t="s">
         <v>186</v>
       </c>
-      <c r="F102" s="63"/>
-      <c r="G102" s="63"/>
-      <c r="H102" s="63"/>
-      <c r="I102" s="63"/>
+      <c r="F102" s="67"/>
+      <c r="G102" s="67"/>
+      <c r="H102" s="67"/>
+      <c r="I102" s="67"/>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="68" t="s">
+      <c r="A103" s="72" t="s">
         <v>209</v>
       </c>
-      <c r="B103" s="69" t="s">
+      <c r="B103" s="73" t="s">
         <v>210</v>
       </c>
-      <c r="C103" s="70" t="s">
+      <c r="C103" s="74" t="s">
         <v>211</v>
       </c>
-      <c r="D103" s="71" t="s">
+      <c r="D103" s="75" t="s">
         <v>212</v>
       </c>
-      <c r="E103" s="73" t="s">
+      <c r="E103" s="77" t="s">
         <v>186</v>
       </c>
-      <c r="F103" s="63"/>
-      <c r="G103" s="63"/>
-      <c r="H103" s="63"/>
-      <c r="I103" s="63"/>
+      <c r="F103" s="67"/>
+      <c r="G103" s="67"/>
+      <c r="H103" s="67"/>
+      <c r="I103" s="67"/>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="68" t="s">
+      <c r="A104" s="72" t="s">
         <v>213</v>
       </c>
-      <c r="B104" s="69" t="s">
+      <c r="B104" s="73" t="s">
         <v>214</v>
       </c>
-      <c r="C104" s="70" t="s">
+      <c r="C104" s="74" t="s">
         <v>215</v>
       </c>
-      <c r="D104" s="71" t="s">
+      <c r="D104" s="75" t="s">
         <v>213</v>
       </c>
-      <c r="E104" s="73" t="s">
+      <c r="E104" s="77" t="s">
         <v>186</v>
       </c>
-      <c r="F104" s="63"/>
-      <c r="G104" s="63"/>
-      <c r="H104" s="63"/>
-      <c r="I104" s="63"/>
+      <c r="F104" s="67"/>
+      <c r="G104" s="67"/>
+      <c r="H104" s="67"/>
+      <c r="I104" s="67"/>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="63"/>
-      <c r="C105" s="63"/>
-      <c r="D105" s="63"/>
-      <c r="E105" s="63"/>
-      <c r="F105" s="63"/>
-      <c r="G105" s="63"/>
-      <c r="H105" s="63"/>
-      <c r="I105" s="63"/>
+      <c r="B105" s="67"/>
+      <c r="C105" s="67"/>
+      <c r="D105" s="67"/>
+      <c r="E105" s="67"/>
+      <c r="F105" s="67"/>
+      <c r="G105" s="67"/>
+      <c r="H105" s="67"/>
+      <c r="I105" s="67"/>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="63"/>
-      <c r="C106" s="63"/>
-      <c r="D106" s="63"/>
-      <c r="E106" s="63"/>
-      <c r="F106" s="63"/>
-      <c r="G106" s="63"/>
-      <c r="H106" s="63"/>
-      <c r="I106" s="63"/>
+      <c r="B106" s="67"/>
+      <c r="C106" s="67"/>
+      <c r="D106" s="67"/>
+      <c r="E106" s="67"/>
+      <c r="F106" s="67"/>
+      <c r="G106" s="67"/>
+      <c r="H106" s="67"/>
+      <c r="I106" s="67"/>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="63"/>
-      <c r="C107" s="63"/>
-      <c r="D107" s="63"/>
-      <c r="E107" s="63"/>
-      <c r="F107" s="63"/>
-      <c r="G107" s="63"/>
-      <c r="H107" s="63"/>
-      <c r="I107" s="63"/>
+      <c r="B107" s="67"/>
+      <c r="C107" s="67"/>
+      <c r="D107" s="67"/>
+      <c r="E107" s="67"/>
+      <c r="F107" s="67"/>
+      <c r="G107" s="67"/>
+      <c r="H107" s="67"/>
+      <c r="I107" s="67"/>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="63"/>
-      <c r="C108" s="63"/>
-      <c r="D108" s="63"/>
-      <c r="E108" s="63"/>
-      <c r="F108" s="63"/>
-      <c r="G108" s="63"/>
-      <c r="H108" s="63"/>
-      <c r="I108" s="63"/>
+      <c r="B108" s="67"/>
+      <c r="C108" s="67"/>
+      <c r="D108" s="67"/>
+      <c r="E108" s="67"/>
+      <c r="F108" s="67"/>
+      <c r="G108" s="67"/>
+      <c r="H108" s="67"/>
+      <c r="I108" s="67"/>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="63"/>
-      <c r="C109" s="63"/>
-      <c r="D109" s="63"/>
-      <c r="E109" s="63"/>
-      <c r="F109" s="63"/>
-      <c r="G109" s="63"/>
-      <c r="H109" s="63"/>
-      <c r="I109" s="63"/>
+      <c r="B109" s="67"/>
+      <c r="C109" s="67"/>
+      <c r="D109" s="67"/>
+      <c r="E109" s="67"/>
+      <c r="F109" s="67"/>
+      <c r="G109" s="67"/>
+      <c r="H109" s="67"/>
+      <c r="I109" s="67"/>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="63"/>
-      <c r="B110" s="63"/>
-      <c r="C110" s="63"/>
-      <c r="D110" s="63"/>
-      <c r="E110" s="63"/>
-      <c r="F110" s="63"/>
-      <c r="G110" s="63"/>
-      <c r="H110" s="63"/>
-      <c r="I110" s="63"/>
+      <c r="A110" s="67"/>
+      <c r="B110" s="67"/>
+      <c r="C110" s="67"/>
+      <c r="D110" s="67"/>
+      <c r="E110" s="67"/>
+      <c r="F110" s="67"/>
+      <c r="G110" s="67"/>
+      <c r="H110" s="67"/>
+      <c r="I110" s="67"/>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="63"/>
-      <c r="B111" s="63"/>
-      <c r="C111" s="63"/>
-      <c r="D111" s="63"/>
-      <c r="E111" s="63"/>
-      <c r="F111" s="63"/>
-      <c r="G111" s="63"/>
-      <c r="H111" s="63"/>
-      <c r="I111" s="63"/>
+      <c r="A111" s="67"/>
+      <c r="B111" s="67"/>
+      <c r="C111" s="67"/>
+      <c r="D111" s="67"/>
+      <c r="E111" s="67"/>
+      <c r="F111" s="67"/>
+      <c r="G111" s="67"/>
+      <c r="H111" s="67"/>
+      <c r="I111" s="67"/>
     </row>
     <row r="112" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="74"/>
-      <c r="B112" s="75" t="s">
+      <c r="A112" s="78"/>
+      <c r="B112" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="C112" s="75" t="s">
+      <c r="C112" s="79" t="s">
         <v>217</v>
       </c>
-      <c r="D112" s="76" t="s">
+      <c r="D112" s="80" t="s">
         <v>218</v>
       </c>
-      <c r="E112" s="67" t="s">
+      <c r="E112" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="F112" s="30" t="s">
+      <c r="F112" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="G112" s="63"/>
-      <c r="H112" s="63"/>
-      <c r="I112" s="63"/>
+      <c r="G112" s="67"/>
+      <c r="H112" s="67"/>
+      <c r="I112" s="67"/>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="77"/>
-      <c r="B113" s="78"/>
-      <c r="C113" s="78"/>
-      <c r="D113" s="79"/>
-      <c r="E113" s="63"/>
-      <c r="F113" s="63"/>
-      <c r="G113" s="63"/>
-      <c r="H113" s="63"/>
-      <c r="I113" s="63"/>
+      <c r="A113" s="81"/>
+      <c r="B113" s="82"/>
+      <c r="C113" s="82"/>
+      <c r="D113" s="83"/>
+      <c r="E113" s="67"/>
+      <c r="F113" s="67"/>
+      <c r="G113" s="67"/>
+      <c r="H113" s="67"/>
+      <c r="I113" s="67"/>
     </row>
     <row r="114" customFormat="false" ht="80.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="80" t="s">
+      <c r="A114" s="84" t="s">
         <v>219</v>
       </c>
-      <c r="B114" s="81" t="s">
+      <c r="B114" s="85" t="s">
         <v>220</v>
       </c>
-      <c r="C114" s="82" t="s">
+      <c r="C114" s="86" t="s">
         <v>221</v>
       </c>
-      <c r="D114" s="83" t="s">
+      <c r="D114" s="87" t="s">
         <v>222</v>
       </c>
-      <c r="E114" s="84" t="s">
+      <c r="E114" s="88" t="s">
         <v>223</v>
       </c>
-      <c r="F114" s="82" t="s">
+      <c r="F114" s="86" t="s">
         <v>224</v>
       </c>
-      <c r="G114" s="85" t="s">
+      <c r="G114" s="89" t="s">
         <v>225</v>
       </c>
-      <c r="H114" s="63"/>
-      <c r="I114" s="63"/>
+      <c r="H114" s="67"/>
+      <c r="I114" s="67"/>
     </row>
     <row r="115" customFormat="false" ht="40.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="80"/>
-      <c r="B115" s="81" t="s">
+      <c r="A115" s="84"/>
+      <c r="B115" s="85" t="s">
         <v>226</v>
       </c>
-      <c r="C115" s="82" t="s">
+      <c r="C115" s="86" t="s">
         <v>221</v>
       </c>
-      <c r="D115" s="83" t="s">
+      <c r="D115" s="87" t="s">
         <v>227</v>
       </c>
-      <c r="E115" s="84" t="s">
+      <c r="E115" s="88" t="s">
         <v>228</v>
       </c>
-      <c r="F115" s="82" t="s">
+      <c r="F115" s="86" t="s">
         <v>229</v>
       </c>
-      <c r="G115" s="63"/>
-      <c r="H115" s="63"/>
-      <c r="I115" s="63"/>
+      <c r="G115" s="67"/>
+      <c r="H115" s="67"/>
+      <c r="I115" s="67"/>
     </row>
     <row r="116" customFormat="false" ht="67.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="80"/>
-      <c r="B116" s="81" t="s">
+      <c r="A116" s="84"/>
+      <c r="B116" s="85" t="s">
         <v>230</v>
       </c>
-      <c r="C116" s="82" t="s">
+      <c r="C116" s="86" t="s">
         <v>221</v>
       </c>
-      <c r="D116" s="83" t="s">
+      <c r="D116" s="87" t="s">
         <v>231</v>
       </c>
-      <c r="E116" s="84" t="s">
+      <c r="E116" s="88" t="s">
         <v>232</v>
       </c>
-      <c r="F116" s="82" t="s">
+      <c r="F116" s="86" t="s">
         <v>233</v>
       </c>
-      <c r="G116" s="63"/>
-      <c r="H116" s="63"/>
-      <c r="I116" s="63"/>
+      <c r="G116" s="67"/>
+      <c r="H116" s="67"/>
+      <c r="I116" s="67"/>
     </row>
     <row r="117" customFormat="false" ht="40.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="80"/>
-      <c r="B117" s="81" t="s">
+      <c r="A117" s="84"/>
+      <c r="B117" s="85" t="s">
         <v>234</v>
       </c>
-      <c r="C117" s="82" t="s">
+      <c r="C117" s="86" t="s">
         <v>221</v>
       </c>
-      <c r="D117" s="83" t="s">
+      <c r="D117" s="87" t="s">
         <v>235</v>
       </c>
-      <c r="E117" s="84" t="s">
+      <c r="E117" s="88" t="s">
         <v>236</v>
       </c>
-      <c r="F117" s="82" t="s">
+      <c r="F117" s="86" t="s">
         <v>237</v>
       </c>
-      <c r="G117" s="63"/>
-      <c r="H117" s="63"/>
-      <c r="I117" s="63"/>
+      <c r="G117" s="67"/>
+      <c r="H117" s="67"/>
+      <c r="I117" s="67"/>
     </row>
     <row r="118" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="80"/>
-      <c r="B118" s="81" t="s">
+      <c r="A118" s="84"/>
+      <c r="B118" s="85" t="s">
         <v>238</v>
       </c>
-      <c r="C118" s="82" t="s">
+      <c r="C118" s="86" t="s">
         <v>221</v>
       </c>
-      <c r="D118" s="83" t="s">
+      <c r="D118" s="87" t="s">
         <v>239</v>
       </c>
-      <c r="E118" s="84" t="s">
-        <v>12</v>
-      </c>
-      <c r="F118" s="82" t="s">
-        <v>12</v>
-      </c>
-      <c r="G118" s="85" t="s">
+      <c r="E118" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="F118" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="G118" s="89" t="s">
         <v>240</v>
       </c>
-      <c r="H118" s="63"/>
-      <c r="I118" s="63"/>
+      <c r="H118" s="67"/>
+      <c r="I118" s="67"/>
     </row>
     <row r="119" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="80"/>
-      <c r="B119" s="81" t="s">
+      <c r="A119" s="84"/>
+      <c r="B119" s="85" t="s">
         <v>241</v>
       </c>
-      <c r="C119" s="82" t="s">
+      <c r="C119" s="86" t="s">
         <v>221</v>
       </c>
-      <c r="D119" s="83" t="s">
+      <c r="D119" s="87" t="s">
         <v>239</v>
       </c>
-      <c r="E119" s="84" t="s">
-        <v>12</v>
-      </c>
-      <c r="F119" s="82" t="s">
-        <v>12</v>
-      </c>
-      <c r="G119" s="63"/>
-      <c r="H119" s="63"/>
-      <c r="I119" s="63"/>
+      <c r="E119" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="F119" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="G119" s="67"/>
+      <c r="H119" s="67"/>
+      <c r="I119" s="67"/>
     </row>
     <row r="120" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="80"/>
-      <c r="B120" s="81" t="s">
+      <c r="A120" s="84"/>
+      <c r="B120" s="85" t="s">
         <v>242</v>
       </c>
-      <c r="C120" s="82" t="s">
+      <c r="C120" s="86" t="s">
         <v>221</v>
       </c>
-      <c r="D120" s="83" t="s">
+      <c r="D120" s="87" t="s">
         <v>239</v>
       </c>
-      <c r="E120" s="84" t="s">
-        <v>12</v>
-      </c>
-      <c r="F120" s="82" t="s">
-        <v>12</v>
-      </c>
-      <c r="G120" s="63"/>
-      <c r="H120" s="63"/>
-      <c r="I120" s="63"/>
+      <c r="E120" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="F120" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="G120" s="67"/>
+      <c r="H120" s="67"/>
+      <c r="I120" s="67"/>
     </row>
     <row r="121" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="80"/>
-      <c r="B121" s="81" t="s">
+      <c r="A121" s="84"/>
+      <c r="B121" s="85" t="s">
         <v>243</v>
       </c>
-      <c r="C121" s="82" t="s">
+      <c r="C121" s="86" t="s">
         <v>221</v>
       </c>
-      <c r="D121" s="83" t="s">
+      <c r="D121" s="87" t="s">
         <v>239</v>
       </c>
-      <c r="E121" s="84" t="s">
-        <v>12</v>
-      </c>
-      <c r="F121" s="82" t="s">
-        <v>12</v>
-      </c>
-      <c r="G121" s="63"/>
-      <c r="H121" s="63"/>
-      <c r="I121" s="63"/>
+      <c r="E121" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="F121" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="G121" s="67"/>
+      <c r="H121" s="67"/>
+      <c r="I121" s="67"/>
     </row>
     <row r="122" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="80"/>
-      <c r="B122" s="81" t="s">
+      <c r="A122" s="84"/>
+      <c r="B122" s="85" t="s">
         <v>244</v>
       </c>
-      <c r="C122" s="82" t="s">
+      <c r="C122" s="86" t="s">
         <v>221</v>
       </c>
-      <c r="D122" s="83" t="s">
+      <c r="D122" s="87" t="s">
         <v>239</v>
       </c>
-      <c r="E122" s="84" t="s">
-        <v>12</v>
-      </c>
-      <c r="F122" s="82" t="s">
-        <v>12</v>
-      </c>
-      <c r="G122" s="63"/>
-      <c r="H122" s="63"/>
-      <c r="I122" s="63"/>
+      <c r="E122" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="F122" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="G122" s="67"/>
+      <c r="H122" s="67"/>
+      <c r="I122" s="67"/>
     </row>
     <row r="123" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="80" t="s">
+      <c r="A123" s="84" t="s">
         <v>216</v>
       </c>
-      <c r="B123" s="84" t="s">
+      <c r="B123" s="88" t="s">
         <v>245</v>
       </c>
-      <c r="C123" s="82" t="s">
+      <c r="C123" s="86" t="s">
         <v>221</v>
       </c>
-      <c r="D123" s="86"/>
-      <c r="E123" s="84" t="s">
-        <v>12</v>
-      </c>
-      <c r="F123" s="82" t="s">
-        <v>12</v>
-      </c>
-      <c r="G123" s="85" t="s">
+      <c r="D123" s="90"/>
+      <c r="E123" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="F123" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="G123" s="89" t="s">
         <v>246</v>
       </c>
-      <c r="H123" s="63"/>
-      <c r="I123" s="63"/>
+      <c r="H123" s="67"/>
+      <c r="I123" s="67"/>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="80"/>
-      <c r="B124" s="84" t="s">
+      <c r="A124" s="84"/>
+      <c r="B124" s="88" t="s">
         <v>247</v>
       </c>
-      <c r="C124" s="82" t="s">
+      <c r="C124" s="86" t="s">
         <v>221</v>
       </c>
-      <c r="D124" s="86"/>
-      <c r="E124" s="84" t="s">
-        <v>12</v>
-      </c>
-      <c r="F124" s="82" t="s">
-        <v>12</v>
-      </c>
-      <c r="G124" s="63" t="s">
+      <c r="D124" s="90"/>
+      <c r="E124" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="F124" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="G124" s="67" t="s">
         <v>248</v>
       </c>
-      <c r="H124" s="63"/>
-      <c r="I124" s="63"/>
+      <c r="H124" s="67"/>
+      <c r="I124" s="67"/>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="80"/>
-      <c r="B125" s="84" t="s">
+      <c r="A125" s="84"/>
+      <c r="B125" s="88" t="s">
         <v>182</v>
       </c>
-      <c r="C125" s="82" t="s">
+      <c r="C125" s="86" t="s">
         <v>221</v>
       </c>
-      <c r="D125" s="86"/>
-      <c r="E125" s="84" t="s">
-        <v>12</v>
-      </c>
-      <c r="F125" s="82" t="s">
-        <v>12</v>
-      </c>
-      <c r="G125" s="63"/>
-      <c r="H125" s="63"/>
-      <c r="I125" s="63"/>
+      <c r="D125" s="90"/>
+      <c r="E125" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="F125" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="G125" s="67"/>
+      <c r="H125" s="67"/>
+      <c r="I125" s="67"/>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="80"/>
-      <c r="B126" s="84" t="s">
+      <c r="A126" s="84"/>
+      <c r="B126" s="88" t="s">
         <v>187</v>
       </c>
-      <c r="C126" s="82" t="s">
+      <c r="C126" s="86" t="s">
         <v>221</v>
       </c>
-      <c r="D126" s="86"/>
-      <c r="E126" s="84" t="s">
-        <v>12</v>
-      </c>
-      <c r="F126" s="82" t="s">
-        <v>12</v>
-      </c>
-      <c r="G126" s="63"/>
-      <c r="H126" s="63"/>
-      <c r="I126" s="63"/>
+      <c r="D126" s="90"/>
+      <c r="E126" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="F126" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="G126" s="67"/>
+      <c r="H126" s="67"/>
+      <c r="I126" s="67"/>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="80"/>
-      <c r="B127" s="84" t="s">
+      <c r="A127" s="84"/>
+      <c r="B127" s="88" t="s">
         <v>191</v>
       </c>
-      <c r="C127" s="82" t="s">
+      <c r="C127" s="86" t="s">
         <v>221</v>
       </c>
-      <c r="D127" s="86"/>
-      <c r="E127" s="84" t="s">
-        <v>12</v>
-      </c>
-      <c r="F127" s="82" t="s">
-        <v>12</v>
-      </c>
-      <c r="G127" s="63"/>
-      <c r="H127" s="63"/>
-      <c r="I127" s="63"/>
+      <c r="D127" s="90"/>
+      <c r="E127" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="F127" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="G127" s="67"/>
+      <c r="H127" s="67"/>
+      <c r="I127" s="67"/>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="80"/>
-      <c r="B128" s="84" t="s">
+      <c r="A128" s="84"/>
+      <c r="B128" s="88" t="s">
         <v>195</v>
       </c>
-      <c r="C128" s="82" t="s">
+      <c r="C128" s="86" t="s">
         <v>221</v>
       </c>
-      <c r="D128" s="86"/>
-      <c r="E128" s="84" t="s">
-        <v>12</v>
-      </c>
-      <c r="F128" s="82" t="s">
-        <v>12</v>
-      </c>
-      <c r="G128" s="63"/>
-      <c r="H128" s="63"/>
-      <c r="I128" s="63"/>
+      <c r="D128" s="90"/>
+      <c r="E128" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="F128" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="G128" s="67"/>
+      <c r="H128" s="67"/>
+      <c r="I128" s="67"/>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="80"/>
-      <c r="B129" s="84" t="s">
+      <c r="A129" s="84"/>
+      <c r="B129" s="88" t="s">
         <v>199</v>
       </c>
-      <c r="C129" s="82" t="s">
+      <c r="C129" s="86" t="s">
         <v>221</v>
       </c>
-      <c r="D129" s="86"/>
-      <c r="E129" s="84" t="s">
-        <v>12</v>
-      </c>
-      <c r="F129" s="82" t="s">
-        <v>12</v>
-      </c>
-      <c r="G129" s="63"/>
-      <c r="H129" s="63"/>
-      <c r="I129" s="63"/>
+      <c r="D129" s="90"/>
+      <c r="E129" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="F129" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="G129" s="67"/>
+      <c r="H129" s="67"/>
+      <c r="I129" s="67"/>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="80"/>
-      <c r="B130" s="84" t="s">
+      <c r="A130" s="84"/>
+      <c r="B130" s="88" t="s">
         <v>202</v>
       </c>
-      <c r="C130" s="82" t="s">
+      <c r="C130" s="86" t="s">
         <v>221</v>
       </c>
-      <c r="D130" s="86"/>
-      <c r="E130" s="84" t="s">
-        <v>12</v>
-      </c>
-      <c r="F130" s="82" t="s">
-        <v>12</v>
-      </c>
-      <c r="G130" s="63"/>
-      <c r="H130" s="63"/>
-      <c r="I130" s="63"/>
+      <c r="D130" s="90"/>
+      <c r="E130" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="F130" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="G130" s="67"/>
+      <c r="H130" s="67"/>
+      <c r="I130" s="67"/>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="80"/>
-      <c r="B131" s="84" t="s">
+      <c r="A131" s="84"/>
+      <c r="B131" s="88" t="s">
         <v>205</v>
       </c>
-      <c r="C131" s="82" t="s">
+      <c r="C131" s="86" t="s">
         <v>221</v>
       </c>
-      <c r="D131" s="86"/>
-      <c r="E131" s="84" t="s">
-        <v>12</v>
-      </c>
-      <c r="F131" s="82" t="s">
-        <v>12</v>
-      </c>
-      <c r="G131" s="63"/>
-      <c r="H131" s="63"/>
-      <c r="I131" s="63"/>
+      <c r="D131" s="90"/>
+      <c r="E131" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="F131" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="G131" s="67"/>
+      <c r="H131" s="67"/>
+      <c r="I131" s="67"/>
     </row>
     <row r="132" customFormat="false" ht="54.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="80"/>
-      <c r="B132" s="87" t="s">
+      <c r="A132" s="84"/>
+      <c r="B132" s="91" t="s">
         <v>213</v>
       </c>
-      <c r="C132" s="88" t="s">
+      <c r="C132" s="92" t="s">
         <v>221</v>
       </c>
-      <c r="D132" s="89" t="s">
+      <c r="D132" s="93" t="s">
         <v>249</v>
       </c>
-      <c r="E132" s="84" t="s">
-        <v>12</v>
-      </c>
-      <c r="F132" s="82" t="s">
-        <v>12</v>
-      </c>
-      <c r="G132" s="63"/>
-      <c r="H132" s="63"/>
-      <c r="I132" s="63"/>
+      <c r="E132" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="F132" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="G132" s="67"/>
+      <c r="H132" s="67"/>
+      <c r="I132" s="67"/>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="63"/>
-      <c r="B133" s="63"/>
-      <c r="C133" s="63"/>
-      <c r="D133" s="63"/>
-      <c r="E133" s="63"/>
-      <c r="F133" s="63"/>
-      <c r="G133" s="63"/>
-      <c r="H133" s="63"/>
-      <c r="I133" s="63"/>
+      <c r="A133" s="67"/>
+      <c r="B133" s="67"/>
+      <c r="C133" s="67"/>
+      <c r="D133" s="67"/>
+      <c r="E133" s="67"/>
+      <c r="F133" s="67"/>
+      <c r="G133" s="67"/>
+      <c r="H133" s="67"/>
+      <c r="I133" s="67"/>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="63"/>
-      <c r="B134" s="63"/>
-      <c r="C134" s="63"/>
-      <c r="D134" s="63"/>
-      <c r="E134" s="63"/>
-      <c r="F134" s="63"/>
-      <c r="G134" s="63"/>
-      <c r="H134" s="63"/>
-      <c r="I134" s="63"/>
+      <c r="A134" s="67"/>
+      <c r="B134" s="67"/>
+      <c r="C134" s="67"/>
+      <c r="D134" s="67"/>
+      <c r="E134" s="67"/>
+      <c r="F134" s="67"/>
+      <c r="G134" s="67"/>
+      <c r="H134" s="67"/>
+      <c r="I134" s="67"/>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="63"/>
-      <c r="B135" s="63"/>
-      <c r="C135" s="63"/>
-      <c r="D135" s="63"/>
-      <c r="E135" s="63"/>
-      <c r="F135" s="63"/>
-      <c r="G135" s="63"/>
-      <c r="H135" s="63"/>
-      <c r="I135" s="63"/>
+      <c r="A135" s="67"/>
+      <c r="B135" s="67"/>
+      <c r="C135" s="67"/>
+      <c r="D135" s="67"/>
+      <c r="E135" s="67"/>
+      <c r="F135" s="67"/>
+      <c r="G135" s="67"/>
+      <c r="H135" s="67"/>
+      <c r="I135" s="67"/>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="63"/>
-      <c r="B136" s="63"/>
-      <c r="C136" s="63"/>
-      <c r="D136" s="63"/>
-      <c r="E136" s="63"/>
-      <c r="F136" s="63"/>
-      <c r="G136" s="63"/>
-      <c r="H136" s="63"/>
-      <c r="I136" s="63"/>
+      <c r="A136" s="67"/>
+      <c r="B136" s="67"/>
+      <c r="C136" s="67"/>
+      <c r="D136" s="67"/>
+      <c r="E136" s="67"/>
+      <c r="F136" s="67"/>
+      <c r="G136" s="67"/>
+      <c r="H136" s="67"/>
+      <c r="I136" s="67"/>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="63"/>
-      <c r="B137" s="63"/>
-      <c r="C137" s="63"/>
-      <c r="D137" s="63"/>
-      <c r="E137" s="63"/>
-      <c r="F137" s="63"/>
-      <c r="G137" s="63"/>
-      <c r="H137" s="63"/>
-      <c r="I137" s="63"/>
+      <c r="A137" s="67"/>
+      <c r="B137" s="67"/>
+      <c r="C137" s="67"/>
+      <c r="D137" s="67"/>
+      <c r="E137" s="67"/>
+      <c r="F137" s="67"/>
+      <c r="G137" s="67"/>
+      <c r="H137" s="67"/>
+      <c r="I137" s="67"/>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="63"/>
-      <c r="B138" s="63"/>
-      <c r="C138" s="63"/>
-      <c r="D138" s="63"/>
-      <c r="E138" s="63"/>
-      <c r="F138" s="63"/>
-      <c r="G138" s="63"/>
-      <c r="H138" s="63"/>
-      <c r="I138" s="63"/>
+      <c r="A138" s="67"/>
+      <c r="B138" s="67"/>
+      <c r="C138" s="67"/>
+      <c r="D138" s="67"/>
+      <c r="E138" s="67"/>
+      <c r="F138" s="67"/>
+      <c r="G138" s="67"/>
+      <c r="H138" s="67"/>
+      <c r="I138" s="67"/>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="63"/>
-      <c r="B139" s="63"/>
-      <c r="C139" s="63"/>
-      <c r="D139" s="63"/>
-      <c r="E139" s="63"/>
-      <c r="F139" s="63"/>
-      <c r="G139" s="63"/>
-      <c r="H139" s="63"/>
-      <c r="I139" s="63"/>
+      <c r="A139" s="67"/>
+      <c r="B139" s="67"/>
+      <c r="C139" s="67"/>
+      <c r="D139" s="67"/>
+      <c r="E139" s="67"/>
+      <c r="F139" s="67"/>
+      <c r="G139" s="67"/>
+      <c r="H139" s="67"/>
+      <c r="I139" s="67"/>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="63"/>
-      <c r="B140" s="63"/>
-      <c r="C140" s="63"/>
-      <c r="D140" s="63"/>
-      <c r="E140" s="63"/>
-      <c r="F140" s="63"/>
-      <c r="G140" s="63"/>
-      <c r="H140" s="63"/>
-      <c r="I140" s="63"/>
+      <c r="A140" s="67"/>
+      <c r="B140" s="67"/>
+      <c r="C140" s="67"/>
+      <c r="D140" s="67"/>
+      <c r="E140" s="67"/>
+      <c r="F140" s="67"/>
+      <c r="G140" s="67"/>
+      <c r="H140" s="67"/>
+      <c r="I140" s="67"/>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="63"/>
-      <c r="B141" s="63"/>
-      <c r="C141" s="63"/>
-      <c r="D141" s="63"/>
-      <c r="E141" s="63"/>
-      <c r="F141" s="63"/>
-      <c r="G141" s="63"/>
-      <c r="H141" s="63"/>
-      <c r="I141" s="63"/>
+      <c r="A141" s="67"/>
+      <c r="B141" s="67"/>
+      <c r="C141" s="67"/>
+      <c r="D141" s="67"/>
+      <c r="E141" s="67"/>
+      <c r="F141" s="67"/>
+      <c r="G141" s="67"/>
+      <c r="H141" s="67"/>
+      <c r="I141" s="67"/>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="63"/>
-      <c r="B142" s="63"/>
-      <c r="C142" s="63"/>
-      <c r="D142" s="63"/>
-      <c r="E142" s="63"/>
-      <c r="F142" s="63"/>
-      <c r="G142" s="63"/>
-      <c r="H142" s="63"/>
-      <c r="I142" s="63"/>
+      <c r="A142" s="67"/>
+      <c r="B142" s="67"/>
+      <c r="C142" s="67"/>
+      <c r="D142" s="67"/>
+      <c r="E142" s="67"/>
+      <c r="F142" s="67"/>
+      <c r="G142" s="67"/>
+      <c r="H142" s="67"/>
+      <c r="I142" s="67"/>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="63"/>
-      <c r="B143" s="63"/>
-      <c r="C143" s="63"/>
-      <c r="D143" s="63"/>
-      <c r="E143" s="63"/>
-      <c r="F143" s="63"/>
-      <c r="G143" s="63"/>
-      <c r="H143" s="63"/>
-      <c r="I143" s="63"/>
+      <c r="A143" s="67"/>
+      <c r="B143" s="67"/>
+      <c r="C143" s="67"/>
+      <c r="D143" s="67"/>
+      <c r="E143" s="67"/>
+      <c r="F143" s="67"/>
+      <c r="G143" s="67"/>
+      <c r="H143" s="67"/>
+      <c r="I143" s="67"/>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="63"/>
-      <c r="B144" s="63"/>
-      <c r="C144" s="63"/>
-      <c r="D144" s="63"/>
-      <c r="E144" s="63"/>
-      <c r="F144" s="63"/>
-      <c r="G144" s="63"/>
-      <c r="H144" s="63"/>
-      <c r="I144" s="63"/>
+      <c r="A144" s="67"/>
+      <c r="B144" s="67"/>
+      <c r="C144" s="67"/>
+      <c r="D144" s="67"/>
+      <c r="E144" s="67"/>
+      <c r="F144" s="67"/>
+      <c r="G144" s="67"/>
+      <c r="H144" s="67"/>
+      <c r="I144" s="67"/>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="63"/>
-      <c r="B145" s="63"/>
-      <c r="C145" s="63"/>
-      <c r="D145" s="63"/>
-      <c r="E145" s="63"/>
-      <c r="F145" s="63"/>
-      <c r="G145" s="63"/>
-      <c r="H145" s="63"/>
-      <c r="I145" s="63"/>
+      <c r="A145" s="67"/>
+      <c r="B145" s="67"/>
+      <c r="C145" s="67"/>
+      <c r="D145" s="67"/>
+      <c r="E145" s="67"/>
+      <c r="F145" s="67"/>
+      <c r="G145" s="67"/>
+      <c r="H145" s="67"/>
+      <c r="I145" s="67"/>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="63"/>
-      <c r="B146" s="63"/>
-      <c r="C146" s="63"/>
-      <c r="D146" s="63"/>
-      <c r="E146" s="63"/>
-      <c r="F146" s="63"/>
-      <c r="G146" s="63"/>
-      <c r="H146" s="63"/>
-      <c r="I146" s="63"/>
+      <c r="A146" s="67"/>
+      <c r="B146" s="67"/>
+      <c r="C146" s="67"/>
+      <c r="D146" s="67"/>
+      <c r="E146" s="67"/>
+      <c r="F146" s="67"/>
+      <c r="G146" s="67"/>
+      <c r="H146" s="67"/>
+      <c r="I146" s="67"/>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="63"/>
-      <c r="B147" s="63"/>
-      <c r="C147" s="63"/>
-      <c r="D147" s="63"/>
-      <c r="E147" s="63"/>
-      <c r="F147" s="63"/>
-      <c r="G147" s="63"/>
-      <c r="H147" s="63"/>
-      <c r="I147" s="63"/>
+      <c r="A147" s="67"/>
+      <c r="B147" s="67"/>
+      <c r="C147" s="67"/>
+      <c r="D147" s="67"/>
+      <c r="E147" s="67"/>
+      <c r="F147" s="67"/>
+      <c r="G147" s="67"/>
+      <c r="H147" s="67"/>
+      <c r="I147" s="67"/>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="63"/>
-      <c r="B148" s="63"/>
-      <c r="C148" s="63"/>
-      <c r="D148" s="63"/>
-      <c r="E148" s="63"/>
-      <c r="F148" s="63"/>
-      <c r="G148" s="63"/>
-      <c r="H148" s="63"/>
-      <c r="I148" s="63"/>
+      <c r="A148" s="67"/>
+      <c r="B148" s="67"/>
+      <c r="C148" s="67"/>
+      <c r="D148" s="67"/>
+      <c r="E148" s="67"/>
+      <c r="F148" s="67"/>
+      <c r="G148" s="67"/>
+      <c r="H148" s="67"/>
+      <c r="I148" s="67"/>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="63"/>
-      <c r="B149" s="63"/>
-      <c r="C149" s="63"/>
-      <c r="D149" s="63"/>
-      <c r="E149" s="63"/>
-      <c r="F149" s="63"/>
-      <c r="G149" s="63"/>
-      <c r="H149" s="63"/>
-      <c r="I149" s="63"/>
+      <c r="A149" s="67"/>
+      <c r="B149" s="67"/>
+      <c r="C149" s="67"/>
+      <c r="D149" s="67"/>
+      <c r="E149" s="67"/>
+      <c r="F149" s="67"/>
+      <c r="G149" s="67"/>
+      <c r="H149" s="67"/>
+      <c r="I149" s="67"/>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="63"/>
-      <c r="B150" s="63"/>
-      <c r="C150" s="63"/>
-      <c r="D150" s="63"/>
-      <c r="E150" s="63"/>
-      <c r="F150" s="63"/>
-      <c r="G150" s="63"/>
-      <c r="H150" s="63"/>
-      <c r="I150" s="63"/>
+      <c r="A150" s="67"/>
+      <c r="B150" s="67"/>
+      <c r="C150" s="67"/>
+      <c r="D150" s="67"/>
+      <c r="E150" s="67"/>
+      <c r="F150" s="67"/>
+      <c r="G150" s="67"/>
+      <c r="H150" s="67"/>
+      <c r="I150" s="67"/>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="63"/>
-      <c r="B151" s="63"/>
-      <c r="C151" s="63"/>
-      <c r="D151" s="63"/>
-      <c r="E151" s="63"/>
-      <c r="F151" s="63"/>
-      <c r="G151" s="63"/>
-      <c r="H151" s="63"/>
-      <c r="I151" s="63"/>
+      <c r="A151" s="67"/>
+      <c r="B151" s="67"/>
+      <c r="C151" s="67"/>
+      <c r="D151" s="67"/>
+      <c r="E151" s="67"/>
+      <c r="F151" s="67"/>
+      <c r="G151" s="67"/>
+      <c r="H151" s="67"/>
+      <c r="I151" s="67"/>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="63"/>
-      <c r="B152" s="63"/>
-      <c r="C152" s="63"/>
-      <c r="D152" s="63"/>
-      <c r="E152" s="63"/>
-      <c r="F152" s="63"/>
-      <c r="G152" s="63"/>
-      <c r="H152" s="63"/>
-      <c r="I152" s="63"/>
+      <c r="A152" s="67"/>
+      <c r="B152" s="67"/>
+      <c r="C152" s="67"/>
+      <c r="D152" s="67"/>
+      <c r="E152" s="67"/>
+      <c r="F152" s="67"/>
+      <c r="G152" s="67"/>
+      <c r="H152" s="67"/>
+      <c r="I152" s="67"/>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="63"/>
-      <c r="B153" s="63"/>
-      <c r="C153" s="63"/>
-      <c r="D153" s="63"/>
-      <c r="E153" s="63"/>
-      <c r="F153" s="63"/>
-      <c r="G153" s="63"/>
-      <c r="H153" s="63"/>
-      <c r="I153" s="63"/>
+      <c r="A153" s="67"/>
+      <c r="B153" s="67"/>
+      <c r="C153" s="67"/>
+      <c r="D153" s="67"/>
+      <c r="E153" s="67"/>
+      <c r="F153" s="67"/>
+      <c r="G153" s="67"/>
+      <c r="H153" s="67"/>
+      <c r="I153" s="67"/>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="63"/>
-      <c r="B154" s="63"/>
-      <c r="C154" s="63"/>
-      <c r="D154" s="63"/>
-      <c r="E154" s="63"/>
-      <c r="F154" s="63"/>
-      <c r="G154" s="63"/>
-      <c r="H154" s="63"/>
-      <c r="I154" s="63"/>
+      <c r="A154" s="67"/>
+      <c r="B154" s="67"/>
+      <c r="C154" s="67"/>
+      <c r="D154" s="67"/>
+      <c r="E154" s="67"/>
+      <c r="F154" s="67"/>
+      <c r="G154" s="67"/>
+      <c r="H154" s="67"/>
+      <c r="I154" s="67"/>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="63"/>
-      <c r="B155" s="63"/>
-      <c r="C155" s="63"/>
-      <c r="D155" s="63"/>
-      <c r="E155" s="63"/>
-      <c r="F155" s="63"/>
-      <c r="G155" s="63"/>
-      <c r="H155" s="63"/>
-      <c r="I155" s="63"/>
+      <c r="A155" s="67"/>
+      <c r="B155" s="67"/>
+      <c r="C155" s="67"/>
+      <c r="D155" s="67"/>
+      <c r="E155" s="67"/>
+      <c r="F155" s="67"/>
+      <c r="G155" s="67"/>
+      <c r="H155" s="67"/>
+      <c r="I155" s="67"/>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="63"/>
-      <c r="B156" s="63"/>
-      <c r="C156" s="63"/>
-      <c r="D156" s="63"/>
-      <c r="E156" s="63"/>
-      <c r="F156" s="63"/>
-      <c r="G156" s="63"/>
-      <c r="H156" s="63"/>
-      <c r="I156" s="63"/>
+      <c r="A156" s="67"/>
+      <c r="B156" s="67"/>
+      <c r="C156" s="67"/>
+      <c r="D156" s="67"/>
+      <c r="E156" s="67"/>
+      <c r="F156" s="67"/>
+      <c r="G156" s="67"/>
+      <c r="H156" s="67"/>
+      <c r="I156" s="67"/>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="63"/>
-      <c r="B157" s="63"/>
-      <c r="C157" s="63"/>
-      <c r="D157" s="63"/>
-      <c r="E157" s="63"/>
-      <c r="F157" s="63"/>
-      <c r="G157" s="63"/>
-      <c r="H157" s="63"/>
-      <c r="I157" s="63"/>
+      <c r="A157" s="67"/>
+      <c r="B157" s="67"/>
+      <c r="C157" s="67"/>
+      <c r="D157" s="67"/>
+      <c r="E157" s="67"/>
+      <c r="F157" s="67"/>
+      <c r="G157" s="67"/>
+      <c r="H157" s="67"/>
+      <c r="I157" s="67"/>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="63"/>
-      <c r="B158" s="63"/>
-      <c r="C158" s="63"/>
-      <c r="D158" s="63"/>
-      <c r="E158" s="63"/>
-      <c r="F158" s="63"/>
-      <c r="G158" s="63"/>
-      <c r="H158" s="63"/>
-      <c r="I158" s="63"/>
+      <c r="A158" s="67"/>
+      <c r="B158" s="67"/>
+      <c r="C158" s="67"/>
+      <c r="D158" s="67"/>
+      <c r="E158" s="67"/>
+      <c r="F158" s="67"/>
+      <c r="G158" s="67"/>
+      <c r="H158" s="67"/>
+      <c r="I158" s="67"/>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="63"/>
-      <c r="B159" s="63"/>
-      <c r="C159" s="63"/>
-      <c r="D159" s="63"/>
-      <c r="E159" s="63"/>
-      <c r="F159" s="63"/>
-      <c r="G159" s="63"/>
-      <c r="H159" s="63"/>
-      <c r="I159" s="63"/>
+      <c r="A159" s="67"/>
+      <c r="B159" s="67"/>
+      <c r="C159" s="67"/>
+      <c r="D159" s="67"/>
+      <c r="E159" s="67"/>
+      <c r="F159" s="67"/>
+      <c r="G159" s="67"/>
+      <c r="H159" s="67"/>
+      <c r="I159" s="67"/>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="63"/>
-      <c r="B160" s="63"/>
-      <c r="C160" s="63"/>
-      <c r="D160" s="63"/>
-      <c r="E160" s="63"/>
-      <c r="F160" s="63"/>
-      <c r="G160" s="63"/>
-      <c r="H160" s="63"/>
-      <c r="I160" s="63"/>
+      <c r="A160" s="67"/>
+      <c r="B160" s="67"/>
+      <c r="C160" s="67"/>
+      <c r="D160" s="67"/>
+      <c r="E160" s="67"/>
+      <c r="F160" s="67"/>
+      <c r="G160" s="67"/>
+      <c r="H160" s="67"/>
+      <c r="I160" s="67"/>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="63"/>
-      <c r="B161" s="63"/>
-      <c r="C161" s="63"/>
-      <c r="D161" s="63"/>
-      <c r="E161" s="63"/>
-      <c r="F161" s="63"/>
-      <c r="G161" s="63"/>
-      <c r="H161" s="63"/>
-      <c r="I161" s="63"/>
+      <c r="A161" s="67"/>
+      <c r="B161" s="67"/>
+      <c r="C161" s="67"/>
+      <c r="D161" s="67"/>
+      <c r="E161" s="67"/>
+      <c r="F161" s="67"/>
+      <c r="G161" s="67"/>
+      <c r="H161" s="67"/>
+      <c r="I161" s="67"/>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="63"/>
-      <c r="B162" s="63"/>
-      <c r="C162" s="63"/>
-      <c r="D162" s="63"/>
-      <c r="E162" s="63"/>
-      <c r="F162" s="63"/>
-      <c r="G162" s="63"/>
-      <c r="H162" s="63"/>
-      <c r="I162" s="63"/>
+      <c r="A162" s="67"/>
+      <c r="B162" s="67"/>
+      <c r="C162" s="67"/>
+      <c r="D162" s="67"/>
+      <c r="E162" s="67"/>
+      <c r="F162" s="67"/>
+      <c r="G162" s="67"/>
+      <c r="H162" s="67"/>
+      <c r="I162" s="67"/>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="63"/>
-      <c r="B163" s="63"/>
-      <c r="C163" s="63"/>
-      <c r="D163" s="63"/>
-      <c r="E163" s="63"/>
-      <c r="F163" s="63"/>
-      <c r="G163" s="63"/>
-      <c r="H163" s="63"/>
-      <c r="I163" s="63"/>
+      <c r="A163" s="67"/>
+      <c r="B163" s="67"/>
+      <c r="C163" s="67"/>
+      <c r="D163" s="67"/>
+      <c r="E163" s="67"/>
+      <c r="F163" s="67"/>
+      <c r="G163" s="67"/>
+      <c r="H163" s="67"/>
+      <c r="I163" s="67"/>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="63"/>
-      <c r="B164" s="63"/>
-      <c r="C164" s="63"/>
-      <c r="D164" s="63"/>
-      <c r="E164" s="63"/>
-      <c r="F164" s="63"/>
-      <c r="G164" s="63"/>
-      <c r="H164" s="63"/>
-      <c r="I164" s="63"/>
+      <c r="A164" s="67"/>
+      <c r="B164" s="67"/>
+      <c r="C164" s="67"/>
+      <c r="D164" s="67"/>
+      <c r="E164" s="67"/>
+      <c r="F164" s="67"/>
+      <c r="G164" s="67"/>
+      <c r="H164" s="67"/>
+      <c r="I164" s="67"/>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="63"/>
-      <c r="B165" s="63"/>
-      <c r="C165" s="63"/>
-      <c r="D165" s="63"/>
-      <c r="E165" s="63"/>
-      <c r="F165" s="63"/>
-      <c r="G165" s="63"/>
-      <c r="H165" s="63"/>
-      <c r="I165" s="63"/>
+      <c r="A165" s="67"/>
+      <c r="B165" s="67"/>
+      <c r="C165" s="67"/>
+      <c r="D165" s="67"/>
+      <c r="E165" s="67"/>
+      <c r="F165" s="67"/>
+      <c r="G165" s="67"/>
+      <c r="H165" s="67"/>
+      <c r="I165" s="67"/>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="63"/>
-      <c r="B166" s="63"/>
-      <c r="C166" s="63"/>
-      <c r="D166" s="63"/>
-      <c r="E166" s="63"/>
-      <c r="F166" s="63"/>
-      <c r="G166" s="63"/>
-      <c r="H166" s="63"/>
-      <c r="I166" s="63"/>
+      <c r="A166" s="67"/>
+      <c r="B166" s="67"/>
+      <c r="C166" s="67"/>
+      <c r="D166" s="67"/>
+      <c r="E166" s="67"/>
+      <c r="F166" s="67"/>
+      <c r="G166" s="67"/>
+      <c r="H166" s="67"/>
+      <c r="I166" s="67"/>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="63"/>
-      <c r="B167" s="63"/>
-      <c r="C167" s="63"/>
-      <c r="D167" s="63"/>
-      <c r="E167" s="63"/>
-      <c r="F167" s="63"/>
-      <c r="G167" s="63"/>
-      <c r="H167" s="63"/>
-      <c r="I167" s="63"/>
+      <c r="A167" s="67"/>
+      <c r="B167" s="67"/>
+      <c r="C167" s="67"/>
+      <c r="D167" s="67"/>
+      <c r="E167" s="67"/>
+      <c r="F167" s="67"/>
+      <c r="G167" s="67"/>
+      <c r="H167" s="67"/>
+      <c r="I167" s="67"/>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="63"/>
-      <c r="B168" s="63"/>
-      <c r="C168" s="63"/>
-      <c r="D168" s="63"/>
-      <c r="E168" s="63"/>
-      <c r="F168" s="63"/>
-      <c r="G168" s="63"/>
-      <c r="H168" s="63"/>
-      <c r="I168" s="63"/>
+      <c r="A168" s="67"/>
+      <c r="B168" s="67"/>
+      <c r="C168" s="67"/>
+      <c r="D168" s="67"/>
+      <c r="E168" s="67"/>
+      <c r="F168" s="67"/>
+      <c r="G168" s="67"/>
+      <c r="H168" s="67"/>
+      <c r="I168" s="67"/>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="63"/>
-      <c r="B169" s="63"/>
-      <c r="C169" s="63"/>
-      <c r="D169" s="63"/>
-      <c r="E169" s="63"/>
-      <c r="F169" s="63"/>
-      <c r="G169" s="63"/>
-      <c r="H169" s="63"/>
-      <c r="I169" s="63"/>
+      <c r="A169" s="67"/>
+      <c r="B169" s="67"/>
+      <c r="C169" s="67"/>
+      <c r="D169" s="67"/>
+      <c r="E169" s="67"/>
+      <c r="F169" s="67"/>
+      <c r="G169" s="67"/>
+      <c r="H169" s="67"/>
+      <c r="I169" s="67"/>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="63"/>
-      <c r="B170" s="63"/>
-      <c r="C170" s="63"/>
-      <c r="D170" s="63"/>
-      <c r="E170" s="63"/>
-      <c r="F170" s="63"/>
-      <c r="G170" s="63"/>
-      <c r="H170" s="63"/>
-      <c r="I170" s="63"/>
+      <c r="A170" s="67"/>
+      <c r="B170" s="67"/>
+      <c r="C170" s="67"/>
+      <c r="D170" s="67"/>
+      <c r="E170" s="67"/>
+      <c r="F170" s="67"/>
+      <c r="G170" s="67"/>
+      <c r="H170" s="67"/>
+      <c r="I170" s="67"/>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="63"/>
-      <c r="B171" s="63"/>
-      <c r="C171" s="63"/>
-      <c r="D171" s="63"/>
-      <c r="E171" s="63"/>
-      <c r="F171" s="63"/>
-      <c r="G171" s="63"/>
-      <c r="H171" s="63"/>
-      <c r="I171" s="63"/>
+      <c r="A171" s="67"/>
+      <c r="B171" s="67"/>
+      <c r="C171" s="67"/>
+      <c r="D171" s="67"/>
+      <c r="E171" s="67"/>
+      <c r="F171" s="67"/>
+      <c r="G171" s="67"/>
+      <c r="H171" s="67"/>
+      <c r="I171" s="67"/>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="63"/>
-      <c r="B172" s="63"/>
-      <c r="C172" s="63"/>
-      <c r="D172" s="63"/>
-      <c r="E172" s="63"/>
-      <c r="F172" s="63"/>
-      <c r="G172" s="63"/>
-      <c r="H172" s="63"/>
-      <c r="I172" s="63"/>
+      <c r="A172" s="67"/>
+      <c r="B172" s="67"/>
+      <c r="C172" s="67"/>
+      <c r="D172" s="67"/>
+      <c r="E172" s="67"/>
+      <c r="F172" s="67"/>
+      <c r="G172" s="67"/>
+      <c r="H172" s="67"/>
+      <c r="I172" s="67"/>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="63"/>
-      <c r="B173" s="63"/>
-      <c r="C173" s="63"/>
-      <c r="D173" s="63"/>
-      <c r="E173" s="63"/>
-      <c r="F173" s="63"/>
-      <c r="G173" s="63"/>
-      <c r="H173" s="63"/>
-      <c r="I173" s="63"/>
+      <c r="A173" s="67"/>
+      <c r="B173" s="67"/>
+      <c r="C173" s="67"/>
+      <c r="D173" s="67"/>
+      <c r="E173" s="67"/>
+      <c r="F173" s="67"/>
+      <c r="G173" s="67"/>
+      <c r="H173" s="67"/>
+      <c r="I173" s="67"/>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="63"/>
-      <c r="B174" s="63"/>
-      <c r="C174" s="63"/>
-      <c r="D174" s="63"/>
-      <c r="E174" s="63"/>
-      <c r="F174" s="63"/>
-      <c r="G174" s="63"/>
-      <c r="H174" s="63"/>
-      <c r="I174" s="63"/>
+      <c r="A174" s="67"/>
+      <c r="B174" s="67"/>
+      <c r="C174" s="67"/>
+      <c r="D174" s="67"/>
+      <c r="E174" s="67"/>
+      <c r="F174" s="67"/>
+      <c r="G174" s="67"/>
+      <c r="H174" s="67"/>
+      <c r="I174" s="67"/>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="63"/>
-      <c r="B175" s="63"/>
-      <c r="C175" s="63"/>
-      <c r="D175" s="63"/>
-      <c r="E175" s="63"/>
-      <c r="F175" s="63"/>
-      <c r="G175" s="63"/>
-      <c r="H175" s="63"/>
-      <c r="I175" s="63"/>
+      <c r="A175" s="67"/>
+      <c r="B175" s="67"/>
+      <c r="C175" s="67"/>
+      <c r="D175" s="67"/>
+      <c r="E175" s="67"/>
+      <c r="F175" s="67"/>
+      <c r="G175" s="67"/>
+      <c r="H175" s="67"/>
+      <c r="I175" s="67"/>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="63"/>
-      <c r="B176" s="63"/>
-      <c r="C176" s="63"/>
-      <c r="D176" s="63"/>
-      <c r="E176" s="63"/>
-      <c r="F176" s="63"/>
-      <c r="G176" s="63"/>
-      <c r="H176" s="63"/>
-      <c r="I176" s="63"/>
+      <c r="A176" s="67"/>
+      <c r="B176" s="67"/>
+      <c r="C176" s="67"/>
+      <c r="D176" s="67"/>
+      <c r="E176" s="67"/>
+      <c r="F176" s="67"/>
+      <c r="G176" s="67"/>
+      <c r="H176" s="67"/>
+      <c r="I176" s="67"/>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="63"/>
-      <c r="B177" s="63"/>
-      <c r="C177" s="63"/>
-      <c r="D177" s="63"/>
-      <c r="E177" s="63"/>
-      <c r="F177" s="63"/>
-      <c r="G177" s="63"/>
-      <c r="H177" s="63"/>
-      <c r="I177" s="63"/>
+      <c r="A177" s="67"/>
+      <c r="B177" s="67"/>
+      <c r="C177" s="67"/>
+      <c r="D177" s="67"/>
+      <c r="E177" s="67"/>
+      <c r="F177" s="67"/>
+      <c r="G177" s="67"/>
+      <c r="H177" s="67"/>
+      <c r="I177" s="67"/>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="63"/>
-      <c r="B178" s="63"/>
-      <c r="C178" s="63"/>
-      <c r="D178" s="63"/>
-      <c r="E178" s="63"/>
-      <c r="F178" s="63"/>
-      <c r="G178" s="63"/>
-      <c r="H178" s="63"/>
-      <c r="I178" s="63"/>
+      <c r="A178" s="67"/>
+      <c r="B178" s="67"/>
+      <c r="C178" s="67"/>
+      <c r="D178" s="67"/>
+      <c r="E178" s="67"/>
+      <c r="F178" s="67"/>
+      <c r="G178" s="67"/>
+      <c r="H178" s="67"/>
+      <c r="I178" s="67"/>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="63"/>
-      <c r="B179" s="63"/>
-      <c r="C179" s="63"/>
-      <c r="D179" s="63"/>
-      <c r="E179" s="63"/>
-      <c r="F179" s="63"/>
-      <c r="G179" s="63"/>
-      <c r="H179" s="63"/>
-      <c r="I179" s="63"/>
+      <c r="A179" s="67"/>
+      <c r="B179" s="67"/>
+      <c r="C179" s="67"/>
+      <c r="D179" s="67"/>
+      <c r="E179" s="67"/>
+      <c r="F179" s="67"/>
+      <c r="G179" s="67"/>
+      <c r="H179" s="67"/>
+      <c r="I179" s="67"/>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="63"/>
-      <c r="B180" s="63"/>
-      <c r="C180" s="63"/>
-      <c r="D180" s="63"/>
-      <c r="E180" s="63"/>
-      <c r="F180" s="63"/>
-      <c r="G180" s="63"/>
-      <c r="H180" s="63"/>
-      <c r="I180" s="63"/>
+      <c r="A180" s="67"/>
+      <c r="B180" s="67"/>
+      <c r="C180" s="67"/>
+      <c r="D180" s="67"/>
+      <c r="E180" s="67"/>
+      <c r="F180" s="67"/>
+      <c r="G180" s="67"/>
+      <c r="H180" s="67"/>
+      <c r="I180" s="67"/>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="63"/>
-      <c r="B181" s="63"/>
-      <c r="C181" s="63"/>
-      <c r="D181" s="63"/>
-      <c r="E181" s="63"/>
-      <c r="F181" s="63"/>
-      <c r="G181" s="63"/>
-      <c r="H181" s="63"/>
-      <c r="I181" s="63"/>
+      <c r="A181" s="67"/>
+      <c r="B181" s="67"/>
+      <c r="C181" s="67"/>
+      <c r="D181" s="67"/>
+      <c r="E181" s="67"/>
+      <c r="F181" s="67"/>
+      <c r="G181" s="67"/>
+      <c r="H181" s="67"/>
+      <c r="I181" s="67"/>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="63"/>
-      <c r="B182" s="63"/>
-      <c r="C182" s="63"/>
-      <c r="D182" s="63"/>
-      <c r="E182" s="63"/>
-      <c r="F182" s="63"/>
-      <c r="G182" s="63"/>
-      <c r="H182" s="63"/>
-      <c r="I182" s="63"/>
+      <c r="A182" s="67"/>
+      <c r="B182" s="67"/>
+      <c r="C182" s="67"/>
+      <c r="D182" s="67"/>
+      <c r="E182" s="67"/>
+      <c r="F182" s="67"/>
+      <c r="G182" s="67"/>
+      <c r="H182" s="67"/>
+      <c r="I182" s="67"/>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="63"/>
-      <c r="B183" s="63"/>
-      <c r="C183" s="63"/>
-      <c r="D183" s="63"/>
-      <c r="E183" s="63"/>
-      <c r="F183" s="63"/>
-      <c r="G183" s="63"/>
-      <c r="H183" s="63"/>
-      <c r="I183" s="63"/>
+      <c r="A183" s="67"/>
+      <c r="B183" s="67"/>
+      <c r="C183" s="67"/>
+      <c r="D183" s="67"/>
+      <c r="E183" s="67"/>
+      <c r="F183" s="67"/>
+      <c r="G183" s="67"/>
+      <c r="H183" s="67"/>
+      <c r="I183" s="67"/>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="63"/>
-      <c r="B184" s="63"/>
-      <c r="C184" s="63"/>
-      <c r="D184" s="63"/>
-      <c r="E184" s="63"/>
-      <c r="F184" s="63"/>
-      <c r="G184" s="63"/>
-      <c r="H184" s="63"/>
-      <c r="I184" s="63"/>
+      <c r="A184" s="67"/>
+      <c r="B184" s="67"/>
+      <c r="C184" s="67"/>
+      <c r="D184" s="67"/>
+      <c r="E184" s="67"/>
+      <c r="F184" s="67"/>
+      <c r="G184" s="67"/>
+      <c r="H184" s="67"/>
+      <c r="I184" s="67"/>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="63"/>
-      <c r="B185" s="63"/>
-      <c r="C185" s="63"/>
-      <c r="D185" s="63"/>
-      <c r="E185" s="63"/>
-      <c r="F185" s="63"/>
-      <c r="G185" s="63"/>
-      <c r="H185" s="63"/>
-      <c r="I185" s="63"/>
+      <c r="A185" s="67"/>
+      <c r="B185" s="67"/>
+      <c r="C185" s="67"/>
+      <c r="D185" s="67"/>
+      <c r="E185" s="67"/>
+      <c r="F185" s="67"/>
+      <c r="G185" s="67"/>
+      <c r="H185" s="67"/>
+      <c r="I185" s="67"/>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="63"/>
-      <c r="B186" s="63"/>
-      <c r="C186" s="63"/>
-      <c r="D186" s="63"/>
-      <c r="E186" s="63"/>
-      <c r="F186" s="63"/>
-      <c r="G186" s="63"/>
-      <c r="H186" s="63"/>
-      <c r="I186" s="63"/>
+      <c r="A186" s="67"/>
+      <c r="B186" s="67"/>
+      <c r="C186" s="67"/>
+      <c r="D186" s="67"/>
+      <c r="E186" s="67"/>
+      <c r="F186" s="67"/>
+      <c r="G186" s="67"/>
+      <c r="H186" s="67"/>
+      <c r="I186" s="67"/>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="63"/>
-      <c r="B187" s="63"/>
-      <c r="C187" s="63"/>
-      <c r="D187" s="63"/>
-      <c r="E187" s="63"/>
-      <c r="F187" s="63"/>
-      <c r="G187" s="63"/>
-      <c r="H187" s="63"/>
-      <c r="I187" s="63"/>
+      <c r="A187" s="67"/>
+      <c r="B187" s="67"/>
+      <c r="C187" s="67"/>
+      <c r="D187" s="67"/>
+      <c r="E187" s="67"/>
+      <c r="F187" s="67"/>
+      <c r="G187" s="67"/>
+      <c r="H187" s="67"/>
+      <c r="I187" s="67"/>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="63"/>
-      <c r="B188" s="63"/>
-      <c r="C188" s="63"/>
-      <c r="D188" s="63"/>
-      <c r="E188" s="63"/>
-      <c r="F188" s="63"/>
-      <c r="G188" s="63"/>
-      <c r="H188" s="63"/>
-      <c r="I188" s="63"/>
+      <c r="A188" s="67"/>
+      <c r="B188" s="67"/>
+      <c r="C188" s="67"/>
+      <c r="D188" s="67"/>
+      <c r="E188" s="67"/>
+      <c r="F188" s="67"/>
+      <c r="G188" s="67"/>
+      <c r="H188" s="67"/>
+      <c r="I188" s="67"/>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="63"/>
-      <c r="B189" s="63"/>
-      <c r="C189" s="63"/>
-      <c r="D189" s="63"/>
-      <c r="E189" s="63"/>
-      <c r="F189" s="63"/>
-      <c r="G189" s="63"/>
-      <c r="H189" s="63"/>
-      <c r="I189" s="63"/>
+      <c r="A189" s="67"/>
+      <c r="B189" s="67"/>
+      <c r="C189" s="67"/>
+      <c r="D189" s="67"/>
+      <c r="E189" s="67"/>
+      <c r="F189" s="67"/>
+      <c r="G189" s="67"/>
+      <c r="H189" s="67"/>
+      <c r="I189" s="67"/>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="63"/>
-      <c r="B190" s="63"/>
-      <c r="C190" s="63"/>
-      <c r="D190" s="63"/>
-      <c r="E190" s="63"/>
-      <c r="F190" s="63"/>
-      <c r="G190" s="63"/>
-      <c r="H190" s="63"/>
-      <c r="I190" s="63"/>
+      <c r="A190" s="67"/>
+      <c r="B190" s="67"/>
+      <c r="C190" s="67"/>
+      <c r="D190" s="67"/>
+      <c r="E190" s="67"/>
+      <c r="F190" s="67"/>
+      <c r="G190" s="67"/>
+      <c r="H190" s="67"/>
+      <c r="I190" s="67"/>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="63"/>
-      <c r="B191" s="63"/>
-      <c r="C191" s="63"/>
-      <c r="D191" s="63"/>
-      <c r="E191" s="63"/>
-      <c r="F191" s="63"/>
-      <c r="G191" s="63"/>
-      <c r="H191" s="63"/>
-      <c r="I191" s="63"/>
+      <c r="A191" s="67"/>
+      <c r="B191" s="67"/>
+      <c r="C191" s="67"/>
+      <c r="D191" s="67"/>
+      <c r="E191" s="67"/>
+      <c r="F191" s="67"/>
+      <c r="G191" s="67"/>
+      <c r="H191" s="67"/>
+      <c r="I191" s="67"/>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="63"/>
-      <c r="B192" s="63"/>
-      <c r="C192" s="63"/>
-      <c r="D192" s="63"/>
-      <c r="E192" s="63"/>
-      <c r="F192" s="63"/>
-      <c r="G192" s="63"/>
-      <c r="H192" s="63"/>
-      <c r="I192" s="63"/>
+      <c r="A192" s="67"/>
+      <c r="B192" s="67"/>
+      <c r="C192" s="67"/>
+      <c r="D192" s="67"/>
+      <c r="E192" s="67"/>
+      <c r="F192" s="67"/>
+      <c r="G192" s="67"/>
+      <c r="H192" s="67"/>
+      <c r="I192" s="67"/>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="63"/>
-      <c r="B193" s="63"/>
-      <c r="C193" s="63"/>
-      <c r="D193" s="63"/>
-      <c r="E193" s="63"/>
-      <c r="F193" s="63"/>
-      <c r="G193" s="63"/>
-      <c r="H193" s="63"/>
-      <c r="I193" s="63"/>
+      <c r="A193" s="67"/>
+      <c r="B193" s="67"/>
+      <c r="C193" s="67"/>
+      <c r="D193" s="67"/>
+      <c r="E193" s="67"/>
+      <c r="F193" s="67"/>
+      <c r="G193" s="67"/>
+      <c r="H193" s="67"/>
+      <c r="I193" s="67"/>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="63"/>
-      <c r="B194" s="63"/>
-      <c r="C194" s="63"/>
-      <c r="D194" s="63"/>
-      <c r="E194" s="63"/>
-      <c r="F194" s="63"/>
-      <c r="G194" s="63"/>
-      <c r="H194" s="63"/>
-      <c r="I194" s="63"/>
+      <c r="A194" s="67"/>
+      <c r="B194" s="67"/>
+      <c r="C194" s="67"/>
+      <c r="D194" s="67"/>
+      <c r="E194" s="67"/>
+      <c r="F194" s="67"/>
+      <c r="G194" s="67"/>
+      <c r="H194" s="67"/>
+      <c r="I194" s="67"/>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="63"/>
-      <c r="B195" s="63"/>
-      <c r="C195" s="63"/>
-      <c r="D195" s="63"/>
-      <c r="E195" s="63"/>
-      <c r="F195" s="63"/>
-      <c r="G195" s="63"/>
-      <c r="H195" s="63"/>
-      <c r="I195" s="63"/>
+      <c r="A195" s="67"/>
+      <c r="B195" s="67"/>
+      <c r="C195" s="67"/>
+      <c r="D195" s="67"/>
+      <c r="E195" s="67"/>
+      <c r="F195" s="67"/>
+      <c r="G195" s="67"/>
+      <c r="H195" s="67"/>
+      <c r="I195" s="67"/>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="63"/>
-      <c r="B196" s="63"/>
-      <c r="C196" s="63"/>
-      <c r="D196" s="63"/>
-      <c r="E196" s="63"/>
-      <c r="F196" s="63"/>
-      <c r="G196" s="63"/>
-      <c r="H196" s="63"/>
-      <c r="I196" s="63"/>
+      <c r="A196" s="67"/>
+      <c r="B196" s="67"/>
+      <c r="C196" s="67"/>
+      <c r="D196" s="67"/>
+      <c r="E196" s="67"/>
+      <c r="F196" s="67"/>
+      <c r="G196" s="67"/>
+      <c r="H196" s="67"/>
+      <c r="I196" s="67"/>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="63"/>
-      <c r="B197" s="63"/>
-      <c r="C197" s="63"/>
-      <c r="D197" s="63"/>
-      <c r="E197" s="63"/>
-      <c r="F197" s="63"/>
-      <c r="G197" s="63"/>
-      <c r="H197" s="63"/>
-      <c r="I197" s="63"/>
+      <c r="A197" s="67"/>
+      <c r="B197" s="67"/>
+      <c r="C197" s="67"/>
+      <c r="D197" s="67"/>
+      <c r="E197" s="67"/>
+      <c r="F197" s="67"/>
+      <c r="G197" s="67"/>
+      <c r="H197" s="67"/>
+      <c r="I197" s="67"/>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="63"/>
-      <c r="B198" s="63"/>
-      <c r="C198" s="63"/>
-      <c r="D198" s="63"/>
-      <c r="E198" s="63"/>
-      <c r="F198" s="63"/>
-      <c r="G198" s="63"/>
-      <c r="H198" s="63"/>
-      <c r="I198" s="63"/>
+      <c r="A198" s="67"/>
+      <c r="B198" s="67"/>
+      <c r="C198" s="67"/>
+      <c r="D198" s="67"/>
+      <c r="E198" s="67"/>
+      <c r="F198" s="67"/>
+      <c r="G198" s="67"/>
+      <c r="H198" s="67"/>
+      <c r="I198" s="67"/>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="63"/>
-      <c r="B199" s="63"/>
-      <c r="C199" s="63"/>
-      <c r="D199" s="63"/>
-      <c r="E199" s="63"/>
-      <c r="F199" s="63"/>
-      <c r="G199" s="63"/>
-      <c r="H199" s="63"/>
-      <c r="I199" s="63"/>
+      <c r="A199" s="67"/>
+      <c r="B199" s="67"/>
+      <c r="C199" s="67"/>
+      <c r="D199" s="67"/>
+      <c r="E199" s="67"/>
+      <c r="F199" s="67"/>
+      <c r="G199" s="67"/>
+      <c r="H199" s="67"/>
+      <c r="I199" s="67"/>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="63"/>
-      <c r="B200" s="63"/>
-      <c r="C200" s="63"/>
-      <c r="D200" s="63"/>
-      <c r="E200" s="63"/>
-      <c r="F200" s="63"/>
-      <c r="G200" s="63"/>
-      <c r="H200" s="63"/>
-      <c r="I200" s="63"/>
+      <c r="A200" s="67"/>
+      <c r="B200" s="67"/>
+      <c r="C200" s="67"/>
+      <c r="D200" s="67"/>
+      <c r="E200" s="67"/>
+      <c r="F200" s="67"/>
+      <c r="G200" s="67"/>
+      <c r="H200" s="67"/>
+      <c r="I200" s="67"/>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="63"/>
-      <c r="B201" s="63"/>
-      <c r="C201" s="63"/>
-      <c r="D201" s="63"/>
-      <c r="E201" s="63"/>
-      <c r="F201" s="63"/>
-      <c r="G201" s="63"/>
-      <c r="H201" s="63"/>
-      <c r="I201" s="63"/>
+      <c r="A201" s="67"/>
+      <c r="B201" s="67"/>
+      <c r="C201" s="67"/>
+      <c r="D201" s="67"/>
+      <c r="E201" s="67"/>
+      <c r="F201" s="67"/>
+      <c r="G201" s="67"/>
+      <c r="H201" s="67"/>
+      <c r="I201" s="67"/>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="63"/>
-      <c r="B202" s="63"/>
-      <c r="C202" s="63"/>
-      <c r="D202" s="63"/>
-      <c r="E202" s="63"/>
-      <c r="F202" s="63"/>
-      <c r="G202" s="63"/>
-      <c r="H202" s="63"/>
-      <c r="I202" s="63"/>
+      <c r="A202" s="67"/>
+      <c r="B202" s="67"/>
+      <c r="C202" s="67"/>
+      <c r="D202" s="67"/>
+      <c r="E202" s="67"/>
+      <c r="F202" s="67"/>
+      <c r="G202" s="67"/>
+      <c r="H202" s="67"/>
+      <c r="I202" s="67"/>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="63"/>
-      <c r="B203" s="63"/>
-      <c r="C203" s="63"/>
-      <c r="D203" s="63"/>
-      <c r="E203" s="63"/>
-      <c r="F203" s="63"/>
-      <c r="G203" s="63"/>
-      <c r="H203" s="63"/>
-      <c r="I203" s="63"/>
+      <c r="A203" s="67"/>
+      <c r="B203" s="67"/>
+      <c r="C203" s="67"/>
+      <c r="D203" s="67"/>
+      <c r="E203" s="67"/>
+      <c r="F203" s="67"/>
+      <c r="G203" s="67"/>
+      <c r="H203" s="67"/>
+      <c r="I203" s="67"/>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="63"/>
-      <c r="B204" s="63"/>
-      <c r="C204" s="63"/>
-      <c r="D204" s="63"/>
-      <c r="E204" s="63"/>
-      <c r="F204" s="63"/>
-      <c r="G204" s="63"/>
-      <c r="H204" s="63"/>
-      <c r="I204" s="63"/>
+      <c r="A204" s="67"/>
+      <c r="B204" s="67"/>
+      <c r="C204" s="67"/>
+      <c r="D204" s="67"/>
+      <c r="E204" s="67"/>
+      <c r="F204" s="67"/>
+      <c r="G204" s="67"/>
+      <c r="H204" s="67"/>
+      <c r="I204" s="67"/>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="63"/>
-      <c r="B205" s="63"/>
-      <c r="C205" s="63"/>
-      <c r="D205" s="63"/>
-      <c r="E205" s="63"/>
-      <c r="F205" s="63"/>
-      <c r="G205" s="63"/>
-      <c r="H205" s="63"/>
-      <c r="I205" s="63"/>
+      <c r="A205" s="67"/>
+      <c r="B205" s="67"/>
+      <c r="C205" s="67"/>
+      <c r="D205" s="67"/>
+      <c r="E205" s="67"/>
+      <c r="F205" s="67"/>
+      <c r="G205" s="67"/>
+      <c r="H205" s="67"/>
+      <c r="I205" s="67"/>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="63"/>
-      <c r="B206" s="63"/>
-      <c r="C206" s="63"/>
-      <c r="D206" s="63"/>
-      <c r="E206" s="63"/>
-      <c r="F206" s="63"/>
-      <c r="G206" s="63"/>
-      <c r="H206" s="63"/>
-      <c r="I206" s="63"/>
+      <c r="A206" s="67"/>
+      <c r="B206" s="67"/>
+      <c r="C206" s="67"/>
+      <c r="D206" s="67"/>
+      <c r="E206" s="67"/>
+      <c r="F206" s="67"/>
+      <c r="G206" s="67"/>
+      <c r="H206" s="67"/>
+      <c r="I206" s="67"/>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="63"/>
-      <c r="B207" s="63"/>
-      <c r="C207" s="63"/>
-      <c r="D207" s="63"/>
-      <c r="E207" s="63"/>
-      <c r="F207" s="63"/>
-      <c r="G207" s="63"/>
-      <c r="H207" s="63"/>
-      <c r="I207" s="63"/>
+      <c r="A207" s="67"/>
+      <c r="B207" s="67"/>
+      <c r="C207" s="67"/>
+      <c r="D207" s="67"/>
+      <c r="E207" s="67"/>
+      <c r="F207" s="67"/>
+      <c r="G207" s="67"/>
+      <c r="H207" s="67"/>
+      <c r="I207" s="67"/>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="63"/>
-      <c r="B208" s="63"/>
-      <c r="C208" s="63"/>
-      <c r="D208" s="63"/>
-      <c r="E208" s="63"/>
-      <c r="F208" s="63"/>
-      <c r="G208" s="63"/>
-      <c r="H208" s="63"/>
-      <c r="I208" s="63"/>
+      <c r="A208" s="67"/>
+      <c r="B208" s="67"/>
+      <c r="C208" s="67"/>
+      <c r="D208" s="67"/>
+      <c r="E208" s="67"/>
+      <c r="F208" s="67"/>
+      <c r="G208" s="67"/>
+      <c r="H208" s="67"/>
+      <c r="I208" s="67"/>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="63"/>
-      <c r="B209" s="63"/>
-      <c r="C209" s="63"/>
-      <c r="D209" s="63"/>
-      <c r="E209" s="63"/>
-      <c r="F209" s="63"/>
-      <c r="G209" s="63"/>
-      <c r="H209" s="63"/>
-      <c r="I209" s="63"/>
+      <c r="A209" s="67"/>
+      <c r="B209" s="67"/>
+      <c r="C209" s="67"/>
+      <c r="D209" s="67"/>
+      <c r="E209" s="67"/>
+      <c r="F209" s="67"/>
+      <c r="G209" s="67"/>
+      <c r="H209" s="67"/>
+      <c r="I209" s="67"/>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="63"/>
-      <c r="B210" s="63"/>
-      <c r="C210" s="63"/>
-      <c r="D210" s="63"/>
-      <c r="E210" s="63"/>
-      <c r="F210" s="63"/>
-      <c r="G210" s="63"/>
-      <c r="H210" s="63"/>
-      <c r="I210" s="63"/>
+      <c r="A210" s="67"/>
+      <c r="B210" s="67"/>
+      <c r="C210" s="67"/>
+      <c r="D210" s="67"/>
+      <c r="E210" s="67"/>
+      <c r="F210" s="67"/>
+      <c r="G210" s="67"/>
+      <c r="H210" s="67"/>
+      <c r="I210" s="67"/>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="63"/>
-      <c r="B211" s="63"/>
-      <c r="C211" s="63"/>
-      <c r="D211" s="63"/>
-      <c r="E211" s="63"/>
-      <c r="F211" s="63"/>
-      <c r="G211" s="63"/>
-      <c r="H211" s="63"/>
-      <c r="I211" s="63"/>
+      <c r="A211" s="67"/>
+      <c r="B211" s="67"/>
+      <c r="C211" s="67"/>
+      <c r="D211" s="67"/>
+      <c r="E211" s="67"/>
+      <c r="F211" s="67"/>
+      <c r="G211" s="67"/>
+      <c r="H211" s="67"/>
+      <c r="I211" s="67"/>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="63"/>
-      <c r="B212" s="63"/>
-      <c r="C212" s="63"/>
-      <c r="D212" s="63"/>
-      <c r="E212" s="63"/>
-      <c r="F212" s="63"/>
-      <c r="G212" s="63"/>
-      <c r="H212" s="63"/>
-      <c r="I212" s="63"/>
+      <c r="A212" s="67"/>
+      <c r="B212" s="67"/>
+      <c r="C212" s="67"/>
+      <c r="D212" s="67"/>
+      <c r="E212" s="67"/>
+      <c r="F212" s="67"/>
+      <c r="G212" s="67"/>
+      <c r="H212" s="67"/>
+      <c r="I212" s="67"/>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="63"/>
-      <c r="B213" s="63"/>
-      <c r="C213" s="63"/>
-      <c r="D213" s="63"/>
-      <c r="E213" s="63"/>
-      <c r="F213" s="63"/>
-      <c r="G213" s="63"/>
-      <c r="H213" s="63"/>
-      <c r="I213" s="63"/>
+      <c r="A213" s="67"/>
+      <c r="B213" s="67"/>
+      <c r="C213" s="67"/>
+      <c r="D213" s="67"/>
+      <c r="E213" s="67"/>
+      <c r="F213" s="67"/>
+      <c r="G213" s="67"/>
+      <c r="H213" s="67"/>
+      <c r="I213" s="67"/>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="63"/>
-      <c r="B214" s="63"/>
-      <c r="C214" s="63"/>
-      <c r="D214" s="63"/>
-      <c r="E214" s="63"/>
-      <c r="F214" s="63"/>
-      <c r="G214" s="63"/>
-      <c r="H214" s="63"/>
-      <c r="I214" s="63"/>
+      <c r="A214" s="67"/>
+      <c r="B214" s="67"/>
+      <c r="C214" s="67"/>
+      <c r="D214" s="67"/>
+      <c r="E214" s="67"/>
+      <c r="F214" s="67"/>
+      <c r="G214" s="67"/>
+      <c r="H214" s="67"/>
+      <c r="I214" s="67"/>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="63"/>
-      <c r="B215" s="63"/>
-      <c r="C215" s="63"/>
-      <c r="D215" s="63"/>
-      <c r="E215" s="63"/>
-      <c r="F215" s="63"/>
-      <c r="G215" s="63"/>
-      <c r="H215" s="63"/>
-      <c r="I215" s="63"/>
+      <c r="A215" s="67"/>
+      <c r="B215" s="67"/>
+      <c r="C215" s="67"/>
+      <c r="D215" s="67"/>
+      <c r="E215" s="67"/>
+      <c r="F215" s="67"/>
+      <c r="G215" s="67"/>
+      <c r="H215" s="67"/>
+      <c r="I215" s="67"/>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="63"/>
-      <c r="B216" s="63"/>
-      <c r="C216" s="63"/>
-      <c r="D216" s="63"/>
-      <c r="E216" s="63"/>
-      <c r="F216" s="63"/>
-      <c r="G216" s="63"/>
-      <c r="H216" s="63"/>
-      <c r="I216" s="63"/>
+      <c r="A216" s="67"/>
+      <c r="B216" s="67"/>
+      <c r="C216" s="67"/>
+      <c r="D216" s="67"/>
+      <c r="E216" s="67"/>
+      <c r="F216" s="67"/>
+      <c r="G216" s="67"/>
+      <c r="H216" s="67"/>
+      <c r="I216" s="67"/>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="63"/>
-      <c r="B217" s="63"/>
-      <c r="C217" s="63"/>
-      <c r="D217" s="63"/>
-      <c r="E217" s="63"/>
-      <c r="F217" s="63"/>
-      <c r="G217" s="63"/>
-      <c r="H217" s="63"/>
-      <c r="I217" s="63"/>
+      <c r="A217" s="67"/>
+      <c r="B217" s="67"/>
+      <c r="C217" s="67"/>
+      <c r="D217" s="67"/>
+      <c r="E217" s="67"/>
+      <c r="F217" s="67"/>
+      <c r="G217" s="67"/>
+      <c r="H217" s="67"/>
+      <c r="I217" s="67"/>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="63"/>
-      <c r="B218" s="63"/>
-      <c r="C218" s="63"/>
-      <c r="D218" s="63"/>
-      <c r="E218" s="63"/>
-      <c r="F218" s="63"/>
-      <c r="G218" s="63"/>
-      <c r="H218" s="63"/>
-      <c r="I218" s="63"/>
+      <c r="A218" s="67"/>
+      <c r="B218" s="67"/>
+      <c r="C218" s="67"/>
+      <c r="D218" s="67"/>
+      <c r="E218" s="67"/>
+      <c r="F218" s="67"/>
+      <c r="G218" s="67"/>
+      <c r="H218" s="67"/>
+      <c r="I218" s="67"/>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="63"/>
-      <c r="B219" s="63"/>
-      <c r="C219" s="63"/>
-      <c r="D219" s="63"/>
-      <c r="E219" s="63"/>
-      <c r="F219" s="63"/>
-      <c r="G219" s="63"/>
-      <c r="H219" s="63"/>
-      <c r="I219" s="63"/>
+      <c r="A219" s="67"/>
+      <c r="B219" s="67"/>
+      <c r="C219" s="67"/>
+      <c r="D219" s="67"/>
+      <c r="E219" s="67"/>
+      <c r="F219" s="67"/>
+      <c r="G219" s="67"/>
+      <c r="H219" s="67"/>
+      <c r="I219" s="67"/>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="63"/>
-      <c r="B220" s="63"/>
-      <c r="C220" s="63"/>
-      <c r="D220" s="63"/>
-      <c r="E220" s="63"/>
-      <c r="F220" s="63"/>
-      <c r="G220" s="63"/>
-      <c r="H220" s="63"/>
-      <c r="I220" s="63"/>
+      <c r="A220" s="67"/>
+      <c r="B220" s="67"/>
+      <c r="C220" s="67"/>
+      <c r="D220" s="67"/>
+      <c r="E220" s="67"/>
+      <c r="F220" s="67"/>
+      <c r="G220" s="67"/>
+      <c r="H220" s="67"/>
+      <c r="I220" s="67"/>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="63"/>
-      <c r="B221" s="63"/>
-      <c r="C221" s="63"/>
-      <c r="D221" s="63"/>
-      <c r="E221" s="63"/>
-      <c r="F221" s="63"/>
-      <c r="G221" s="63"/>
-      <c r="H221" s="63"/>
-      <c r="I221" s="63"/>
+      <c r="A221" s="67"/>
+      <c r="B221" s="67"/>
+      <c r="C221" s="67"/>
+      <c r="D221" s="67"/>
+      <c r="E221" s="67"/>
+      <c r="F221" s="67"/>
+      <c r="G221" s="67"/>
+      <c r="H221" s="67"/>
+      <c r="I221" s="67"/>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="63"/>
-      <c r="B222" s="63"/>
-      <c r="C222" s="63"/>
-      <c r="D222" s="63"/>
-      <c r="E222" s="63"/>
-      <c r="F222" s="63"/>
-      <c r="G222" s="63"/>
-      <c r="H222" s="63"/>
-      <c r="I222" s="63"/>
+      <c r="A222" s="67"/>
+      <c r="B222" s="67"/>
+      <c r="C222" s="67"/>
+      <c r="D222" s="67"/>
+      <c r="E222" s="67"/>
+      <c r="F222" s="67"/>
+      <c r="G222" s="67"/>
+      <c r="H222" s="67"/>
+      <c r="I222" s="67"/>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="63"/>
-      <c r="B223" s="63"/>
-      <c r="C223" s="63"/>
-      <c r="D223" s="63"/>
-      <c r="E223" s="63"/>
-      <c r="F223" s="63"/>
-      <c r="G223" s="63"/>
-      <c r="H223" s="63"/>
-      <c r="I223" s="63"/>
+      <c r="A223" s="67"/>
+      <c r="B223" s="67"/>
+      <c r="C223" s="67"/>
+      <c r="D223" s="67"/>
+      <c r="E223" s="67"/>
+      <c r="F223" s="67"/>
+      <c r="G223" s="67"/>
+      <c r="H223" s="67"/>
+      <c r="I223" s="67"/>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="63"/>
-      <c r="B224" s="63"/>
-      <c r="C224" s="63"/>
-      <c r="D224" s="63"/>
-      <c r="E224" s="63"/>
-      <c r="F224" s="63"/>
-      <c r="G224" s="63"/>
-      <c r="H224" s="63"/>
-      <c r="I224" s="63"/>
+      <c r="A224" s="67"/>
+      <c r="B224" s="67"/>
+      <c r="C224" s="67"/>
+      <c r="D224" s="67"/>
+      <c r="E224" s="67"/>
+      <c r="F224" s="67"/>
+      <c r="G224" s="67"/>
+      <c r="H224" s="67"/>
+      <c r="I224" s="67"/>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="63"/>
-      <c r="B225" s="63"/>
-      <c r="C225" s="63"/>
-      <c r="D225" s="63"/>
-      <c r="E225" s="63"/>
-      <c r="F225" s="63"/>
-      <c r="G225" s="63"/>
-      <c r="H225" s="63"/>
-      <c r="I225" s="63"/>
+      <c r="A225" s="67"/>
+      <c r="B225" s="67"/>
+      <c r="C225" s="67"/>
+      <c r="D225" s="67"/>
+      <c r="E225" s="67"/>
+      <c r="F225" s="67"/>
+      <c r="G225" s="67"/>
+      <c r="H225" s="67"/>
+      <c r="I225" s="67"/>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="63"/>
-      <c r="B226" s="63"/>
-      <c r="C226" s="63"/>
-      <c r="D226" s="63"/>
-      <c r="E226" s="63"/>
-      <c r="F226" s="63"/>
-      <c r="G226" s="63"/>
-      <c r="H226" s="63"/>
-      <c r="I226" s="63"/>
+      <c r="A226" s="67"/>
+      <c r="B226" s="67"/>
+      <c r="C226" s="67"/>
+      <c r="D226" s="67"/>
+      <c r="E226" s="67"/>
+      <c r="F226" s="67"/>
+      <c r="G226" s="67"/>
+      <c r="H226" s="67"/>
+      <c r="I226" s="67"/>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="63"/>
-      <c r="B227" s="63"/>
-      <c r="C227" s="63"/>
-      <c r="D227" s="63"/>
-      <c r="E227" s="63"/>
-      <c r="F227" s="63"/>
-      <c r="G227" s="63"/>
-      <c r="H227" s="63"/>
-      <c r="I227" s="63"/>
+      <c r="A227" s="67"/>
+      <c r="B227" s="67"/>
+      <c r="C227" s="67"/>
+      <c r="D227" s="67"/>
+      <c r="E227" s="67"/>
+      <c r="F227" s="67"/>
+      <c r="G227" s="67"/>
+      <c r="H227" s="67"/>
+      <c r="I227" s="67"/>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="63"/>
-      <c r="B228" s="63"/>
-      <c r="C228" s="63"/>
-      <c r="D228" s="63"/>
-      <c r="E228" s="63"/>
-      <c r="F228" s="63"/>
-      <c r="G228" s="63"/>
-      <c r="H228" s="63"/>
-      <c r="I228" s="63"/>
+      <c r="A228" s="67"/>
+      <c r="B228" s="67"/>
+      <c r="C228" s="67"/>
+      <c r="D228" s="67"/>
+      <c r="E228" s="67"/>
+      <c r="F228" s="67"/>
+      <c r="G228" s="67"/>
+      <c r="H228" s="67"/>
+      <c r="I228" s="67"/>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="63"/>
-      <c r="B229" s="63"/>
-      <c r="C229" s="63"/>
-      <c r="D229" s="63"/>
-      <c r="E229" s="63"/>
-      <c r="F229" s="63"/>
-      <c r="G229" s="63"/>
-      <c r="H229" s="63"/>
-      <c r="I229" s="63"/>
+      <c r="A229" s="67"/>
+      <c r="B229" s="67"/>
+      <c r="C229" s="67"/>
+      <c r="D229" s="67"/>
+      <c r="E229" s="67"/>
+      <c r="F229" s="67"/>
+      <c r="G229" s="67"/>
+      <c r="H229" s="67"/>
+      <c r="I229" s="67"/>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="63"/>
-      <c r="B230" s="63"/>
-      <c r="C230" s="63"/>
-      <c r="D230" s="63"/>
-      <c r="E230" s="63"/>
-      <c r="F230" s="63"/>
-      <c r="G230" s="63"/>
-      <c r="H230" s="63"/>
-      <c r="I230" s="63"/>
+      <c r="A230" s="67"/>
+      <c r="B230" s="67"/>
+      <c r="C230" s="67"/>
+      <c r="D230" s="67"/>
+      <c r="E230" s="67"/>
+      <c r="F230" s="67"/>
+      <c r="G230" s="67"/>
+      <c r="H230" s="67"/>
+      <c r="I230" s="67"/>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="63"/>
-      <c r="B231" s="63"/>
-      <c r="C231" s="63"/>
-      <c r="D231" s="63"/>
-      <c r="E231" s="63"/>
-      <c r="F231" s="63"/>
-      <c r="G231" s="63"/>
-      <c r="H231" s="63"/>
-      <c r="I231" s="63"/>
+      <c r="A231" s="67"/>
+      <c r="B231" s="67"/>
+      <c r="C231" s="67"/>
+      <c r="D231" s="67"/>
+      <c r="E231" s="67"/>
+      <c r="F231" s="67"/>
+      <c r="G231" s="67"/>
+      <c r="H231" s="67"/>
+      <c r="I231" s="67"/>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="63"/>
-      <c r="B232" s="63"/>
-      <c r="C232" s="63"/>
-      <c r="D232" s="63"/>
-      <c r="E232" s="63"/>
-      <c r="F232" s="63"/>
-      <c r="G232" s="63"/>
-      <c r="H232" s="63"/>
-      <c r="I232" s="63"/>
+      <c r="A232" s="67"/>
+      <c r="B232" s="67"/>
+      <c r="C232" s="67"/>
+      <c r="D232" s="67"/>
+      <c r="E232" s="67"/>
+      <c r="F232" s="67"/>
+      <c r="G232" s="67"/>
+      <c r="H232" s="67"/>
+      <c r="I232" s="67"/>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="63"/>
-      <c r="B233" s="63"/>
-      <c r="C233" s="63"/>
-      <c r="D233" s="63"/>
-      <c r="E233" s="63"/>
-      <c r="F233" s="63"/>
-      <c r="G233" s="63"/>
-      <c r="H233" s="63"/>
-      <c r="I233" s="63"/>
+      <c r="A233" s="67"/>
+      <c r="B233" s="67"/>
+      <c r="C233" s="67"/>
+      <c r="D233" s="67"/>
+      <c r="E233" s="67"/>
+      <c r="F233" s="67"/>
+      <c r="G233" s="67"/>
+      <c r="H233" s="67"/>
+      <c r="I233" s="67"/>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="63"/>
-      <c r="B234" s="63"/>
-      <c r="C234" s="63"/>
-      <c r="D234" s="63"/>
-      <c r="E234" s="63"/>
-      <c r="F234" s="63"/>
-      <c r="G234" s="63"/>
-      <c r="H234" s="63"/>
-      <c r="I234" s="63"/>
+      <c r="A234" s="67"/>
+      <c r="B234" s="67"/>
+      <c r="C234" s="67"/>
+      <c r="D234" s="67"/>
+      <c r="E234" s="67"/>
+      <c r="F234" s="67"/>
+      <c r="G234" s="67"/>
+      <c r="H234" s="67"/>
+      <c r="I234" s="67"/>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="63"/>
-      <c r="B235" s="63"/>
-      <c r="C235" s="63"/>
-      <c r="D235" s="63"/>
-      <c r="E235" s="63"/>
-      <c r="F235" s="63"/>
-      <c r="G235" s="63"/>
-      <c r="H235" s="63"/>
-      <c r="I235" s="63"/>
+      <c r="A235" s="67"/>
+      <c r="B235" s="67"/>
+      <c r="C235" s="67"/>
+      <c r="D235" s="67"/>
+      <c r="E235" s="67"/>
+      <c r="F235" s="67"/>
+      <c r="G235" s="67"/>
+      <c r="H235" s="67"/>
+      <c r="I235" s="67"/>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="63"/>
-      <c r="B236" s="63"/>
-      <c r="C236" s="63"/>
-      <c r="D236" s="63"/>
-      <c r="E236" s="63"/>
-      <c r="F236" s="63"/>
-      <c r="G236" s="63"/>
-      <c r="H236" s="63"/>
-      <c r="I236" s="63"/>
+      <c r="A236" s="67"/>
+      <c r="B236" s="67"/>
+      <c r="C236" s="67"/>
+      <c r="D236" s="67"/>
+      <c r="E236" s="67"/>
+      <c r="F236" s="67"/>
+      <c r="G236" s="67"/>
+      <c r="H236" s="67"/>
+      <c r="I236" s="67"/>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="63"/>
-      <c r="B237" s="63"/>
-      <c r="C237" s="63"/>
-      <c r="D237" s="63"/>
-      <c r="E237" s="63"/>
-      <c r="F237" s="63"/>
-      <c r="G237" s="63"/>
-      <c r="H237" s="63"/>
-      <c r="I237" s="63"/>
+      <c r="A237" s="67"/>
+      <c r="B237" s="67"/>
+      <c r="C237" s="67"/>
+      <c r="D237" s="67"/>
+      <c r="E237" s="67"/>
+      <c r="F237" s="67"/>
+      <c r="G237" s="67"/>
+      <c r="H237" s="67"/>
+      <c r="I237" s="67"/>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="63"/>
-      <c r="B238" s="63"/>
-      <c r="C238" s="63"/>
-      <c r="D238" s="63"/>
-      <c r="E238" s="63"/>
-      <c r="F238" s="63"/>
-      <c r="G238" s="63"/>
-      <c r="H238" s="63"/>
-      <c r="I238" s="63"/>
+      <c r="A238" s="67"/>
+      <c r="B238" s="67"/>
+      <c r="C238" s="67"/>
+      <c r="D238" s="67"/>
+      <c r="E238" s="67"/>
+      <c r="F238" s="67"/>
+      <c r="G238" s="67"/>
+      <c r="H238" s="67"/>
+      <c r="I238" s="67"/>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="63"/>
-      <c r="B239" s="63"/>
-      <c r="C239" s="63"/>
-      <c r="D239" s="63"/>
-      <c r="E239" s="63"/>
-      <c r="F239" s="63"/>
-      <c r="G239" s="63"/>
-      <c r="H239" s="63"/>
-      <c r="I239" s="63"/>
+      <c r="A239" s="67"/>
+      <c r="B239" s="67"/>
+      <c r="C239" s="67"/>
+      <c r="D239" s="67"/>
+      <c r="E239" s="67"/>
+      <c r="F239" s="67"/>
+      <c r="G239" s="67"/>
+      <c r="H239" s="67"/>
+      <c r="I239" s="67"/>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="63"/>
-      <c r="B240" s="63"/>
-      <c r="C240" s="63"/>
-      <c r="D240" s="63"/>
-      <c r="E240" s="63"/>
-      <c r="F240" s="63"/>
-      <c r="G240" s="63"/>
-      <c r="H240" s="63"/>
-      <c r="I240" s="63"/>
+      <c r="A240" s="67"/>
+      <c r="B240" s="67"/>
+      <c r="C240" s="67"/>
+      <c r="D240" s="67"/>
+      <c r="E240" s="67"/>
+      <c r="F240" s="67"/>
+      <c r="G240" s="67"/>
+      <c r="H240" s="67"/>
+      <c r="I240" s="67"/>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="63"/>
-      <c r="B241" s="63"/>
-      <c r="C241" s="63"/>
-      <c r="D241" s="63"/>
-      <c r="E241" s="63"/>
-      <c r="F241" s="63"/>
-      <c r="G241" s="63"/>
-      <c r="H241" s="63"/>
-      <c r="I241" s="63"/>
+      <c r="A241" s="67"/>
+      <c r="B241" s="67"/>
+      <c r="C241" s="67"/>
+      <c r="D241" s="67"/>
+      <c r="E241" s="67"/>
+      <c r="F241" s="67"/>
+      <c r="G241" s="67"/>
+      <c r="H241" s="67"/>
+      <c r="I241" s="67"/>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="63"/>
-      <c r="B242" s="63"/>
-      <c r="C242" s="63"/>
-      <c r="D242" s="63"/>
-      <c r="E242" s="63"/>
-      <c r="F242" s="63"/>
-      <c r="G242" s="63"/>
-      <c r="H242" s="63"/>
-      <c r="I242" s="63"/>
+      <c r="A242" s="67"/>
+      <c r="B242" s="67"/>
+      <c r="C242" s="67"/>
+      <c r="D242" s="67"/>
+      <c r="E242" s="67"/>
+      <c r="F242" s="67"/>
+      <c r="G242" s="67"/>
+      <c r="H242" s="67"/>
+      <c r="I242" s="67"/>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="63"/>
-      <c r="B243" s="63"/>
-      <c r="C243" s="63"/>
-      <c r="D243" s="63"/>
-      <c r="E243" s="63"/>
-      <c r="F243" s="63"/>
-      <c r="G243" s="63"/>
-      <c r="H243" s="63"/>
-      <c r="I243" s="63"/>
+      <c r="A243" s="67"/>
+      <c r="B243" s="67"/>
+      <c r="C243" s="67"/>
+      <c r="D243" s="67"/>
+      <c r="E243" s="67"/>
+      <c r="F243" s="67"/>
+      <c r="G243" s="67"/>
+      <c r="H243" s="67"/>
+      <c r="I243" s="67"/>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="63"/>
-      <c r="B244" s="63"/>
-      <c r="C244" s="63"/>
-      <c r="D244" s="63"/>
-      <c r="E244" s="63"/>
-      <c r="F244" s="63"/>
-      <c r="G244" s="63"/>
-      <c r="H244" s="63"/>
-      <c r="I244" s="63"/>
+      <c r="A244" s="67"/>
+      <c r="B244" s="67"/>
+      <c r="C244" s="67"/>
+      <c r="D244" s="67"/>
+      <c r="E244" s="67"/>
+      <c r="F244" s="67"/>
+      <c r="G244" s="67"/>
+      <c r="H244" s="67"/>
+      <c r="I244" s="67"/>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="63"/>
-      <c r="B245" s="63"/>
-      <c r="C245" s="63"/>
-      <c r="D245" s="63"/>
-      <c r="E245" s="63"/>
-      <c r="F245" s="63"/>
-      <c r="G245" s="63"/>
-      <c r="H245" s="63"/>
-      <c r="I245" s="63"/>
+      <c r="A245" s="67"/>
+      <c r="B245" s="67"/>
+      <c r="C245" s="67"/>
+      <c r="D245" s="67"/>
+      <c r="E245" s="67"/>
+      <c r="F245" s="67"/>
+      <c r="G245" s="67"/>
+      <c r="H245" s="67"/>
+      <c r="I245" s="67"/>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="63"/>
-      <c r="B246" s="63"/>
-      <c r="C246" s="63"/>
-      <c r="D246" s="63"/>
-      <c r="E246" s="63"/>
-      <c r="F246" s="63"/>
-      <c r="G246" s="63"/>
-      <c r="H246" s="63"/>
-      <c r="I246" s="63"/>
+      <c r="A246" s="67"/>
+      <c r="B246" s="67"/>
+      <c r="C246" s="67"/>
+      <c r="D246" s="67"/>
+      <c r="E246" s="67"/>
+      <c r="F246" s="67"/>
+      <c r="G246" s="67"/>
+      <c r="H246" s="67"/>
+      <c r="I246" s="67"/>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="63"/>
-      <c r="B247" s="63"/>
-      <c r="C247" s="63"/>
-      <c r="D247" s="63"/>
-      <c r="E247" s="63"/>
-      <c r="F247" s="63"/>
-      <c r="G247" s="63"/>
-      <c r="H247" s="63"/>
-      <c r="I247" s="63"/>
+      <c r="A247" s="67"/>
+      <c r="B247" s="67"/>
+      <c r="C247" s="67"/>
+      <c r="D247" s="67"/>
+      <c r="E247" s="67"/>
+      <c r="F247" s="67"/>
+      <c r="G247" s="67"/>
+      <c r="H247" s="67"/>
+      <c r="I247" s="67"/>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="63"/>
-      <c r="B248" s="63"/>
-      <c r="C248" s="63"/>
-      <c r="D248" s="63"/>
-      <c r="E248" s="63"/>
-      <c r="F248" s="63"/>
-      <c r="G248" s="63"/>
-      <c r="H248" s="63"/>
-      <c r="I248" s="63"/>
+      <c r="A248" s="67"/>
+      <c r="B248" s="67"/>
+      <c r="C248" s="67"/>
+      <c r="D248" s="67"/>
+      <c r="E248" s="67"/>
+      <c r="F248" s="67"/>
+      <c r="G248" s="67"/>
+      <c r="H248" s="67"/>
+      <c r="I248" s="67"/>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="63"/>
-      <c r="B249" s="63"/>
-      <c r="C249" s="63"/>
-      <c r="D249" s="63"/>
-      <c r="E249" s="63"/>
-      <c r="F249" s="63"/>
-      <c r="G249" s="63"/>
-      <c r="H249" s="63"/>
-      <c r="I249" s="63"/>
+      <c r="A249" s="67"/>
+      <c r="B249" s="67"/>
+      <c r="C249" s="67"/>
+      <c r="D249" s="67"/>
+      <c r="E249" s="67"/>
+      <c r="F249" s="67"/>
+      <c r="G249" s="67"/>
+      <c r="H249" s="67"/>
+      <c r="I249" s="67"/>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="63"/>
-      <c r="B250" s="63"/>
-      <c r="C250" s="63"/>
-      <c r="D250" s="63"/>
-      <c r="E250" s="63"/>
-      <c r="F250" s="63"/>
-      <c r="G250" s="63"/>
-      <c r="H250" s="63"/>
-      <c r="I250" s="63"/>
+      <c r="A250" s="67"/>
+      <c r="B250" s="67"/>
+      <c r="C250" s="67"/>
+      <c r="D250" s="67"/>
+      <c r="E250" s="67"/>
+      <c r="F250" s="67"/>
+      <c r="G250" s="67"/>
+      <c r="H250" s="67"/>
+      <c r="I250" s="67"/>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="63"/>
-      <c r="B251" s="63"/>
-      <c r="C251" s="63"/>
-      <c r="D251" s="63"/>
-      <c r="E251" s="63"/>
-      <c r="F251" s="63"/>
-      <c r="G251" s="63"/>
-      <c r="H251" s="63"/>
-      <c r="I251" s="63"/>
+      <c r="A251" s="67"/>
+      <c r="B251" s="67"/>
+      <c r="C251" s="67"/>
+      <c r="D251" s="67"/>
+      <c r="E251" s="67"/>
+      <c r="F251" s="67"/>
+      <c r="G251" s="67"/>
+      <c r="H251" s="67"/>
+      <c r="I251" s="67"/>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="63"/>
-      <c r="B252" s="63"/>
-      <c r="C252" s="63"/>
-      <c r="D252" s="63"/>
-      <c r="E252" s="63"/>
-      <c r="F252" s="63"/>
-      <c r="G252" s="63"/>
-      <c r="H252" s="63"/>
-      <c r="I252" s="63"/>
+      <c r="A252" s="67"/>
+      <c r="B252" s="67"/>
+      <c r="C252" s="67"/>
+      <c r="D252" s="67"/>
+      <c r="E252" s="67"/>
+      <c r="F252" s="67"/>
+      <c r="G252" s="67"/>
+      <c r="H252" s="67"/>
+      <c r="I252" s="67"/>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="63"/>
-      <c r="B253" s="63"/>
-      <c r="C253" s="63"/>
-      <c r="D253" s="63"/>
-      <c r="E253" s="63"/>
-      <c r="F253" s="63"/>
-      <c r="G253" s="63"/>
-      <c r="H253" s="63"/>
-      <c r="I253" s="63"/>
+      <c r="A253" s="67"/>
+      <c r="B253" s="67"/>
+      <c r="C253" s="67"/>
+      <c r="D253" s="67"/>
+      <c r="E253" s="67"/>
+      <c r="F253" s="67"/>
+      <c r="G253" s="67"/>
+      <c r="H253" s="67"/>
+      <c r="I253" s="67"/>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="63"/>
-      <c r="B254" s="63"/>
-      <c r="C254" s="63"/>
-      <c r="D254" s="63"/>
-      <c r="E254" s="63"/>
-      <c r="F254" s="63"/>
-      <c r="G254" s="63"/>
-      <c r="H254" s="63"/>
-      <c r="I254" s="63"/>
+      <c r="A254" s="67"/>
+      <c r="B254" s="67"/>
+      <c r="C254" s="67"/>
+      <c r="D254" s="67"/>
+      <c r="E254" s="67"/>
+      <c r="F254" s="67"/>
+      <c r="G254" s="67"/>
+      <c r="H254" s="67"/>
+      <c r="I254" s="67"/>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="63"/>
-      <c r="B255" s="63"/>
-      <c r="C255" s="63"/>
-      <c r="D255" s="63"/>
-      <c r="E255" s="63"/>
-      <c r="F255" s="63"/>
-      <c r="G255" s="63"/>
-      <c r="H255" s="63"/>
-      <c r="I255" s="63"/>
+      <c r="A255" s="67"/>
+      <c r="B255" s="67"/>
+      <c r="C255" s="67"/>
+      <c r="D255" s="67"/>
+      <c r="E255" s="67"/>
+      <c r="F255" s="67"/>
+      <c r="G255" s="67"/>
+      <c r="H255" s="67"/>
+      <c r="I255" s="67"/>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="63"/>
-      <c r="B256" s="63"/>
-      <c r="C256" s="63"/>
-      <c r="D256" s="63"/>
-      <c r="E256" s="63"/>
-      <c r="F256" s="63"/>
-      <c r="G256" s="63"/>
-      <c r="H256" s="63"/>
-      <c r="I256" s="63"/>
+      <c r="A256" s="67"/>
+      <c r="B256" s="67"/>
+      <c r="C256" s="67"/>
+      <c r="D256" s="67"/>
+      <c r="E256" s="67"/>
+      <c r="F256" s="67"/>
+      <c r="G256" s="67"/>
+      <c r="H256" s="67"/>
+      <c r="I256" s="67"/>
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="63"/>
-      <c r="B257" s="63"/>
-      <c r="C257" s="63"/>
-      <c r="D257" s="63"/>
-      <c r="E257" s="63"/>
-      <c r="F257" s="63"/>
-      <c r="G257" s="63"/>
-      <c r="H257" s="63"/>
-      <c r="I257" s="63"/>
+      <c r="A257" s="67"/>
+      <c r="B257" s="67"/>
+      <c r="C257" s="67"/>
+      <c r="D257" s="67"/>
+      <c r="E257" s="67"/>
+      <c r="F257" s="67"/>
+      <c r="G257" s="67"/>
+      <c r="H257" s="67"/>
+      <c r="I257" s="67"/>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="63"/>
-      <c r="B258" s="63"/>
-      <c r="C258" s="63"/>
-      <c r="D258" s="63"/>
-      <c r="E258" s="63"/>
-      <c r="F258" s="63"/>
-      <c r="G258" s="63"/>
-      <c r="H258" s="63"/>
-      <c r="I258" s="63"/>
+      <c r="A258" s="67"/>
+      <c r="B258" s="67"/>
+      <c r="C258" s="67"/>
+      <c r="D258" s="67"/>
+      <c r="E258" s="67"/>
+      <c r="F258" s="67"/>
+      <c r="G258" s="67"/>
+      <c r="H258" s="67"/>
+      <c r="I258" s="67"/>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="63"/>
-      <c r="B259" s="63"/>
-      <c r="C259" s="63"/>
-      <c r="D259" s="63"/>
-      <c r="E259" s="63"/>
-      <c r="F259" s="63"/>
-      <c r="G259" s="63"/>
-      <c r="H259" s="63"/>
-      <c r="I259" s="63"/>
+      <c r="A259" s="67"/>
+      <c r="B259" s="67"/>
+      <c r="C259" s="67"/>
+      <c r="D259" s="67"/>
+      <c r="E259" s="67"/>
+      <c r="F259" s="67"/>
+      <c r="G259" s="67"/>
+      <c r="H259" s="67"/>
+      <c r="I259" s="67"/>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="63"/>
-      <c r="B260" s="63"/>
-      <c r="C260" s="63"/>
-      <c r="D260" s="63"/>
-      <c r="E260" s="63"/>
-      <c r="F260" s="63"/>
-      <c r="G260" s="63"/>
-      <c r="H260" s="63"/>
-      <c r="I260" s="63"/>
+      <c r="A260" s="67"/>
+      <c r="B260" s="67"/>
+      <c r="C260" s="67"/>
+      <c r="D260" s="67"/>
+      <c r="E260" s="67"/>
+      <c r="F260" s="67"/>
+      <c r="G260" s="67"/>
+      <c r="H260" s="67"/>
+      <c r="I260" s="67"/>
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="63"/>
-      <c r="B261" s="63"/>
-      <c r="C261" s="63"/>
-      <c r="D261" s="63"/>
-      <c r="E261" s="63"/>
-      <c r="F261" s="63"/>
-      <c r="G261" s="63"/>
-      <c r="H261" s="63"/>
-      <c r="I261" s="63"/>
+      <c r="A261" s="67"/>
+      <c r="B261" s="67"/>
+      <c r="C261" s="67"/>
+      <c r="D261" s="67"/>
+      <c r="E261" s="67"/>
+      <c r="F261" s="67"/>
+      <c r="G261" s="67"/>
+      <c r="H261" s="67"/>
+      <c r="I261" s="67"/>
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="63"/>
-      <c r="B262" s="63"/>
-      <c r="C262" s="63"/>
-      <c r="D262" s="63"/>
-      <c r="E262" s="63"/>
-      <c r="F262" s="63"/>
-      <c r="G262" s="63"/>
-      <c r="H262" s="63"/>
-      <c r="I262" s="63"/>
+      <c r="A262" s="67"/>
+      <c r="B262" s="67"/>
+      <c r="C262" s="67"/>
+      <c r="D262" s="67"/>
+      <c r="E262" s="67"/>
+      <c r="F262" s="67"/>
+      <c r="G262" s="67"/>
+      <c r="H262" s="67"/>
+      <c r="I262" s="67"/>
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="63"/>
-      <c r="B263" s="63"/>
-      <c r="C263" s="63"/>
-      <c r="D263" s="63"/>
-      <c r="E263" s="63"/>
-      <c r="F263" s="63"/>
-      <c r="G263" s="63"/>
-      <c r="H263" s="63"/>
-      <c r="I263" s="63"/>
+      <c r="A263" s="67"/>
+      <c r="B263" s="67"/>
+      <c r="C263" s="67"/>
+      <c r="D263" s="67"/>
+      <c r="E263" s="67"/>
+      <c r="F263" s="67"/>
+      <c r="G263" s="67"/>
+      <c r="H263" s="67"/>
+      <c r="I263" s="67"/>
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="63"/>
-      <c r="B264" s="63"/>
-      <c r="C264" s="63"/>
-      <c r="D264" s="63"/>
-      <c r="E264" s="63"/>
-      <c r="F264" s="63"/>
-      <c r="G264" s="63"/>
-      <c r="H264" s="63"/>
-      <c r="I264" s="63"/>
+      <c r="A264" s="67"/>
+      <c r="B264" s="67"/>
+      <c r="C264" s="67"/>
+      <c r="D264" s="67"/>
+      <c r="E264" s="67"/>
+      <c r="F264" s="67"/>
+      <c r="G264" s="67"/>
+      <c r="H264" s="67"/>
+      <c r="I264" s="67"/>
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="63"/>
-      <c r="B265" s="63"/>
-      <c r="C265" s="63"/>
-      <c r="D265" s="63"/>
-      <c r="E265" s="63"/>
-      <c r="F265" s="63"/>
-      <c r="G265" s="63"/>
-      <c r="H265" s="63"/>
-      <c r="I265" s="63"/>
+      <c r="A265" s="67"/>
+      <c r="B265" s="67"/>
+      <c r="C265" s="67"/>
+      <c r="D265" s="67"/>
+      <c r="E265" s="67"/>
+      <c r="F265" s="67"/>
+      <c r="G265" s="67"/>
+      <c r="H265" s="67"/>
+      <c r="I265" s="67"/>
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="63"/>
-      <c r="B266" s="63"/>
-      <c r="C266" s="63"/>
-      <c r="D266" s="63"/>
-      <c r="E266" s="63"/>
-      <c r="F266" s="63"/>
-      <c r="G266" s="63"/>
-      <c r="H266" s="63"/>
-      <c r="I266" s="63"/>
+      <c r="A266" s="67"/>
+      <c r="B266" s="67"/>
+      <c r="C266" s="67"/>
+      <c r="D266" s="67"/>
+      <c r="E266" s="67"/>
+      <c r="F266" s="67"/>
+      <c r="G266" s="67"/>
+      <c r="H266" s="67"/>
+      <c r="I266" s="67"/>
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="63"/>
-      <c r="B267" s="63"/>
-      <c r="C267" s="63"/>
-      <c r="D267" s="63"/>
-      <c r="E267" s="63"/>
-      <c r="F267" s="63"/>
-      <c r="G267" s="63"/>
-      <c r="H267" s="63"/>
-      <c r="I267" s="63"/>
+      <c r="A267" s="67"/>
+      <c r="B267" s="67"/>
+      <c r="C267" s="67"/>
+      <c r="D267" s="67"/>
+      <c r="E267" s="67"/>
+      <c r="F267" s="67"/>
+      <c r="G267" s="67"/>
+      <c r="H267" s="67"/>
+      <c r="I267" s="67"/>
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="63"/>
-      <c r="B268" s="63"/>
-      <c r="C268" s="63"/>
-      <c r="D268" s="63"/>
-      <c r="E268" s="63"/>
-      <c r="F268" s="63"/>
-      <c r="G268" s="63"/>
-      <c r="H268" s="63"/>
-      <c r="I268" s="63"/>
+      <c r="A268" s="67"/>
+      <c r="B268" s="67"/>
+      <c r="C268" s="67"/>
+      <c r="D268" s="67"/>
+      <c r="E268" s="67"/>
+      <c r="F268" s="67"/>
+      <c r="G268" s="67"/>
+      <c r="H268" s="67"/>
+      <c r="I268" s="67"/>
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="63"/>
-      <c r="B269" s="63"/>
-      <c r="C269" s="63"/>
-      <c r="D269" s="63"/>
-      <c r="E269" s="63"/>
-      <c r="F269" s="63"/>
-      <c r="G269" s="63"/>
-      <c r="H269" s="63"/>
-      <c r="I269" s="63"/>
+      <c r="A269" s="67"/>
+      <c r="B269" s="67"/>
+      <c r="C269" s="67"/>
+      <c r="D269" s="67"/>
+      <c r="E269" s="67"/>
+      <c r="F269" s="67"/>
+      <c r="G269" s="67"/>
+      <c r="H269" s="67"/>
+      <c r="I269" s="67"/>
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="63"/>
-      <c r="B270" s="63"/>
-      <c r="C270" s="63"/>
-      <c r="D270" s="63"/>
-      <c r="E270" s="63"/>
-      <c r="F270" s="63"/>
-      <c r="G270" s="63"/>
-      <c r="H270" s="63"/>
-      <c r="I270" s="63"/>
+      <c r="A270" s="67"/>
+      <c r="B270" s="67"/>
+      <c r="C270" s="67"/>
+      <c r="D270" s="67"/>
+      <c r="E270" s="67"/>
+      <c r="F270" s="67"/>
+      <c r="G270" s="67"/>
+      <c r="H270" s="67"/>
+      <c r="I270" s="67"/>
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="63"/>
-      <c r="B271" s="63"/>
-      <c r="C271" s="63"/>
-      <c r="D271" s="63"/>
-      <c r="E271" s="63"/>
-      <c r="F271" s="63"/>
-      <c r="G271" s="63"/>
-      <c r="H271" s="63"/>
-      <c r="I271" s="63"/>
+      <c r="A271" s="67"/>
+      <c r="B271" s="67"/>
+      <c r="C271" s="67"/>
+      <c r="D271" s="67"/>
+      <c r="E271" s="67"/>
+      <c r="F271" s="67"/>
+      <c r="G271" s="67"/>
+      <c r="H271" s="67"/>
+      <c r="I271" s="67"/>
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="63"/>
-      <c r="B272" s="63"/>
-      <c r="C272" s="63"/>
-      <c r="D272" s="63"/>
-      <c r="E272" s="63"/>
-      <c r="F272" s="63"/>
-      <c r="G272" s="63"/>
-      <c r="H272" s="63"/>
-      <c r="I272" s="63"/>
+      <c r="A272" s="67"/>
+      <c r="B272" s="67"/>
+      <c r="C272" s="67"/>
+      <c r="D272" s="67"/>
+      <c r="E272" s="67"/>
+      <c r="F272" s="67"/>
+      <c r="G272" s="67"/>
+      <c r="H272" s="67"/>
+      <c r="I272" s="67"/>
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="63"/>
-      <c r="B273" s="63"/>
-      <c r="C273" s="63"/>
-      <c r="D273" s="63"/>
-      <c r="E273" s="63"/>
-      <c r="F273" s="63"/>
-      <c r="G273" s="63"/>
-      <c r="H273" s="63"/>
-      <c r="I273" s="63"/>
+      <c r="A273" s="67"/>
+      <c r="B273" s="67"/>
+      <c r="C273" s="67"/>
+      <c r="D273" s="67"/>
+      <c r="E273" s="67"/>
+      <c r="F273" s="67"/>
+      <c r="G273" s="67"/>
+      <c r="H273" s="67"/>
+      <c r="I273" s="67"/>
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="63"/>
-      <c r="B274" s="63"/>
-      <c r="C274" s="63"/>
-      <c r="D274" s="63"/>
-      <c r="E274" s="63"/>
-      <c r="F274" s="63"/>
-      <c r="G274" s="63"/>
-      <c r="H274" s="63"/>
-      <c r="I274" s="63"/>
+      <c r="A274" s="67"/>
+      <c r="B274" s="67"/>
+      <c r="C274" s="67"/>
+      <c r="D274" s="67"/>
+      <c r="E274" s="67"/>
+      <c r="F274" s="67"/>
+      <c r="G274" s="67"/>
+      <c r="H274" s="67"/>
+      <c r="I274" s="67"/>
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="63"/>
-      <c r="B275" s="63"/>
-      <c r="C275" s="63"/>
-      <c r="D275" s="63"/>
-      <c r="E275" s="63"/>
-      <c r="F275" s="63"/>
-      <c r="G275" s="63"/>
-      <c r="H275" s="63"/>
-      <c r="I275" s="63"/>
+      <c r="A275" s="67"/>
+      <c r="B275" s="67"/>
+      <c r="C275" s="67"/>
+      <c r="D275" s="67"/>
+      <c r="E275" s="67"/>
+      <c r="F275" s="67"/>
+      <c r="G275" s="67"/>
+      <c r="H275" s="67"/>
+      <c r="I275" s="67"/>
     </row>
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="63"/>
-      <c r="B276" s="63"/>
-      <c r="C276" s="63"/>
-      <c r="D276" s="63"/>
-      <c r="E276" s="63"/>
-      <c r="F276" s="63"/>
-      <c r="G276" s="63"/>
-      <c r="H276" s="63"/>
-      <c r="I276" s="63"/>
+      <c r="A276" s="67"/>
+      <c r="B276" s="67"/>
+      <c r="C276" s="67"/>
+      <c r="D276" s="67"/>
+      <c r="E276" s="67"/>
+      <c r="F276" s="67"/>
+      <c r="G276" s="67"/>
+      <c r="H276" s="67"/>
+      <c r="I276" s="67"/>
     </row>
     <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="63"/>
-      <c r="B277" s="63"/>
-      <c r="C277" s="63"/>
-      <c r="D277" s="63"/>
-      <c r="E277" s="63"/>
-      <c r="F277" s="63"/>
-      <c r="G277" s="63"/>
-      <c r="H277" s="63"/>
-      <c r="I277" s="63"/>
+      <c r="A277" s="67"/>
+      <c r="B277" s="67"/>
+      <c r="C277" s="67"/>
+      <c r="D277" s="67"/>
+      <c r="E277" s="67"/>
+      <c r="F277" s="67"/>
+      <c r="G277" s="67"/>
+      <c r="H277" s="67"/>
+      <c r="I277" s="67"/>
     </row>
     <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="63"/>
-      <c r="B278" s="63"/>
-      <c r="C278" s="63"/>
-      <c r="D278" s="63"/>
-      <c r="E278" s="63"/>
-      <c r="F278" s="63"/>
-      <c r="G278" s="63"/>
-      <c r="H278" s="63"/>
-      <c r="I278" s="63"/>
+      <c r="A278" s="67"/>
+      <c r="B278" s="67"/>
+      <c r="C278" s="67"/>
+      <c r="D278" s="67"/>
+      <c r="E278" s="67"/>
+      <c r="F278" s="67"/>
+      <c r="G278" s="67"/>
+      <c r="H278" s="67"/>
+      <c r="I278" s="67"/>
     </row>
     <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="63"/>
-      <c r="B279" s="63"/>
-      <c r="C279" s="63"/>
-      <c r="D279" s="63"/>
-      <c r="E279" s="63"/>
-      <c r="F279" s="63"/>
-      <c r="G279" s="63"/>
-      <c r="H279" s="63"/>
-      <c r="I279" s="63"/>
+      <c r="A279" s="67"/>
+      <c r="B279" s="67"/>
+      <c r="C279" s="67"/>
+      <c r="D279" s="67"/>
+      <c r="E279" s="67"/>
+      <c r="F279" s="67"/>
+      <c r="G279" s="67"/>
+      <c r="H279" s="67"/>
+      <c r="I279" s="67"/>
     </row>
     <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="63"/>
-      <c r="B280" s="63"/>
-      <c r="C280" s="63"/>
-      <c r="D280" s="63"/>
-      <c r="E280" s="63"/>
-      <c r="F280" s="63"/>
-      <c r="G280" s="63"/>
-      <c r="H280" s="63"/>
-      <c r="I280" s="63"/>
+      <c r="A280" s="67"/>
+      <c r="B280" s="67"/>
+      <c r="C280" s="67"/>
+      <c r="D280" s="67"/>
+      <c r="E280" s="67"/>
+      <c r="F280" s="67"/>
+      <c r="G280" s="67"/>
+      <c r="H280" s="67"/>
+      <c r="I280" s="67"/>
     </row>
     <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="63"/>
-      <c r="B281" s="63"/>
-      <c r="C281" s="63"/>
-      <c r="D281" s="63"/>
-      <c r="E281" s="63"/>
-      <c r="F281" s="63"/>
-      <c r="G281" s="63"/>
-      <c r="H281" s="63"/>
-      <c r="I281" s="63"/>
+      <c r="A281" s="67"/>
+      <c r="B281" s="67"/>
+      <c r="C281" s="67"/>
+      <c r="D281" s="67"/>
+      <c r="E281" s="67"/>
+      <c r="F281" s="67"/>
+      <c r="G281" s="67"/>
+      <c r="H281" s="67"/>
+      <c r="I281" s="67"/>
     </row>
     <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="63"/>
-      <c r="B282" s="63"/>
-      <c r="C282" s="63"/>
-      <c r="D282" s="63"/>
-      <c r="E282" s="63"/>
-      <c r="F282" s="63"/>
-      <c r="G282" s="63"/>
-      <c r="H282" s="63"/>
-      <c r="I282" s="63"/>
+      <c r="A282" s="67"/>
+      <c r="B282" s="67"/>
+      <c r="C282" s="67"/>
+      <c r="D282" s="67"/>
+      <c r="E282" s="67"/>
+      <c r="F282" s="67"/>
+      <c r="G282" s="67"/>
+      <c r="H282" s="67"/>
+      <c r="I282" s="67"/>
     </row>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="63"/>
-      <c r="B283" s="63"/>
-      <c r="C283" s="63"/>
-      <c r="D283" s="63"/>
-      <c r="E283" s="63"/>
-      <c r="F283" s="63"/>
-      <c r="G283" s="63"/>
-      <c r="H283" s="63"/>
-      <c r="I283" s="63"/>
+      <c r="A283" s="67"/>
+      <c r="B283" s="67"/>
+      <c r="C283" s="67"/>
+      <c r="D283" s="67"/>
+      <c r="E283" s="67"/>
+      <c r="F283" s="67"/>
+      <c r="G283" s="67"/>
+      <c r="H283" s="67"/>
+      <c r="I283" s="67"/>
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="63"/>
-      <c r="B284" s="63"/>
-      <c r="C284" s="63"/>
-      <c r="D284" s="63"/>
-      <c r="E284" s="63"/>
-      <c r="F284" s="63"/>
-      <c r="G284" s="63"/>
-      <c r="H284" s="63"/>
-      <c r="I284" s="63"/>
+      <c r="A284" s="67"/>
+      <c r="B284" s="67"/>
+      <c r="C284" s="67"/>
+      <c r="D284" s="67"/>
+      <c r="E284" s="67"/>
+      <c r="F284" s="67"/>
+      <c r="G284" s="67"/>
+      <c r="H284" s="67"/>
+      <c r="I284" s="67"/>
     </row>
     <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="63"/>
-      <c r="B285" s="63"/>
-      <c r="C285" s="63"/>
-      <c r="D285" s="63"/>
-      <c r="E285" s="63"/>
-      <c r="F285" s="63"/>
-      <c r="G285" s="63"/>
-      <c r="H285" s="63"/>
-      <c r="I285" s="63"/>
+      <c r="A285" s="67"/>
+      <c r="B285" s="67"/>
+      <c r="C285" s="67"/>
+      <c r="D285" s="67"/>
+      <c r="E285" s="67"/>
+      <c r="F285" s="67"/>
+      <c r="G285" s="67"/>
+      <c r="H285" s="67"/>
+      <c r="I285" s="67"/>
     </row>
     <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="63"/>
-      <c r="B286" s="63"/>
-      <c r="C286" s="63"/>
-      <c r="D286" s="63"/>
-      <c r="E286" s="63"/>
-      <c r="F286" s="63"/>
-      <c r="G286" s="63"/>
-      <c r="H286" s="63"/>
-      <c r="I286" s="63"/>
+      <c r="A286" s="67"/>
+      <c r="B286" s="67"/>
+      <c r="C286" s="67"/>
+      <c r="D286" s="67"/>
+      <c r="E286" s="67"/>
+      <c r="F286" s="67"/>
+      <c r="G286" s="67"/>
+      <c r="H286" s="67"/>
+      <c r="I286" s="67"/>
     </row>
     <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="63"/>
-      <c r="B287" s="63"/>
-      <c r="C287" s="63"/>
-      <c r="D287" s="63"/>
-      <c r="E287" s="63"/>
-      <c r="F287" s="63"/>
-      <c r="G287" s="63"/>
-      <c r="H287" s="63"/>
-      <c r="I287" s="63"/>
+      <c r="A287" s="67"/>
+      <c r="B287" s="67"/>
+      <c r="C287" s="67"/>
+      <c r="D287" s="67"/>
+      <c r="E287" s="67"/>
+      <c r="F287" s="67"/>
+      <c r="G287" s="67"/>
+      <c r="H287" s="67"/>
+      <c r="I287" s="67"/>
     </row>
     <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="63"/>
-      <c r="B288" s="63"/>
-      <c r="C288" s="63"/>
-      <c r="D288" s="63"/>
-      <c r="E288" s="63"/>
-      <c r="F288" s="63"/>
-      <c r="G288" s="63"/>
-      <c r="H288" s="63"/>
-      <c r="I288" s="63"/>
+      <c r="A288" s="67"/>
+      <c r="B288" s="67"/>
+      <c r="C288" s="67"/>
+      <c r="D288" s="67"/>
+      <c r="E288" s="67"/>
+      <c r="F288" s="67"/>
+      <c r="G288" s="67"/>
+      <c r="H288" s="67"/>
+      <c r="I288" s="67"/>
     </row>
     <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="63"/>
-      <c r="B289" s="63"/>
-      <c r="C289" s="63"/>
-      <c r="D289" s="63"/>
-      <c r="E289" s="63"/>
-      <c r="F289" s="63"/>
-      <c r="G289" s="63"/>
-      <c r="H289" s="63"/>
-      <c r="I289" s="63"/>
+      <c r="A289" s="67"/>
+      <c r="B289" s="67"/>
+      <c r="C289" s="67"/>
+      <c r="D289" s="67"/>
+      <c r="E289" s="67"/>
+      <c r="F289" s="67"/>
+      <c r="G289" s="67"/>
+      <c r="H289" s="67"/>
+      <c r="I289" s="67"/>
     </row>
     <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="63"/>
-      <c r="B290" s="63"/>
-      <c r="C290" s="63"/>
-      <c r="D290" s="63"/>
-      <c r="E290" s="63"/>
-      <c r="F290" s="63"/>
-      <c r="G290" s="63"/>
-      <c r="H290" s="63"/>
-      <c r="I290" s="63"/>
+      <c r="A290" s="67"/>
+      <c r="B290" s="67"/>
+      <c r="C290" s="67"/>
+      <c r="D290" s="67"/>
+      <c r="E290" s="67"/>
+      <c r="F290" s="67"/>
+      <c r="G290" s="67"/>
+      <c r="H290" s="67"/>
+      <c r="I290" s="67"/>
     </row>
     <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="63"/>
-      <c r="B291" s="63"/>
-      <c r="C291" s="63"/>
-      <c r="D291" s="63"/>
-      <c r="E291" s="63"/>
-      <c r="F291" s="63"/>
-      <c r="G291" s="63"/>
-      <c r="H291" s="63"/>
-      <c r="I291" s="63"/>
+      <c r="A291" s="67"/>
+      <c r="B291" s="67"/>
+      <c r="C291" s="67"/>
+      <c r="D291" s="67"/>
+      <c r="E291" s="67"/>
+      <c r="F291" s="67"/>
+      <c r="G291" s="67"/>
+      <c r="H291" s="67"/>
+      <c r="I291" s="67"/>
     </row>
     <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="63"/>
-      <c r="B292" s="63"/>
-      <c r="C292" s="63"/>
-      <c r="D292" s="63"/>
-      <c r="E292" s="63"/>
-      <c r="F292" s="63"/>
-      <c r="G292" s="63"/>
-      <c r="H292" s="63"/>
-      <c r="I292" s="63"/>
+      <c r="A292" s="67"/>
+      <c r="B292" s="67"/>
+      <c r="C292" s="67"/>
+      <c r="D292" s="67"/>
+      <c r="E292" s="67"/>
+      <c r="F292" s="67"/>
+      <c r="G292" s="67"/>
+      <c r="H292" s="67"/>
+      <c r="I292" s="67"/>
     </row>
     <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="63"/>
-      <c r="B293" s="63"/>
-      <c r="C293" s="63"/>
-      <c r="D293" s="63"/>
-      <c r="E293" s="63"/>
-      <c r="F293" s="63"/>
-      <c r="G293" s="63"/>
-      <c r="H293" s="63"/>
-      <c r="I293" s="63"/>
+      <c r="A293" s="67"/>
+      <c r="B293" s="67"/>
+      <c r="C293" s="67"/>
+      <c r="D293" s="67"/>
+      <c r="E293" s="67"/>
+      <c r="F293" s="67"/>
+      <c r="G293" s="67"/>
+      <c r="H293" s="67"/>
+      <c r="I293" s="67"/>
     </row>
     <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="63"/>
-      <c r="B294" s="63"/>
-      <c r="C294" s="63"/>
-      <c r="D294" s="63"/>
-      <c r="E294" s="63"/>
-      <c r="F294" s="63"/>
-      <c r="G294" s="63"/>
-      <c r="H294" s="63"/>
-      <c r="I294" s="63"/>
+      <c r="A294" s="67"/>
+      <c r="B294" s="67"/>
+      <c r="C294" s="67"/>
+      <c r="D294" s="67"/>
+      <c r="E294" s="67"/>
+      <c r="F294" s="67"/>
+      <c r="G294" s="67"/>
+      <c r="H294" s="67"/>
+      <c r="I294" s="67"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J1"/>

--- a/documentation/Tabla_de_registros_HMI.xlsx
+++ b/documentation/Tabla_de_registros_HMI.xlsx
@@ -213,7 +213,7 @@
     <t xml:space="preserve">Activacion Electrovalvula 1 (subir pistones)</t>
   </si>
   <si>
-    <t xml:space="preserve">Binario (00000001)=ON</t>
+    <t xml:space="preserve">Binario (00000001)=ON 1</t>
   </si>
   <si>
     <t xml:space="preserve">HR-0003</t>
@@ -225,25 +225,25 @@
     <t xml:space="preserve">Activacion Electrovalvula 2 (bajar pistones)</t>
   </si>
   <si>
-    <t xml:space="preserve">Binario (00000010)=ON</t>
+    <t xml:space="preserve">Binario (00000010)=ON 2</t>
   </si>
   <si>
     <t xml:space="preserve">Activacion Electrovalvula 3 ( señal acústica )</t>
   </si>
   <si>
-    <t xml:space="preserve">Binario (00000100)=ON</t>
+    <t xml:space="preserve">Binario (00000100)=ON 4</t>
   </si>
   <si>
     <t xml:space="preserve">Activacion Electrovalvula 4 (recircula grasa)</t>
   </si>
   <si>
-    <t xml:space="preserve">Binario (00001000)=ON</t>
+    <t xml:space="preserve">Binario (00001000)=ON 8</t>
   </si>
   <si>
     <t xml:space="preserve">Activacion Electrovalvula 5 (not used)</t>
   </si>
   <si>
-    <t xml:space="preserve">Binario (00010000)=ON</t>
+    <t xml:space="preserve">Binario (00010000)=ON 16</t>
   </si>
   <si>
     <t xml:space="preserve">Torreta</t>
@@ -1920,7 +1920,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1949,8 +1949,8 @@
   </sheetPr>
   <dimension ref="A1:J294"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/documentation/Tabla_de_registros_HMI.xlsx
+++ b/documentation/Tabla_de_registros_HMI.xlsx
@@ -41,6 +41,18 @@
         </r>
       </text>
     </comment>
+    <comment ref="B105" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">These goes to the HMI, will add the sensor reading to be displayed here, which are the values from IOLink data</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E83" authorId="0">
       <text>
         <r>
@@ -70,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="258">
   <si>
     <t xml:space="preserve">Elemento </t>
   </si>
@@ -483,33 +495,21 @@
     <t xml:space="preserve">Numero de pantalla y subpantalla en la que está el elemento</t>
   </si>
   <si>
-    <t xml:space="preserve">Entrar Pantalla 1:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CB-0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MB-01000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pantalla principal modo automatico</t>
+    <t xml:space="preserve">Abir Local window 1:1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CB-0001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MB-01001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aqui se despliega la alarma de proceso</t>
   </si>
   <si>
     <t xml:space="preserve">1:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Abir Local window 1:1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CB-0001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MB-01001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aqui se despliega la alarma de proceso</t>
-  </si>
-  <si>
     <t xml:space="preserve">Abir Local window 1:2</t>
   </si>
   <si>
@@ -871,6 +871,42 @@
   </si>
   <si>
     <t xml:space="preserve">MW-116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sensor_material_pressure </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HR-40036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sensor_material_temperature </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HR-40037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sensor_laser_distance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HR-40038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sensor_pressure_regulator_read_set </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HR-40039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sensor_pressure_regulator_read_real </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HR-40040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sensor_pressure_regulator_valve_read_state </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HR-40041</t>
   </si>
   <si>
     <t xml:space="preserve">Datos</t>
@@ -1003,7 +1039,7 @@
     <numFmt numFmtId="165" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="h:mm"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1073,11 +1109,17 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1093,7 +1135,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF70AD47"/>
-        <bgColor rgb="FF339966"/>
+        <bgColor rgb="FF999999"/>
       </patternFill>
     </fill>
     <fill>
@@ -1112,6 +1154,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFF5CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF999999"/>
+        <bgColor rgb="FF808080"/>
       </patternFill>
     </fill>
     <fill>
@@ -1335,7 +1383,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="99">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1620,23 +1668,39 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1644,8 +1708,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1676,7 +1744,7 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1789,9 +1857,9 @@
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF999999"/>
+      <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF70AD47"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -1920,7 +1988,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1947,10 +2015,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J294"/>
+  <dimension ref="A1:J298"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B91" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B110" activeCellId="0" sqref="B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3560,7 +3628,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="43.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="9" t="s">
         <v>75</v>
       </c>
@@ -3616,41 +3684,31 @@
       <c r="H69" s="67"/>
       <c r="I69" s="67"/>
     </row>
-    <row r="70" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="B70" s="71" t="s">
-        <v>7</v>
-      </c>
-      <c r="C70" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D70" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="E70" s="34" t="s">
-        <v>85</v>
-      </c>
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0"/>
+      <c r="B70" s="0"/>
+      <c r="C70" s="0"/>
+      <c r="D70" s="0"/>
+      <c r="E70" s="0"/>
       <c r="F70" s="67"/>
       <c r="H70" s="67"/>
       <c r="I70" s="67"/>
     </row>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="B71" s="71" t="s">
-        <v>87</v>
-      </c>
-      <c r="C71" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="D71" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="E71" s="34" t="s">
-        <v>90</v>
+    <row r="71" customFormat="false" ht="41.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="B71" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" s="74" t="s">
+        <v>84</v>
+      </c>
+      <c r="E71" s="73" t="s">
+        <v>85</v>
       </c>
       <c r="F71" s="67"/>
       <c r="G71" s="67"/>
@@ -3659,16 +3717,16 @@
     </row>
     <row r="72" customFormat="false" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="B72" s="71" t="s">
-        <v>92</v>
+        <v>86</v>
+      </c>
+      <c r="B72" s="75" t="s">
+        <v>87</v>
       </c>
       <c r="C72" s="34" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D72" s="22" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E72" s="34" t="s">
         <v>90</v>
@@ -3680,16 +3738,16 @@
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="B73" s="71" t="s">
-        <v>96</v>
+        <v>91</v>
+      </c>
+      <c r="B73" s="75" t="s">
+        <v>92</v>
       </c>
       <c r="C73" s="34" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D73" s="22" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E73" s="34" t="s">
         <v>90</v>
@@ -3701,16 +3759,16 @@
     </row>
     <row r="74" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="B74" s="71" t="s">
-        <v>100</v>
+        <v>95</v>
+      </c>
+      <c r="B74" s="75" t="s">
+        <v>96</v>
       </c>
       <c r="C74" s="34" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D74" s="22" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E74" s="34" t="s">
         <v>90</v>
@@ -3722,16 +3780,16 @@
     </row>
     <row r="75" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="B75" s="71" t="s">
-        <v>104</v>
+        <v>99</v>
+      </c>
+      <c r="B75" s="75" t="s">
+        <v>100</v>
       </c>
       <c r="C75" s="34" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D75" s="22" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E75" s="34" t="s">
         <v>90</v>
@@ -3743,16 +3801,16 @@
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="B76" s="71" t="s">
-        <v>108</v>
+        <v>103</v>
+      </c>
+      <c r="B76" s="75" t="s">
+        <v>104</v>
       </c>
       <c r="C76" s="34" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D76" s="22" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E76" s="34" t="s">
         <v>90</v>
@@ -3764,16 +3822,16 @@
     </row>
     <row r="77" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="B77" s="71" t="s">
-        <v>112</v>
+        <v>107</v>
+      </c>
+      <c r="B77" s="75" t="s">
+        <v>108</v>
       </c>
       <c r="C77" s="34" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D77" s="22" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E77" s="34" t="s">
         <v>90</v>
@@ -3785,16 +3843,16 @@
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="B78" s="71" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+      <c r="B78" s="75" t="s">
+        <v>112</v>
       </c>
       <c r="C78" s="34" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D78" s="22" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E78" s="34" t="s">
         <v>90</v>
@@ -3806,16 +3864,16 @@
     </row>
     <row r="79" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="B79" s="71" t="s">
-        <v>120</v>
+        <v>115</v>
+      </c>
+      <c r="B79" s="75" t="s">
+        <v>116</v>
       </c>
       <c r="C79" s="34" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D79" s="22" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E79" s="34" t="s">
         <v>90</v>
@@ -3827,16 +3885,16 @@
     </row>
     <row r="80" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="B80" s="71" t="s">
-        <v>124</v>
+        <v>119</v>
+      </c>
+      <c r="B80" s="75" t="s">
+        <v>120</v>
       </c>
       <c r="C80" s="34" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D80" s="22" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E80" s="34" t="s">
         <v>90</v>
@@ -3848,16 +3906,16 @@
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="B81" s="71" t="s">
-        <v>128</v>
+        <v>123</v>
+      </c>
+      <c r="B81" s="75" t="s">
+        <v>124</v>
       </c>
       <c r="C81" s="34" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D81" s="22" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E81" s="34" t="s">
         <v>90</v>
@@ -3869,16 +3927,16 @@
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="B82" s="71" t="s">
-        <v>132</v>
+        <v>127</v>
+      </c>
+      <c r="B82" s="75" t="s">
+        <v>128</v>
       </c>
       <c r="C82" s="34" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D82" s="20" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E82" s="34" t="s">
         <v>90</v>
@@ -3889,19 +3947,19 @@
       <c r="I82" s="67"/>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="72" t="s">
-        <v>135</v>
-      </c>
-      <c r="B83" s="73" t="s">
-        <v>136</v>
-      </c>
-      <c r="C83" s="74" t="s">
-        <v>137</v>
-      </c>
-      <c r="D83" s="75" t="s">
-        <v>138</v>
-      </c>
-      <c r="E83" s="74" t="s">
+      <c r="A83" s="76" t="s">
+        <v>131</v>
+      </c>
+      <c r="B83" s="77" t="s">
+        <v>132</v>
+      </c>
+      <c r="C83" s="78" t="s">
+        <v>133</v>
+      </c>
+      <c r="D83" s="79" t="s">
+        <v>134</v>
+      </c>
+      <c r="E83" s="78" t="s">
         <v>90</v>
       </c>
       <c r="F83" s="67"/>
@@ -3909,19 +3967,19 @@
       <c r="I83" s="67"/>
     </row>
     <row r="84" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="72" t="s">
-        <v>139</v>
-      </c>
-      <c r="B84" s="73" t="s">
-        <v>140</v>
-      </c>
-      <c r="C84" s="74" t="s">
-        <v>141</v>
-      </c>
-      <c r="D84" s="75" t="s">
-        <v>142</v>
-      </c>
-      <c r="E84" s="74" t="s">
+      <c r="A84" s="76" t="s">
+        <v>135</v>
+      </c>
+      <c r="B84" s="77" t="s">
+        <v>136</v>
+      </c>
+      <c r="C84" s="78" t="s">
+        <v>137</v>
+      </c>
+      <c r="D84" s="79" t="s">
+        <v>138</v>
+      </c>
+      <c r="E84" s="78" t="s">
         <v>90</v>
       </c>
       <c r="F84" s="67"/>
@@ -3931,19 +3989,19 @@
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="B85" s="71" t="s">
-        <v>144</v>
+        <v>139</v>
+      </c>
+      <c r="B85" s="75" t="s">
+        <v>140</v>
       </c>
       <c r="C85" s="34" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D85" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="E85" s="76" t="s">
-        <v>146</v>
+        <v>89</v>
+      </c>
+      <c r="E85" s="80" t="s">
+        <v>142</v>
       </c>
       <c r="F85" s="67"/>
       <c r="G85" s="67"/>
@@ -3952,19 +4010,19 @@
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="B86" s="71" t="s">
-        <v>148</v>
+        <v>143</v>
+      </c>
+      <c r="B86" s="75" t="s">
+        <v>144</v>
       </c>
       <c r="C86" s="34" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D86" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="E86" s="76" t="s">
-        <v>146</v>
+        <v>94</v>
+      </c>
+      <c r="E86" s="80" t="s">
+        <v>142</v>
       </c>
       <c r="F86" s="67"/>
       <c r="G86" s="67"/>
@@ -3973,19 +4031,19 @@
     </row>
     <row r="87" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="B87" s="71" t="s">
-        <v>151</v>
+        <v>146</v>
+      </c>
+      <c r="B87" s="75" t="s">
+        <v>147</v>
       </c>
       <c r="C87" s="34" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D87" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="E87" s="76" t="s">
-        <v>146</v>
+        <v>149</v>
+      </c>
+      <c r="E87" s="80" t="s">
+        <v>142</v>
       </c>
       <c r="F87" s="67"/>
       <c r="G87" s="67"/>
@@ -3994,19 +4052,19 @@
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="B88" s="71" t="s">
-        <v>155</v>
+        <v>150</v>
+      </c>
+      <c r="B88" s="75" t="s">
+        <v>151</v>
       </c>
       <c r="C88" s="34" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D88" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="E88" s="76" t="s">
-        <v>146</v>
+        <v>102</v>
+      </c>
+      <c r="E88" s="80" t="s">
+        <v>142</v>
       </c>
       <c r="F88" s="67"/>
       <c r="G88" s="67"/>
@@ -4015,19 +4073,19 @@
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="B89" s="71" t="s">
-        <v>158</v>
+        <v>153</v>
+      </c>
+      <c r="B89" s="75" t="s">
+        <v>154</v>
       </c>
       <c r="C89" s="34" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D89" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="E89" s="76" t="s">
-        <v>146</v>
+        <v>106</v>
+      </c>
+      <c r="E89" s="80" t="s">
+        <v>142</v>
       </c>
       <c r="F89" s="67"/>
       <c r="G89" s="67"/>
@@ -4036,19 +4094,19 @@
     </row>
     <row r="90" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="B90" s="71" t="s">
-        <v>161</v>
+        <v>156</v>
+      </c>
+      <c r="B90" s="75" t="s">
+        <v>157</v>
       </c>
       <c r="C90" s="34" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D90" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="E90" s="76" t="s">
-        <v>146</v>
+        <v>110</v>
+      </c>
+      <c r="E90" s="80" t="s">
+        <v>142</v>
       </c>
       <c r="F90" s="67"/>
       <c r="G90" s="67"/>
@@ -4057,19 +4115,19 @@
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="B91" s="71" t="s">
-        <v>164</v>
+        <v>159</v>
+      </c>
+      <c r="B91" s="75" t="s">
+        <v>160</v>
       </c>
       <c r="C91" s="34" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D91" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="E91" s="76" t="s">
-        <v>146</v>
+        <v>162</v>
+      </c>
+      <c r="E91" s="80" t="s">
+        <v>142</v>
       </c>
       <c r="F91" s="67"/>
       <c r="G91" s="67"/>
@@ -4078,19 +4136,19 @@
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="B92" s="71" t="s">
-        <v>168</v>
+        <v>163</v>
+      </c>
+      <c r="B92" s="75" t="s">
+        <v>164</v>
       </c>
       <c r="C92" s="34" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D92" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="E92" s="76" t="s">
-        <v>146</v>
+        <v>166</v>
+      </c>
+      <c r="E92" s="80" t="s">
+        <v>142</v>
       </c>
       <c r="F92" s="67"/>
       <c r="G92" s="67"/>
@@ -4099,19 +4157,19 @@
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="B93" s="71" t="s">
-        <v>172</v>
+        <v>167</v>
+      </c>
+      <c r="B93" s="75" t="s">
+        <v>168</v>
       </c>
       <c r="C93" s="34" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D93" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="E93" s="76" t="s">
-        <v>146</v>
+        <v>170</v>
+      </c>
+      <c r="E93" s="80" t="s">
+        <v>142</v>
       </c>
       <c r="F93" s="67"/>
       <c r="G93" s="67"/>
@@ -4120,19 +4178,19 @@
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="B94" s="71" t="s">
-        <v>176</v>
+        <v>171</v>
+      </c>
+      <c r="B94" s="75" t="s">
+        <v>172</v>
       </c>
       <c r="C94" s="34" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D94" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="E94" s="76" t="s">
-        <v>146</v>
+        <v>174</v>
+      </c>
+      <c r="E94" s="80" t="s">
+        <v>142</v>
       </c>
       <c r="F94" s="67"/>
       <c r="G94" s="67"/>
@@ -4141,19 +4199,19 @@
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="B95" s="71" t="s">
-        <v>180</v>
+        <v>175</v>
+      </c>
+      <c r="B95" s="75" t="s">
+        <v>176</v>
       </c>
       <c r="C95" s="34" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D95" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="E95" s="76" t="s">
-        <v>146</v>
+        <v>174</v>
+      </c>
+      <c r="E95" s="80" t="s">
+        <v>142</v>
       </c>
       <c r="F95" s="67"/>
       <c r="G95" s="67"/>
@@ -4161,20 +4219,20 @@
       <c r="I95" s="67"/>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="72" t="s">
+      <c r="A96" s="76" t="s">
+        <v>178</v>
+      </c>
+      <c r="B96" s="77" t="s">
+        <v>179</v>
+      </c>
+      <c r="C96" s="78" t="s">
+        <v>180</v>
+      </c>
+      <c r="D96" s="79" t="s">
+        <v>181</v>
+      </c>
+      <c r="E96" s="81" t="s">
         <v>182</v>
-      </c>
-      <c r="B96" s="73" t="s">
-        <v>183</v>
-      </c>
-      <c r="C96" s="74" t="s">
-        <v>184</v>
-      </c>
-      <c r="D96" s="75" t="s">
-        <v>185</v>
-      </c>
-      <c r="E96" s="77" t="s">
-        <v>186</v>
       </c>
       <c r="F96" s="67"/>
       <c r="G96" s="67"/>
@@ -4182,20 +4240,20 @@
       <c r="I96" s="67"/>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="72" t="s">
-        <v>187</v>
-      </c>
-      <c r="B97" s="73" t="s">
-        <v>188</v>
-      </c>
-      <c r="C97" s="74" t="s">
-        <v>189</v>
-      </c>
-      <c r="D97" s="75" t="s">
-        <v>190</v>
-      </c>
-      <c r="E97" s="77" t="s">
+      <c r="A97" s="76" t="s">
+        <v>183</v>
+      </c>
+      <c r="B97" s="77" t="s">
+        <v>184</v>
+      </c>
+      <c r="C97" s="78" t="s">
+        <v>185</v>
+      </c>
+      <c r="D97" s="79" t="s">
         <v>186</v>
+      </c>
+      <c r="E97" s="81" t="s">
+        <v>182</v>
       </c>
       <c r="F97" s="67"/>
       <c r="G97" s="67"/>
@@ -4203,20 +4261,20 @@
       <c r="I97" s="67"/>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="72" t="s">
-        <v>191</v>
-      </c>
-      <c r="B98" s="73" t="s">
-        <v>192</v>
-      </c>
-      <c r="C98" s="74" t="s">
-        <v>193</v>
-      </c>
-      <c r="D98" s="75" t="s">
-        <v>194</v>
-      </c>
-      <c r="E98" s="77" t="s">
-        <v>186</v>
+      <c r="A98" s="76" t="s">
+        <v>187</v>
+      </c>
+      <c r="B98" s="77" t="s">
+        <v>188</v>
+      </c>
+      <c r="C98" s="78" t="s">
+        <v>189</v>
+      </c>
+      <c r="D98" s="79" t="s">
+        <v>190</v>
+      </c>
+      <c r="E98" s="81" t="s">
+        <v>182</v>
       </c>
       <c r="F98" s="67"/>
       <c r="G98" s="67"/>
@@ -4224,20 +4282,20 @@
       <c r="I98" s="67"/>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="72" t="s">
-        <v>195</v>
-      </c>
-      <c r="B99" s="73" t="s">
-        <v>196</v>
-      </c>
-      <c r="C99" s="74" t="s">
-        <v>197</v>
-      </c>
-      <c r="D99" s="75" t="s">
-        <v>198</v>
-      </c>
-      <c r="E99" s="77" t="s">
-        <v>186</v>
+      <c r="A99" s="76" t="s">
+        <v>191</v>
+      </c>
+      <c r="B99" s="77" t="s">
+        <v>192</v>
+      </c>
+      <c r="C99" s="78" t="s">
+        <v>193</v>
+      </c>
+      <c r="D99" s="79" t="s">
+        <v>194</v>
+      </c>
+      <c r="E99" s="81" t="s">
+        <v>182</v>
       </c>
       <c r="F99" s="67"/>
       <c r="G99" s="67"/>
@@ -4245,20 +4303,20 @@
       <c r="I99" s="67"/>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="72" t="s">
-        <v>199</v>
-      </c>
-      <c r="B100" s="73" t="s">
-        <v>200</v>
-      </c>
-      <c r="C100" s="74" t="s">
-        <v>201</v>
-      </c>
-      <c r="D100" s="75" t="s">
-        <v>198</v>
-      </c>
-      <c r="E100" s="77" t="s">
-        <v>186</v>
+      <c r="A100" s="76" t="s">
+        <v>195</v>
+      </c>
+      <c r="B100" s="77" t="s">
+        <v>196</v>
+      </c>
+      <c r="C100" s="78" t="s">
+        <v>197</v>
+      </c>
+      <c r="D100" s="79" t="s">
+        <v>194</v>
+      </c>
+      <c r="E100" s="81" t="s">
+        <v>182</v>
       </c>
       <c r="F100" s="67"/>
       <c r="G100" s="67"/>
@@ -4266,20 +4324,20 @@
       <c r="I100" s="67"/>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="72" t="s">
-        <v>202</v>
-      </c>
-      <c r="B101" s="73" t="s">
-        <v>203</v>
-      </c>
-      <c r="C101" s="74" t="s">
-        <v>204</v>
-      </c>
-      <c r="D101" s="75" t="s">
+      <c r="A101" s="76" t="s">
         <v>198</v>
       </c>
-      <c r="E101" s="77" t="s">
-        <v>186</v>
+      <c r="B101" s="77" t="s">
+        <v>199</v>
+      </c>
+      <c r="C101" s="78" t="s">
+        <v>200</v>
+      </c>
+      <c r="D101" s="79" t="s">
+        <v>194</v>
+      </c>
+      <c r="E101" s="81" t="s">
+        <v>182</v>
       </c>
       <c r="F101" s="67"/>
       <c r="G101" s="67"/>
@@ -4287,20 +4345,20 @@
       <c r="I101" s="67"/>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="72" t="s">
-        <v>205</v>
-      </c>
-      <c r="B102" s="73" t="s">
-        <v>206</v>
-      </c>
-      <c r="C102" s="74" t="s">
-        <v>207</v>
-      </c>
-      <c r="D102" s="75" t="s">
-        <v>208</v>
-      </c>
-      <c r="E102" s="77" t="s">
-        <v>186</v>
+      <c r="A102" s="76" t="s">
+        <v>201</v>
+      </c>
+      <c r="B102" s="77" t="s">
+        <v>202</v>
+      </c>
+      <c r="C102" s="78" t="s">
+        <v>203</v>
+      </c>
+      <c r="D102" s="79" t="s">
+        <v>204</v>
+      </c>
+      <c r="E102" s="81" t="s">
+        <v>182</v>
       </c>
       <c r="F102" s="67"/>
       <c r="G102" s="67"/>
@@ -4308,20 +4366,20 @@
       <c r="I102" s="67"/>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="72" t="s">
-        <v>209</v>
-      </c>
-      <c r="B103" s="73" t="s">
-        <v>210</v>
-      </c>
-      <c r="C103" s="74" t="s">
-        <v>211</v>
-      </c>
-      <c r="D103" s="75" t="s">
-        <v>212</v>
-      </c>
-      <c r="E103" s="77" t="s">
-        <v>186</v>
+      <c r="A103" s="76" t="s">
+        <v>205</v>
+      </c>
+      <c r="B103" s="77" t="s">
+        <v>206</v>
+      </c>
+      <c r="C103" s="78" t="s">
+        <v>207</v>
+      </c>
+      <c r="D103" s="79" t="s">
+        <v>208</v>
+      </c>
+      <c r="E103" s="81" t="s">
+        <v>182</v>
       </c>
       <c r="F103" s="67"/>
       <c r="G103" s="67"/>
@@ -4329,20 +4387,20 @@
       <c r="I103" s="67"/>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="72" t="s">
-        <v>213</v>
-      </c>
-      <c r="B104" s="73" t="s">
-        <v>214</v>
-      </c>
-      <c r="C104" s="74" t="s">
-        <v>215</v>
-      </c>
-      <c r="D104" s="75" t="s">
-        <v>213</v>
-      </c>
-      <c r="E104" s="77" t="s">
-        <v>186</v>
+      <c r="A104" s="76" t="s">
+        <v>209</v>
+      </c>
+      <c r="B104" s="77" t="s">
+        <v>210</v>
+      </c>
+      <c r="C104" s="78" t="s">
+        <v>211</v>
+      </c>
+      <c r="D104" s="79" t="s">
+        <v>209</v>
+      </c>
+      <c r="E104" s="81" t="s">
+        <v>182</v>
       </c>
       <c r="F104" s="67"/>
       <c r="G104" s="67"/>
@@ -4350,7 +4408,12 @@
       <c r="I104" s="67"/>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="67"/>
+      <c r="A105" s="82" t="s">
+        <v>212</v>
+      </c>
+      <c r="B105" s="67" t="s">
+        <v>213</v>
+      </c>
       <c r="C105" s="67"/>
       <c r="D105" s="67"/>
       <c r="E105" s="67"/>
@@ -4360,7 +4423,12 @@
       <c r="I105" s="67"/>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="67"/>
+      <c r="A106" s="82" t="s">
+        <v>214</v>
+      </c>
+      <c r="B106" s="67" t="s">
+        <v>215</v>
+      </c>
       <c r="C106" s="67"/>
       <c r="D106" s="67"/>
       <c r="E106" s="67"/>
@@ -4370,7 +4438,12 @@
       <c r="I106" s="67"/>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="67"/>
+      <c r="A107" s="82" t="s">
+        <v>216</v>
+      </c>
+      <c r="B107" s="67" t="s">
+        <v>217</v>
+      </c>
       <c r="C107" s="67"/>
       <c r="D107" s="67"/>
       <c r="E107" s="67"/>
@@ -4380,7 +4453,12 @@
       <c r="I107" s="67"/>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="67"/>
+      <c r="A108" s="82" t="s">
+        <v>218</v>
+      </c>
+      <c r="B108" s="67" t="s">
+        <v>219</v>
+      </c>
       <c r="C108" s="67"/>
       <c r="D108" s="67"/>
       <c r="E108" s="67"/>
@@ -4390,7 +4468,12 @@
       <c r="I108" s="67"/>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="67"/>
+      <c r="A109" s="82" t="s">
+        <v>220</v>
+      </c>
+      <c r="B109" s="67" t="s">
+        <v>221</v>
+      </c>
       <c r="C109" s="67"/>
       <c r="D109" s="67"/>
       <c r="E109" s="67"/>
@@ -4400,8 +4483,12 @@
       <c r="I109" s="67"/>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="67"/>
-      <c r="B110" s="67"/>
+      <c r="A110" s="82" t="s">
+        <v>222</v>
+      </c>
+      <c r="B110" s="67" t="s">
+        <v>223</v>
+      </c>
       <c r="C110" s="67"/>
       <c r="D110" s="67"/>
       <c r="E110" s="67"/>
@@ -4411,7 +4498,7 @@
       <c r="I110" s="67"/>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="67"/>
+      <c r="A111" s="82"/>
       <c r="B111" s="67"/>
       <c r="C111" s="67"/>
       <c r="D111" s="67"/>
@@ -4421,366 +4508,333 @@
       <c r="H111" s="67"/>
       <c r="I111" s="67"/>
     </row>
-    <row r="112" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="78"/>
-      <c r="B112" s="79" t="s">
-        <v>216</v>
-      </c>
-      <c r="C112" s="79" t="s">
-        <v>217</v>
-      </c>
-      <c r="D112" s="80" t="s">
-        <v>218</v>
-      </c>
-      <c r="E112" s="71" t="s">
-        <v>7</v>
-      </c>
-      <c r="F112" s="34" t="s">
-        <v>8</v>
-      </c>
+    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="82"/>
+      <c r="B112" s="67"/>
+      <c r="C112" s="67"/>
+      <c r="D112" s="67"/>
+      <c r="E112" s="67"/>
+      <c r="F112" s="67"/>
       <c r="G112" s="67"/>
       <c r="H112" s="67"/>
       <c r="I112" s="67"/>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="81"/>
-      <c r="B113" s="82"/>
-      <c r="C113" s="82"/>
-      <c r="D113" s="83"/>
+      <c r="B113" s="67"/>
+      <c r="C113" s="67"/>
+      <c r="D113" s="67"/>
       <c r="E113" s="67"/>
       <c r="F113" s="67"/>
       <c r="G113" s="67"/>
       <c r="H113" s="67"/>
       <c r="I113" s="67"/>
     </row>
-    <row r="114" customFormat="false" ht="80.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="84" t="s">
-        <v>219</v>
-      </c>
-      <c r="B114" s="85" t="s">
-        <v>220</v>
-      </c>
-      <c r="C114" s="86" t="s">
-        <v>221</v>
-      </c>
-      <c r="D114" s="87" t="s">
-        <v>222</v>
-      </c>
-      <c r="E114" s="88" t="s">
-        <v>223</v>
-      </c>
-      <c r="F114" s="86" t="s">
-        <v>224</v>
-      </c>
-      <c r="G114" s="89" t="s">
-        <v>225</v>
-      </c>
+    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="67"/>
+      <c r="B114" s="67"/>
+      <c r="C114" s="67"/>
+      <c r="D114" s="67"/>
+      <c r="E114" s="67"/>
+      <c r="F114" s="67"/>
+      <c r="G114" s="67"/>
       <c r="H114" s="67"/>
       <c r="I114" s="67"/>
     </row>
-    <row r="115" customFormat="false" ht="40.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="84"/>
-      <c r="B115" s="85" t="s">
-        <v>226</v>
-      </c>
-      <c r="C115" s="86" t="s">
-        <v>221</v>
-      </c>
-      <c r="D115" s="87" t="s">
-        <v>227</v>
-      </c>
-      <c r="E115" s="88" t="s">
-        <v>228</v>
-      </c>
-      <c r="F115" s="86" t="s">
-        <v>229</v>
-      </c>
+    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="67"/>
+      <c r="B115" s="67"/>
+      <c r="C115" s="67"/>
+      <c r="D115" s="67"/>
+      <c r="E115" s="67"/>
+      <c r="F115" s="67"/>
       <c r="G115" s="67"/>
       <c r="H115" s="67"/>
       <c r="I115" s="67"/>
     </row>
-    <row r="116" customFormat="false" ht="67.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="84"/>
-      <c r="B116" s="85" t="s">
-        <v>230</v>
-      </c>
-      <c r="C116" s="86" t="s">
-        <v>221</v>
-      </c>
-      <c r="D116" s="87" t="s">
-        <v>231</v>
-      </c>
-      <c r="E116" s="88" t="s">
-        <v>232</v>
-      </c>
-      <c r="F116" s="86" t="s">
-        <v>233</v>
+    <row r="116" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="83"/>
+      <c r="B116" s="84" t="s">
+        <v>224</v>
+      </c>
+      <c r="C116" s="84" t="s">
+        <v>225</v>
+      </c>
+      <c r="D116" s="85" t="s">
+        <v>226</v>
+      </c>
+      <c r="E116" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="F116" s="34" t="s">
+        <v>8</v>
       </c>
       <c r="G116" s="67"/>
       <c r="H116" s="67"/>
       <c r="I116" s="67"/>
     </row>
-    <row r="117" customFormat="false" ht="40.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="84"/>
-      <c r="B117" s="85" t="s">
-        <v>234</v>
-      </c>
-      <c r="C117" s="86" t="s">
-        <v>221</v>
-      </c>
-      <c r="D117" s="87" t="s">
-        <v>235</v>
-      </c>
-      <c r="E117" s="88" t="s">
-        <v>236</v>
-      </c>
-      <c r="F117" s="86" t="s">
-        <v>237</v>
-      </c>
+    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="86"/>
+      <c r="B117" s="87"/>
+      <c r="C117" s="87"/>
+      <c r="D117" s="88"/>
+      <c r="E117" s="67"/>
+      <c r="F117" s="67"/>
       <c r="G117" s="67"/>
       <c r="H117" s="67"/>
       <c r="I117" s="67"/>
     </row>
-    <row r="118" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="84"/>
-      <c r="B118" s="85" t="s">
-        <v>238</v>
-      </c>
-      <c r="C118" s="86" t="s">
-        <v>221</v>
-      </c>
-      <c r="D118" s="87" t="s">
-        <v>239</v>
-      </c>
-      <c r="E118" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="F118" s="86" t="s">
-        <v>12</v>
-      </c>
-      <c r="G118" s="89" t="s">
-        <v>240</v>
+    <row r="118" customFormat="false" ht="80.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="89" t="s">
+        <v>227</v>
+      </c>
+      <c r="B118" s="90" t="s">
+        <v>228</v>
+      </c>
+      <c r="C118" s="91" t="s">
+        <v>229</v>
+      </c>
+      <c r="D118" s="92" t="s">
+        <v>230</v>
+      </c>
+      <c r="E118" s="93" t="s">
+        <v>231</v>
+      </c>
+      <c r="F118" s="91" t="s">
+        <v>232</v>
+      </c>
+      <c r="G118" s="94" t="s">
+        <v>233</v>
       </c>
       <c r="H118" s="67"/>
       <c r="I118" s="67"/>
     </row>
-    <row r="119" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="84"/>
-      <c r="B119" s="85" t="s">
-        <v>241</v>
-      </c>
-      <c r="C119" s="86" t="s">
-        <v>221</v>
-      </c>
-      <c r="D119" s="87" t="s">
-        <v>239</v>
-      </c>
-      <c r="E119" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="F119" s="86" t="s">
-        <v>12</v>
+    <row r="119" customFormat="false" ht="40.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="89"/>
+      <c r="B119" s="90" t="s">
+        <v>234</v>
+      </c>
+      <c r="C119" s="91" t="s">
+        <v>229</v>
+      </c>
+      <c r="D119" s="92" t="s">
+        <v>235</v>
+      </c>
+      <c r="E119" s="93" t="s">
+        <v>236</v>
+      </c>
+      <c r="F119" s="91" t="s">
+        <v>237</v>
       </c>
       <c r="G119" s="67"/>
       <c r="H119" s="67"/>
       <c r="I119" s="67"/>
     </row>
-    <row r="120" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="84"/>
-      <c r="B120" s="85" t="s">
-        <v>242</v>
-      </c>
-      <c r="C120" s="86" t="s">
-        <v>221</v>
-      </c>
-      <c r="D120" s="87" t="s">
+    <row r="120" customFormat="false" ht="67.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="89"/>
+      <c r="B120" s="90" t="s">
+        <v>238</v>
+      </c>
+      <c r="C120" s="91" t="s">
+        <v>229</v>
+      </c>
+      <c r="D120" s="92" t="s">
         <v>239</v>
       </c>
-      <c r="E120" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="F120" s="86" t="s">
-        <v>12</v>
+      <c r="E120" s="93" t="s">
+        <v>240</v>
+      </c>
+      <c r="F120" s="91" t="s">
+        <v>241</v>
       </c>
       <c r="G120" s="67"/>
       <c r="H120" s="67"/>
       <c r="I120" s="67"/>
     </row>
-    <row r="121" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="84"/>
-      <c r="B121" s="85" t="s">
+    <row r="121" customFormat="false" ht="40.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="89"/>
+      <c r="B121" s="90" t="s">
+        <v>242</v>
+      </c>
+      <c r="C121" s="91" t="s">
+        <v>229</v>
+      </c>
+      <c r="D121" s="92" t="s">
         <v>243</v>
       </c>
-      <c r="C121" s="86" t="s">
-        <v>221</v>
-      </c>
-      <c r="D121" s="87" t="s">
-        <v>239</v>
-      </c>
-      <c r="E121" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="F121" s="86" t="s">
-        <v>12</v>
+      <c r="E121" s="93" t="s">
+        <v>244</v>
+      </c>
+      <c r="F121" s="91" t="s">
+        <v>245</v>
       </c>
       <c r="G121" s="67"/>
       <c r="H121" s="67"/>
       <c r="I121" s="67"/>
     </row>
     <row r="122" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="84"/>
-      <c r="B122" s="85" t="s">
-        <v>244</v>
-      </c>
-      <c r="C122" s="86" t="s">
-        <v>221</v>
-      </c>
-      <c r="D122" s="87" t="s">
-        <v>239</v>
-      </c>
-      <c r="E122" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="F122" s="86" t="s">
-        <v>12</v>
-      </c>
-      <c r="G122" s="67"/>
+      <c r="A122" s="89"/>
+      <c r="B122" s="90" t="s">
+        <v>246</v>
+      </c>
+      <c r="C122" s="91" t="s">
+        <v>229</v>
+      </c>
+      <c r="D122" s="92" t="s">
+        <v>247</v>
+      </c>
+      <c r="E122" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="F122" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="G122" s="94" t="s">
+        <v>248</v>
+      </c>
       <c r="H122" s="67"/>
       <c r="I122" s="67"/>
     </row>
     <row r="123" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="84" t="s">
-        <v>216</v>
-      </c>
-      <c r="B123" s="88" t="s">
-        <v>245</v>
-      </c>
-      <c r="C123" s="86" t="s">
-        <v>221</v>
-      </c>
-      <c r="D123" s="90"/>
-      <c r="E123" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="F123" s="86" t="s">
-        <v>12</v>
-      </c>
-      <c r="G123" s="89" t="s">
-        <v>246</v>
-      </c>
+      <c r="A123" s="89"/>
+      <c r="B123" s="90" t="s">
+        <v>249</v>
+      </c>
+      <c r="C123" s="91" t="s">
+        <v>229</v>
+      </c>
+      <c r="D123" s="92" t="s">
+        <v>247</v>
+      </c>
+      <c r="E123" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="F123" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="G123" s="67"/>
       <c r="H123" s="67"/>
       <c r="I123" s="67"/>
     </row>
-    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="84"/>
-      <c r="B124" s="88" t="s">
+    <row r="124" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="89"/>
+      <c r="B124" s="90" t="s">
+        <v>250</v>
+      </c>
+      <c r="C124" s="91" t="s">
+        <v>229</v>
+      </c>
+      <c r="D124" s="92" t="s">
         <v>247</v>
       </c>
-      <c r="C124" s="86" t="s">
-        <v>221</v>
-      </c>
-      <c r="D124" s="90"/>
-      <c r="E124" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="F124" s="86" t="s">
-        <v>12</v>
-      </c>
-      <c r="G124" s="67" t="s">
-        <v>248</v>
-      </c>
+      <c r="E124" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="F124" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="G124" s="67"/>
       <c r="H124" s="67"/>
       <c r="I124" s="67"/>
     </row>
-    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="84"/>
-      <c r="B125" s="88" t="s">
-        <v>182</v>
-      </c>
-      <c r="C125" s="86" t="s">
-        <v>221</v>
-      </c>
-      <c r="D125" s="90"/>
-      <c r="E125" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="F125" s="86" t="s">
+    <row r="125" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="89"/>
+      <c r="B125" s="90" t="s">
+        <v>251</v>
+      </c>
+      <c r="C125" s="91" t="s">
+        <v>229</v>
+      </c>
+      <c r="D125" s="92" t="s">
+        <v>247</v>
+      </c>
+      <c r="E125" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="F125" s="91" t="s">
         <v>12</v>
       </c>
       <c r="G125" s="67"/>
       <c r="H125" s="67"/>
       <c r="I125" s="67"/>
     </row>
-    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="84"/>
-      <c r="B126" s="88" t="s">
-        <v>187</v>
-      </c>
-      <c r="C126" s="86" t="s">
-        <v>221</v>
-      </c>
-      <c r="D126" s="90"/>
-      <c r="E126" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="F126" s="86" t="s">
+    <row r="126" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="89"/>
+      <c r="B126" s="90" t="s">
+        <v>252</v>
+      </c>
+      <c r="C126" s="91" t="s">
+        <v>229</v>
+      </c>
+      <c r="D126" s="92" t="s">
+        <v>247</v>
+      </c>
+      <c r="E126" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="F126" s="91" t="s">
         <v>12</v>
       </c>
       <c r="G126" s="67"/>
       <c r="H126" s="67"/>
       <c r="I126" s="67"/>
     </row>
-    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="84"/>
-      <c r="B127" s="88" t="s">
-        <v>191</v>
-      </c>
-      <c r="C127" s="86" t="s">
-        <v>221</v>
-      </c>
-      <c r="D127" s="90"/>
-      <c r="E127" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="F127" s="86" t="s">
-        <v>12</v>
-      </c>
-      <c r="G127" s="67"/>
+    <row r="127" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="89" t="s">
+        <v>224</v>
+      </c>
+      <c r="B127" s="93" t="s">
+        <v>253</v>
+      </c>
+      <c r="C127" s="91" t="s">
+        <v>229</v>
+      </c>
+      <c r="D127" s="95"/>
+      <c r="E127" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="F127" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="G127" s="94" t="s">
+        <v>254</v>
+      </c>
       <c r="H127" s="67"/>
       <c r="I127" s="67"/>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="84"/>
-      <c r="B128" s="88" t="s">
-        <v>195</v>
-      </c>
-      <c r="C128" s="86" t="s">
-        <v>221</v>
-      </c>
-      <c r="D128" s="90"/>
-      <c r="E128" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="F128" s="86" t="s">
-        <v>12</v>
-      </c>
-      <c r="G128" s="67"/>
+      <c r="A128" s="89"/>
+      <c r="B128" s="93" t="s">
+        <v>255</v>
+      </c>
+      <c r="C128" s="91" t="s">
+        <v>229</v>
+      </c>
+      <c r="D128" s="95"/>
+      <c r="E128" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="F128" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="G128" s="67" t="s">
+        <v>256</v>
+      </c>
       <c r="H128" s="67"/>
       <c r="I128" s="67"/>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="84"/>
-      <c r="B129" s="88" t="s">
-        <v>199</v>
-      </c>
-      <c r="C129" s="86" t="s">
-        <v>221</v>
-      </c>
-      <c r="D129" s="90"/>
-      <c r="E129" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="F129" s="86" t="s">
+      <c r="A129" s="89"/>
+      <c r="B129" s="93" t="s">
+        <v>178</v>
+      </c>
+      <c r="C129" s="91" t="s">
+        <v>229</v>
+      </c>
+      <c r="D129" s="95"/>
+      <c r="E129" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="F129" s="91" t="s">
         <v>12</v>
       </c>
       <c r="G129" s="67"/>
@@ -4788,18 +4842,18 @@
       <c r="I129" s="67"/>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="84"/>
-      <c r="B130" s="88" t="s">
-        <v>202</v>
-      </c>
-      <c r="C130" s="86" t="s">
-        <v>221</v>
-      </c>
-      <c r="D130" s="90"/>
-      <c r="E130" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="F130" s="86" t="s">
+      <c r="A130" s="89"/>
+      <c r="B130" s="93" t="s">
+        <v>183</v>
+      </c>
+      <c r="C130" s="91" t="s">
+        <v>229</v>
+      </c>
+      <c r="D130" s="95"/>
+      <c r="E130" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="F130" s="91" t="s">
         <v>12</v>
       </c>
       <c r="G130" s="67"/>
@@ -4807,39 +4861,37 @@
       <c r="I130" s="67"/>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="84"/>
-      <c r="B131" s="88" t="s">
-        <v>205</v>
-      </c>
-      <c r="C131" s="86" t="s">
-        <v>221</v>
-      </c>
-      <c r="D131" s="90"/>
-      <c r="E131" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="F131" s="86" t="s">
+      <c r="A131" s="89"/>
+      <c r="B131" s="93" t="s">
+        <v>187</v>
+      </c>
+      <c r="C131" s="91" t="s">
+        <v>229</v>
+      </c>
+      <c r="D131" s="95"/>
+      <c r="E131" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="F131" s="91" t="s">
         <v>12</v>
       </c>
       <c r="G131" s="67"/>
       <c r="H131" s="67"/>
       <c r="I131" s="67"/>
     </row>
-    <row r="132" customFormat="false" ht="54.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="84"/>
-      <c r="B132" s="91" t="s">
-        <v>213</v>
-      </c>
-      <c r="C132" s="92" t="s">
-        <v>221</v>
-      </c>
-      <c r="D132" s="93" t="s">
-        <v>249</v>
-      </c>
-      <c r="E132" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="F132" s="86" t="s">
+    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="89"/>
+      <c r="B132" s="93" t="s">
+        <v>191</v>
+      </c>
+      <c r="C132" s="91" t="s">
+        <v>229</v>
+      </c>
+      <c r="D132" s="95"/>
+      <c r="E132" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="F132" s="91" t="s">
         <v>12</v>
       </c>
       <c r="G132" s="67"/>
@@ -4847,45 +4899,79 @@
       <c r="I132" s="67"/>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="67"/>
-      <c r="B133" s="67"/>
-      <c r="C133" s="67"/>
-      <c r="D133" s="67"/>
-      <c r="E133" s="67"/>
-      <c r="F133" s="67"/>
+      <c r="A133" s="89"/>
+      <c r="B133" s="93" t="s">
+        <v>195</v>
+      </c>
+      <c r="C133" s="91" t="s">
+        <v>229</v>
+      </c>
+      <c r="D133" s="95"/>
+      <c r="E133" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="F133" s="91" t="s">
+        <v>12</v>
+      </c>
       <c r="G133" s="67"/>
       <c r="H133" s="67"/>
       <c r="I133" s="67"/>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="67"/>
-      <c r="B134" s="67"/>
-      <c r="C134" s="67"/>
-      <c r="D134" s="67"/>
-      <c r="E134" s="67"/>
-      <c r="F134" s="67"/>
+      <c r="A134" s="89"/>
+      <c r="B134" s="93" t="s">
+        <v>198</v>
+      </c>
+      <c r="C134" s="91" t="s">
+        <v>229</v>
+      </c>
+      <c r="D134" s="95"/>
+      <c r="E134" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="F134" s="91" t="s">
+        <v>12</v>
+      </c>
       <c r="G134" s="67"/>
       <c r="H134" s="67"/>
       <c r="I134" s="67"/>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="67"/>
-      <c r="B135" s="67"/>
-      <c r="C135" s="67"/>
-      <c r="D135" s="67"/>
-      <c r="E135" s="67"/>
-      <c r="F135" s="67"/>
+      <c r="A135" s="89"/>
+      <c r="B135" s="93" t="s">
+        <v>201</v>
+      </c>
+      <c r="C135" s="91" t="s">
+        <v>229</v>
+      </c>
+      <c r="D135" s="95"/>
+      <c r="E135" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="F135" s="91" t="s">
+        <v>12</v>
+      </c>
       <c r="G135" s="67"/>
       <c r="H135" s="67"/>
       <c r="I135" s="67"/>
     </row>
-    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="67"/>
-      <c r="B136" s="67"/>
-      <c r="C136" s="67"/>
-      <c r="D136" s="67"/>
-      <c r="E136" s="67"/>
-      <c r="F136" s="67"/>
+    <row r="136" customFormat="false" ht="54.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="89"/>
+      <c r="B136" s="96" t="s">
+        <v>209</v>
+      </c>
+      <c r="C136" s="97" t="s">
+        <v>229</v>
+      </c>
+      <c r="D136" s="98" t="s">
+        <v>257</v>
+      </c>
+      <c r="E136" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="F136" s="91" t="s">
+        <v>12</v>
+      </c>
       <c r="G136" s="67"/>
       <c r="H136" s="67"/>
       <c r="I136" s="67"/>
@@ -6627,6 +6713,50 @@
       <c r="G294" s="67"/>
       <c r="H294" s="67"/>
       <c r="I294" s="67"/>
+    </row>
+    <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="67"/>
+      <c r="B295" s="67"/>
+      <c r="C295" s="67"/>
+      <c r="D295" s="67"/>
+      <c r="E295" s="67"/>
+      <c r="F295" s="67"/>
+      <c r="G295" s="67"/>
+      <c r="H295" s="67"/>
+      <c r="I295" s="67"/>
+    </row>
+    <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="67"/>
+      <c r="B296" s="67"/>
+      <c r="C296" s="67"/>
+      <c r="D296" s="67"/>
+      <c r="E296" s="67"/>
+      <c r="F296" s="67"/>
+      <c r="G296" s="67"/>
+      <c r="H296" s="67"/>
+      <c r="I296" s="67"/>
+    </row>
+    <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="67"/>
+      <c r="B297" s="67"/>
+      <c r="C297" s="67"/>
+      <c r="D297" s="67"/>
+      <c r="E297" s="67"/>
+      <c r="F297" s="67"/>
+      <c r="G297" s="67"/>
+      <c r="H297" s="67"/>
+      <c r="I297" s="67"/>
+    </row>
+    <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="67"/>
+      <c r="B298" s="67"/>
+      <c r="C298" s="67"/>
+      <c r="D298" s="67"/>
+      <c r="E298" s="67"/>
+      <c r="F298" s="67"/>
+      <c r="G298" s="67"/>
+      <c r="H298" s="67"/>
+      <c r="I298" s="67"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J1"/>
@@ -6651,8 +6781,8 @@
     <mergeCell ref="H56:H63"/>
     <mergeCell ref="A67:E67"/>
     <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A114:A122"/>
-    <mergeCell ref="A123:A132"/>
+    <mergeCell ref="A118:A126"/>
+    <mergeCell ref="A127:A136"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
